--- a/input/energy/Shipping_Fuel_Consumption.xlsx
+++ b/input/energy/Shipping_Fuel_Consumption.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="18300" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="22620" windowHeight="18960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,8 +19,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Steve Smith</author>
+  </authors>
+  <commentList>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Times"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Smith:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Times"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"Bottom up" EstimatesThird IMO GHG Study 2014 (MEPC-67-6-INF3-2014).pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E162" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Times"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Smith:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Times"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Phase in small difference between estimates</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="34">
   <si>
     <t>Year</t>
   </si>
@@ -60,9 +119,6 @@
     <t>IMO 3d GHG Report</t>
   </si>
   <si>
-    <t>IMO Est Fuel Cons</t>
-  </si>
-  <si>
     <t>IMO "Bottom up"</t>
   </si>
   <si>
@@ -70,9 +126,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Extrapoltion</t>
   </si>
   <si>
     <t>Smith et al. (2011)</t>
@@ -98,12 +151,42 @@
   <si>
     <t>Smith et al. ACP 11, 1101–1116 (2011) and adl sources as noted below</t>
   </si>
+  <si>
+    <t>Extrapolation</t>
+  </si>
+  <si>
+    <t>Smith et al. (2011) methodology</t>
+  </si>
+  <si>
+    <t>Fuel Estimates</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Endresen, Ø., Sørgard, E., Behrens, H.L., Brett, P.O., and Isak- sen, I.S.A.: A historical reconstruction of ships’ fuel con- sumption and emissions, J. Geophys. Res., 112, D12301, doi:10.1029/2006JD007630, 2007.</t>
+  </si>
+  <si>
+    <t>Eyring, V., Isaksen, I. S. A., Berntsen, T., Collins, W. J., Corbett, J. J., Endresen, O., Grainger, R. G., Moldanova, J., Schlager, H., and Stevenson, D. S.: Transport impacts on atmosphere and climate: Shipping, Atmos. Environ., 44, 4735–4771, 2010.</t>
+  </si>
+  <si>
+    <t>Fletcher, M. E.: “From coal to oil in British shipping” in: Williams, David, M., The World of Shipping, by Aldershot, Hants, Eng- land, Ashgate, Brookfield VT, 1997.</t>
+  </si>
+  <si>
+    <t>IMO (2014) Reduction of GHG Emissions From Ships: Third IMO GHG Study 2014 (MEPC-67-6-INF3-2014)</t>
+  </si>
+  <si>
+    <t>Smith, SJ, J van Aardenne, Z Klimont, R Andres, AC Volke, and S Delgado Arias (2011) Anthropogenic Sulfur Dioxide Emissions: 1850-2005 Atmos. Chem. Phys., 11, 1101–1116.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +212,19 @@
       <name val="Times"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,14 +243,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -165,12 +309,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,42 +692,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FH16388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:B3"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="164" width="9.33203125" customWidth="1"/>
+    <col min="2" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="164" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:164">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:164">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:164">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
+      <c r="I4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:164">
@@ -560,19 +760,22 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:164">
@@ -583,9 +786,11 @@
         <v>3257.7644104169722</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" ref="C6:C69" si="0">$E6*($L6)</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" ref="D6:D69" si="1">$E6*(1-$L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -601,7 +806,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -742,9 +947,11 @@
         <v>3572.5719507243793</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -758,7 +965,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -917,9 +1124,11 @@
         <v>3887.3794910317861</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="1">
@@ -933,7 +1142,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1092,9 +1301,11 @@
         <v>4202.1870313391937</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="1">
@@ -1108,7 +1319,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1267,9 +1478,11 @@
         <v>4516.9945716466</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
@@ -1283,7 +1496,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1442,9 +1655,11 @@
         <v>4831.8021119540072</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="1">
@@ -1461,7 +1676,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -1475,9 +1690,11 @@
         <v>5146.6096522614143</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
@@ -1491,7 +1708,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:164">
@@ -1502,9 +1719,11 @@
         <v>5461.4171925688206</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
@@ -1518,7 +1737,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="FC13" s="1"/>
       <c r="FD13" s="1"/>
@@ -1535,9 +1754,11 @@
         <v>5776.2247328762278</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
@@ -1551,7 +1772,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:164">
@@ -1562,9 +1783,11 @@
         <v>6091.032273183635</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="1">
@@ -1578,7 +1801,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:164">
@@ -1589,9 +1812,11 @@
         <v>6405.8398134910422</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
@@ -1607,7 +1832,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1766,9 +1991,11 @@
         <v>6877.1157200783537</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" s="1">
@@ -1782,7 +2009,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:164">
@@ -1793,9 +2020,11 @@
         <v>7348.3916266656652</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="1">
@@ -1809,7 +2038,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:164">
@@ -1820,9 +2049,11 @@
         <v>7819.6675332529767</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
@@ -1836,7 +2067,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="DR19" s="1"/>
       <c r="DS19" s="1"/>
@@ -1890,9 +2121,11 @@
         <v>8290.9434398402882</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
@@ -1906,7 +2139,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:164">
@@ -1917,9 +2150,11 @@
         <v>8762.2193464275988</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
@@ -1933,7 +2168,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:164">
@@ -1944,9 +2179,11 @@
         <v>9233.4952530149112</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
@@ -1960,7 +2197,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:164">
@@ -1971,9 +2208,11 @@
         <v>9704.7711596022236</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="1">
@@ -1987,7 +2226,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:164">
@@ -1998,9 +2237,11 @@
         <v>10176.047066189534</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24" s="1">
@@ -2014,7 +2255,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:164">
@@ -2025,9 +2266,11 @@
         <v>10647.322972776845</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25" s="1">
@@ -2041,7 +2284,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:164">
@@ -2052,9 +2295,11 @@
         <v>11118.598879364157</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="1">
@@ -2070,7 +2315,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:164">
@@ -2081,9 +2326,11 @@
         <v>11956.738991427741</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27" s="1">
@@ -2097,7 +2344,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:164">
@@ -2108,9 +2355,11 @@
         <v>12794.879103491327</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="1">
@@ -2124,7 +2373,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:164">
@@ -2135,9 +2384,11 @@
         <v>13633.01921555491</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="1">
@@ -2151,7 +2402,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:164">
@@ -2162,9 +2413,11 @@
         <v>14471.159327618494</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30" s="1">
@@ -2178,7 +2431,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:164">
@@ -2189,9 +2442,11 @@
         <v>15309.29943968208</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="1">
@@ -2205,7 +2460,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:164">
@@ -2216,9 +2471,11 @@
         <v>16147.439551745663</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32" s="1">
@@ -2232,7 +2489,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2243,9 +2500,11 @@
         <v>16985.579663809247</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33" s="1">
@@ -2259,7 +2518,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2270,9 +2529,11 @@
         <v>17823.719775872833</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34" s="1">
@@ -2286,7 +2547,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2297,9 +2558,11 @@
         <v>18661.859887936414</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35" s="1">
@@ -2313,7 +2576,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M35" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2324,9 +2587,11 @@
         <v>19500</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36" s="1">
@@ -2342,7 +2607,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2353,9 +2618,11 @@
         <v>20690</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" s="1">
@@ -2369,7 +2636,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2380,9 +2647,11 @@
         <v>21880</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D38" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38" s="1">
@@ -2396,7 +2665,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2407,9 +2676,11 @@
         <v>23070</v>
       </c>
       <c r="C39" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D39" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39" s="1">
@@ -2423,7 +2694,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M39" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2434,9 +2705,11 @@
         <v>24260</v>
       </c>
       <c r="C40" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D40" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40" s="1">
@@ -2450,7 +2723,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2461,9 +2734,11 @@
         <v>25450</v>
       </c>
       <c r="C41" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D41" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41" s="1">
@@ -2477,7 +2752,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M41" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2488,9 +2763,11 @@
         <v>26640</v>
       </c>
       <c r="C42" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D42" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E42" s="1">
@@ -2504,7 +2781,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2515,9 +2792,11 @@
         <v>27830</v>
       </c>
       <c r="C43" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D43" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E43" s="1">
@@ -2531,7 +2810,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2542,9 +2821,11 @@
         <v>29020</v>
       </c>
       <c r="C44" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D44" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E44" s="1">
@@ -2558,7 +2839,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2569,9 +2850,11 @@
         <v>30210</v>
       </c>
       <c r="C45" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D45" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E45" s="1">
@@ -2585,7 +2868,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M45" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2596,9 +2879,11 @@
         <v>31400</v>
       </c>
       <c r="C46" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D46" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E46" s="1">
@@ -2614,7 +2899,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2625,9 +2910,11 @@
         <v>33030</v>
       </c>
       <c r="C47" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D47" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
@@ -2641,7 +2928,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2652,9 +2939,11 @@
         <v>34660</v>
       </c>
       <c r="C48" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D48" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E48" s="1">
@@ -2668,7 +2957,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2679,9 +2968,11 @@
         <v>36290</v>
       </c>
       <c r="C49" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D49" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E49" s="1">
@@ -2695,7 +2986,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2706,9 +2997,11 @@
         <v>37920</v>
       </c>
       <c r="C50" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D50" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E50" s="1">
@@ -2722,7 +3015,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2733,9 +3026,11 @@
         <v>39550</v>
       </c>
       <c r="C51" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D51" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E51" s="1">
@@ -2749,7 +3044,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2760,9 +3055,11 @@
         <v>41180</v>
       </c>
       <c r="C52" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D52" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E52" s="1">
@@ -2776,7 +3073,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M52" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2787,9 +3084,11 @@
         <v>42810</v>
       </c>
       <c r="C53" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D53" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E53" s="1">
@@ -2803,7 +3102,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2814,9 +3113,11 @@
         <v>44440</v>
       </c>
       <c r="C54" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D54" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E54" s="1">
@@ -2830,7 +3131,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2841,9 +3142,11 @@
         <v>46070</v>
       </c>
       <c r="C55" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D55" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E55" s="1">
@@ -2857,7 +3160,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2868,9 +3171,11 @@
         <v>47700</v>
       </c>
       <c r="C56" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D56" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E56" s="1">
@@ -2886,7 +3191,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2897,9 +3202,11 @@
         <v>50184.615384615383</v>
       </c>
       <c r="C57" s="1">
+        <f t="shared" si="0"/>
         <v>171.70693133152432</v>
       </c>
       <c r="D57" s="1">
+        <f t="shared" si="1"/>
         <v>44.888067872170545</v>
       </c>
       <c r="E57" s="1">
@@ -2913,7 +3220,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2924,9 +3231,11 @@
         <v>52669.230769230766</v>
       </c>
       <c r="C58" s="1">
+        <f t="shared" si="0"/>
         <v>343.41386266304863</v>
       </c>
       <c r="D58" s="1">
+        <f t="shared" si="1"/>
         <v>89.77613574434109</v>
       </c>
       <c r="E58" s="1">
@@ -2940,7 +3249,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2951,9 +3260,11 @@
         <v>55153.846153846156</v>
       </c>
       <c r="C59" s="1">
+        <f t="shared" si="0"/>
         <v>515.12079399457298</v>
       </c>
       <c r="D59" s="1">
+        <f t="shared" si="1"/>
         <v>134.66420361651163</v>
       </c>
       <c r="E59" s="1">
@@ -2967,7 +3278,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2978,9 +3289,11 @@
         <v>57638.461538461539</v>
       </c>
       <c r="C60" s="1">
+        <f t="shared" si="0"/>
         <v>686.82772532609727</v>
       </c>
       <c r="D60" s="1">
+        <f t="shared" si="1"/>
         <v>179.55227148868218</v>
       </c>
       <c r="E60" s="1">
@@ -2994,7 +3307,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3005,9 +3318,11 @@
         <v>60123.076923076922</v>
       </c>
       <c r="C61" s="1">
+        <f t="shared" si="0"/>
         <v>858.53465665762155</v>
       </c>
       <c r="D61" s="1">
+        <f t="shared" si="1"/>
         <v>224.4403393608527</v>
       </c>
       <c r="E61" s="1">
@@ -3021,7 +3336,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3032,9 +3347,11 @@
         <v>62607.692307692312</v>
       </c>
       <c r="C62" s="1">
+        <f t="shared" si="0"/>
         <v>1030.241587989146</v>
       </c>
       <c r="D62" s="1">
+        <f t="shared" si="1"/>
         <v>269.32840723302326</v>
       </c>
       <c r="E62" s="1">
@@ -3048,7 +3365,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3059,9 +3376,11 @@
         <v>65092.307692307695</v>
       </c>
       <c r="C63" s="1">
+        <f t="shared" si="0"/>
         <v>1201.9485193206704</v>
       </c>
       <c r="D63" s="1">
+        <f t="shared" si="1"/>
         <v>314.21647510519381</v>
       </c>
       <c r="E63" s="1">
@@ -3075,7 +3394,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3086,9 +3405,11 @@
         <v>67576.923076923078</v>
       </c>
       <c r="C64" s="1">
+        <f t="shared" si="0"/>
         <v>1373.6554506521945</v>
       </c>
       <c r="D64" s="1">
+        <f t="shared" si="1"/>
         <v>359.10454297736436</v>
       </c>
       <c r="E64" s="1">
@@ -3102,7 +3423,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M64" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3113,9 +3434,11 @@
         <v>70061.538461538468</v>
       </c>
       <c r="C65" s="1">
+        <f t="shared" si="0"/>
         <v>1545.3623819837189</v>
       </c>
       <c r="D65" s="1">
+        <f t="shared" si="1"/>
         <v>403.99261084953491</v>
       </c>
       <c r="E65" s="1">
@@ -3129,7 +3452,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M65" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3140,9 +3463,11 @@
         <v>72546.153846153844</v>
       </c>
       <c r="C66" s="1">
+        <f t="shared" si="0"/>
         <v>1717.0693133152431</v>
       </c>
       <c r="D66" s="1">
+        <f t="shared" si="1"/>
         <v>448.88067872170541</v>
       </c>
       <c r="E66" s="1">
@@ -3156,7 +3481,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M66" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3167,9 +3492,11 @@
         <v>75030.769230769234</v>
       </c>
       <c r="C67" s="1">
+        <f t="shared" si="0"/>
         <v>1888.7762446467675</v>
       </c>
       <c r="D67" s="1">
+        <f t="shared" si="1"/>
         <v>493.76874659387596</v>
       </c>
       <c r="E67" s="1">
@@ -3183,7 +3510,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M67" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3194,9 +3521,11 @@
         <v>77515.384615384624</v>
       </c>
       <c r="C68" s="1">
+        <f t="shared" si="0"/>
         <v>2060.4831759782919</v>
       </c>
       <c r="D68" s="1">
+        <f t="shared" si="1"/>
         <v>538.65681446604651</v>
       </c>
       <c r="E68" s="1">
@@ -3210,7 +3539,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M68" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3221,9 +3550,11 @@
         <v>80000</v>
       </c>
       <c r="C69" s="1">
+        <f t="shared" si="0"/>
         <v>2232.1901073098161</v>
       </c>
       <c r="D69" s="1">
+        <f t="shared" si="1"/>
         <v>583.54488233821701</v>
       </c>
       <c r="E69" s="1">
@@ -3239,7 +3570,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M69" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3250,9 +3581,11 @@
         <v>78225.185185185182</v>
       </c>
       <c r="C70" s="1">
+        <f t="shared" ref="C70:C133" si="2">$E70*($L70)</f>
         <v>3668.2406162604084</v>
       </c>
       <c r="D70" s="1">
+        <f t="shared" ref="D70:D133" si="3">$E70*(1-$L70)</f>
         <v>958.96090202806693</v>
       </c>
       <c r="E70" s="1">
@@ -3266,7 +3599,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M70" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3277,9 +3610,11 @@
         <v>76450.370370370365</v>
       </c>
       <c r="C71" s="1">
+        <f t="shared" si="2"/>
         <v>5104.2911252109998</v>
       </c>
       <c r="D71" s="1">
+        <f t="shared" si="3"/>
         <v>1334.3769217179167</v>
       </c>
       <c r="E71" s="1">
@@ -3293,7 +3628,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M71" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3304,9 +3639,11 @@
         <v>74675.555555555562</v>
       </c>
       <c r="C72" s="1">
+        <f t="shared" si="2"/>
         <v>6540.3416341615921</v>
       </c>
       <c r="D72" s="1">
+        <f t="shared" si="3"/>
         <v>1709.7929414077664</v>
       </c>
       <c r="E72" s="1">
@@ -3320,7 +3657,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M72" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3331,9 +3668,11 @@
         <v>72900.740740740745</v>
       </c>
       <c r="C73" s="1">
+        <f t="shared" si="2"/>
         <v>7976.3921431121835</v>
       </c>
       <c r="D73" s="1">
+        <f t="shared" si="3"/>
         <v>2085.2089610976163</v>
       </c>
       <c r="E73" s="1">
@@ -3347,7 +3686,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M73" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3358,9 +3697,11 @@
         <v>71125.925925925927</v>
       </c>
       <c r="C74" s="1">
+        <f t="shared" si="2"/>
         <v>9412.4426520627749</v>
       </c>
       <c r="D74" s="1">
+        <f t="shared" si="3"/>
         <v>2460.624980787466</v>
       </c>
       <c r="E74" s="1">
@@ -3374,7 +3715,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M74" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3385,9 +3726,11 @@
         <v>69351.111111111109</v>
       </c>
       <c r="C75" s="1">
+        <f t="shared" si="2"/>
         <v>10848.493161013368</v>
       </c>
       <c r="D75" s="1">
+        <f t="shared" si="3"/>
         <v>2836.0410004773157</v>
       </c>
       <c r="E75" s="1">
@@ -3401,7 +3744,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M75" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3412,9 +3755,11 @@
         <v>67576.296296296292</v>
       </c>
       <c r="C76" s="1">
+        <f t="shared" si="2"/>
         <v>12284.543669963959</v>
       </c>
       <c r="D76" s="1">
+        <f t="shared" si="3"/>
         <v>3211.4570201671654</v>
       </c>
       <c r="E76" s="1">
@@ -3428,7 +3773,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M76" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3439,9 +3784,11 @@
         <v>65801.481481481474</v>
       </c>
       <c r="C77" s="1">
+        <f t="shared" si="2"/>
         <v>13720.594178914551</v>
       </c>
       <c r="D77" s="1">
+        <f t="shared" si="3"/>
         <v>3586.8730398570151</v>
       </c>
       <c r="E77" s="1">
@@ -3455,7 +3802,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M77" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3466,9 +3813,11 @@
         <v>64026.666666666664</v>
       </c>
       <c r="C78" s="1">
+        <f t="shared" si="2"/>
         <v>15156.644687865142</v>
       </c>
       <c r="D78" s="1">
+        <f t="shared" si="3"/>
         <v>3962.2890595468648</v>
       </c>
       <c r="E78" s="1">
@@ -3482,7 +3831,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M78" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3493,9 +3842,11 @@
         <v>62251.851851851854</v>
       </c>
       <c r="C79" s="1">
+        <f t="shared" si="2"/>
         <v>16592.695196815734</v>
       </c>
       <c r="D79" s="1">
+        <f t="shared" si="3"/>
         <v>4337.7050792367145</v>
       </c>
       <c r="E79" s="1">
@@ -3509,7 +3860,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M79" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3520,9 +3871,11 @@
         <v>60477.037037037036</v>
       </c>
       <c r="C80" s="1">
+        <f t="shared" si="2"/>
         <v>18028.745705766327</v>
       </c>
       <c r="D80" s="1">
+        <f t="shared" si="3"/>
         <v>4713.1210989265646</v>
       </c>
       <c r="E80" s="1">
@@ -3536,7 +3889,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M80" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3547,9 +3900,11 @@
         <v>58702.222222222219</v>
       </c>
       <c r="C81" s="1">
+        <f t="shared" si="2"/>
         <v>19464.796214716916</v>
       </c>
       <c r="D81" s="1">
+        <f t="shared" si="3"/>
         <v>5088.5371186164139</v>
       </c>
       <c r="E81" s="1">
@@ -3565,7 +3920,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M81" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3576,9 +3931,11 @@
         <v>58490.555555555555</v>
       </c>
       <c r="C82" s="1">
+        <f t="shared" si="2"/>
         <v>20723.295969978786</v>
       </c>
       <c r="D82" s="1">
+        <f t="shared" si="3"/>
         <v>5417.5373633545441</v>
       </c>
       <c r="E82" s="1">
@@ -3592,7 +3949,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M82" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3603,9 +3960,11 @@
         <v>58278.888888888891</v>
       </c>
       <c r="C83" s="1">
+        <f t="shared" si="2"/>
         <v>21981.795725240656</v>
       </c>
       <c r="D83" s="1">
+        <f t="shared" si="3"/>
         <v>5746.5376080926744</v>
       </c>
       <c r="E83" s="1">
@@ -3619,7 +3978,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M83" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3630,9 +3989,11 @@
         <v>58067.222222222219</v>
       </c>
       <c r="C84" s="1">
+        <f t="shared" si="2"/>
         <v>23240.295480502526</v>
       </c>
       <c r="D84" s="1">
+        <f t="shared" si="3"/>
         <v>6075.5378528308047</v>
       </c>
       <c r="E84" s="1">
@@ -3646,7 +4007,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M84" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3657,9 +4018,11 @@
         <v>57855.555555555555</v>
       </c>
       <c r="C85" s="1">
+        <f t="shared" si="2"/>
         <v>24498.795235764395</v>
       </c>
       <c r="D85" s="1">
+        <f t="shared" si="3"/>
         <v>6404.538097568935</v>
       </c>
       <c r="E85" s="1">
@@ -3675,7 +4038,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M85" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3686,9 +4049,11 @@
         <v>53198.888888888891</v>
       </c>
       <c r="C86" s="1">
+        <f t="shared" si="2"/>
         <v>23715.728721379233</v>
       </c>
       <c r="D86" s="1">
+        <f t="shared" si="3"/>
         <v>6199.8268341763205</v>
       </c>
       <c r="E86" s="1">
@@ -3702,7 +4067,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3713,9 +4078,11 @@
         <v>48542.222222222226</v>
       </c>
       <c r="C87" s="1">
+        <f t="shared" si="2"/>
         <v>22932.662206994071</v>
       </c>
       <c r="D87" s="1">
+        <f t="shared" si="3"/>
         <v>5995.115570783707</v>
       </c>
       <c r="E87" s="1">
@@ -3729,7 +4096,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M87" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3740,9 +4107,11 @@
         <v>43885.555555555562</v>
       </c>
       <c r="C88" s="1">
+        <f t="shared" si="2"/>
         <v>22149.595692608909</v>
       </c>
       <c r="D88" s="1">
+        <f t="shared" si="3"/>
         <v>5790.4043073910925</v>
       </c>
       <c r="E88" s="1">
@@ -3756,7 +4125,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M88" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3767,9 +4136,11 @@
         <v>39228.888888888898</v>
       </c>
       <c r="C89" s="1">
+        <f t="shared" si="2"/>
         <v>21366.529178223744</v>
       </c>
       <c r="D89" s="1">
+        <f t="shared" si="3"/>
         <v>5585.6930439984781</v>
       </c>
       <c r="E89" s="1">
@@ -3785,7 +4156,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M89" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3796,9 +4167,11 @@
         <v>40251.944444444453</v>
       </c>
       <c r="C90" s="1">
+        <f t="shared" si="2"/>
         <v>22625.028933485613</v>
       </c>
       <c r="D90" s="1">
+        <f t="shared" si="3"/>
         <v>5914.6932887366083</v>
       </c>
       <c r="E90" s="1">
@@ -3812,7 +4185,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M90" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3823,9 +4196,11 @@
         <v>41275</v>
       </c>
       <c r="C91" s="1">
+        <f t="shared" si="2"/>
         <v>23883.528688747479</v>
       </c>
       <c r="D91" s="1">
+        <f t="shared" si="3"/>
         <v>6243.6935334747377</v>
       </c>
       <c r="E91" s="1">
@@ -3839,7 +4214,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M91" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3850,9 +4225,11 @@
         <v>42298.055555555555</v>
       </c>
       <c r="C92" s="1">
+        <f t="shared" si="2"/>
         <v>25142.028444009353</v>
       </c>
       <c r="D92" s="1">
+        <f t="shared" si="3"/>
         <v>6572.693778212868</v>
       </c>
       <c r="E92" s="1">
@@ -3866,7 +4243,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M92" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3877,9 +4254,11 @@
         <v>43321.111111111109</v>
       </c>
       <c r="C93" s="1">
+        <f t="shared" si="2"/>
         <v>26400.528199271223</v>
       </c>
       <c r="D93" s="1">
+        <f t="shared" si="3"/>
         <v>6901.6940229509983</v>
       </c>
       <c r="E93" s="1">
@@ -3895,7 +4274,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M93" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3906,9 +4285,11 @@
         <v>39511.111111111109</v>
       </c>
       <c r="C94" s="1">
+        <f t="shared" si="2"/>
         <v>23939.462011203563</v>
       </c>
       <c r="D94" s="1">
+        <f t="shared" si="3"/>
         <v>6258.3157665742101</v>
       </c>
       <c r="E94" s="1">
@@ -3924,7 +4305,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M94" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3935,9 +4316,11 @@
         <v>37653.148148148146</v>
       </c>
       <c r="C95" s="1">
+        <f t="shared" si="2"/>
         <v>26465.783742136646</v>
       </c>
       <c r="D95" s="1">
+        <f t="shared" si="3"/>
         <v>6918.7532949003817</v>
       </c>
       <c r="E95" s="1">
@@ -3951,7 +4334,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M95" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3962,9 +4345,11 @@
         <v>35795.185185185182</v>
       </c>
       <c r="C96" s="1">
+        <f t="shared" si="2"/>
         <v>28992.105473069736</v>
       </c>
       <c r="D96" s="1">
+        <f t="shared" si="3"/>
         <v>7579.190823226555</v>
       </c>
       <c r="E96" s="1">
@@ -3978,7 +4363,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M96" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3989,9 +4374,11 @@
         <v>33937.222222222219</v>
       </c>
       <c r="C97" s="1">
+        <f t="shared" si="2"/>
         <v>31518.427204002819</v>
       </c>
       <c r="D97" s="1">
+        <f t="shared" si="3"/>
         <v>8239.6283515527266</v>
       </c>
       <c r="E97" s="1">
@@ -4005,7 +4392,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M97" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4016,9 +4403,11 @@
         <v>32079.259259259259</v>
       </c>
       <c r="C98" s="1">
+        <f t="shared" si="2"/>
         <v>34044.748934935909</v>
       </c>
       <c r="D98" s="1">
+        <f t="shared" si="3"/>
         <v>8900.0658798789009</v>
       </c>
       <c r="E98" s="1">
@@ -4032,7 +4421,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M98" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4043,9 +4432,11 @@
         <v>30221.296296296296</v>
       </c>
       <c r="C99" s="1">
+        <f t="shared" si="2"/>
         <v>36571.070665868996</v>
       </c>
       <c r="D99" s="1">
+        <f t="shared" si="3"/>
         <v>9560.5034082050715</v>
       </c>
       <c r="E99" s="1">
@@ -4059,7 +4450,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M99" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4070,9 +4461,11 @@
         <v>28363.333333333332</v>
       </c>
       <c r="C100" s="1">
+        <f t="shared" si="2"/>
         <v>39097.392396802083</v>
       </c>
       <c r="D100" s="1">
+        <f t="shared" si="3"/>
         <v>10220.940936531246</v>
       </c>
       <c r="E100" s="1">
@@ -4086,7 +4479,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M100" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4097,9 +4490,11 @@
         <v>26505.370370370372</v>
       </c>
       <c r="C101" s="1">
+        <f t="shared" si="2"/>
         <v>41623.714127735169</v>
       </c>
       <c r="D101" s="1">
+        <f t="shared" si="3"/>
         <v>10881.378464857416</v>
       </c>
       <c r="E101" s="1">
@@ -4113,7 +4508,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M101" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4124,9 +4519,11 @@
         <v>24647.407407407409</v>
       </c>
       <c r="C102" s="1">
+        <f t="shared" si="2"/>
         <v>44150.035858668249</v>
       </c>
       <c r="D102" s="1">
+        <f t="shared" si="3"/>
         <v>11541.815993183589</v>
       </c>
       <c r="E102" s="1">
@@ -4140,7 +4537,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M102" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4151,9 +4548,11 @@
         <v>22789.444444444445</v>
       </c>
       <c r="C103" s="1">
+        <f t="shared" si="2"/>
         <v>46676.357589601343</v>
       </c>
       <c r="D103" s="1">
+        <f t="shared" si="3"/>
         <v>12202.253521509761</v>
       </c>
       <c r="E103" s="1">
@@ -4167,7 +4566,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M103" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4178,9 +4577,11 @@
         <v>20931.481481481482</v>
       </c>
       <c r="C104" s="1">
+        <f t="shared" si="2"/>
         <v>49202.679320534429</v>
       </c>
       <c r="D104" s="1">
+        <f t="shared" si="3"/>
         <v>12862.691049835936</v>
       </c>
       <c r="E104" s="1">
@@ -4194,7 +4595,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M104" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4205,9 +4606,11 @@
         <v>19073.518518518518</v>
       </c>
       <c r="C105" s="1">
+        <f t="shared" si="2"/>
         <v>51729.001051467516</v>
       </c>
       <c r="D105" s="1">
+        <f t="shared" si="3"/>
         <v>13523.128578162106</v>
       </c>
       <c r="E105" s="1">
@@ -4221,7 +4624,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M105" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4232,9 +4635,11 @@
         <v>17215.555555555555</v>
       </c>
       <c r="C106" s="1">
+        <f t="shared" si="2"/>
         <v>54255.322782400595</v>
       </c>
       <c r="D106" s="1">
+        <f t="shared" si="3"/>
         <v>14183.566106488279</v>
       </c>
       <c r="E106" s="1">
@@ -4250,7 +4655,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M106" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4261,9 +4666,11 @@
         <v>12925.777777777777</v>
       </c>
       <c r="C107" s="1">
+        <f t="shared" si="2"/>
         <v>53584.122912927611</v>
       </c>
       <c r="D107" s="1">
+        <f t="shared" si="3"/>
         <v>14008.099309294612</v>
       </c>
       <c r="E107" s="1">
@@ -4279,7 +4686,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M107" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4290,9 +4697,11 @@
         <v>10950.222222222221</v>
       </c>
       <c r="C108" s="1">
+        <f t="shared" si="2"/>
         <v>56716.388970468273</v>
       </c>
       <c r="D108" s="1">
+        <f t="shared" si="3"/>
         <v>14826.944362865072</v>
       </c>
       <c r="E108" s="1">
@@ -4308,7 +4717,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M108" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4319,9 +4728,11 @@
         <v>8692.4444444444434</v>
       </c>
       <c r="C109" s="1">
+        <f t="shared" si="2"/>
         <v>59177.455158535908</v>
       </c>
       <c r="D109" s="1">
+        <f t="shared" si="3"/>
         <v>15470.322619241855</v>
       </c>
       <c r="E109" s="1">
@@ -4337,7 +4748,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M109" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4348,9 +4759,11 @@
         <v>8043.3333333333348</v>
       </c>
       <c r="C110" s="1">
+        <f t="shared" si="2"/>
         <v>60296.12160765758</v>
       </c>
       <c r="D110" s="1">
+        <f t="shared" si="3"/>
         <v>15762.767281231307</v>
       </c>
       <c r="E110" s="1">
@@ -4366,7 +4779,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M110" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4377,9 +4790,11 @@
         <v>7549.4444444444434</v>
       </c>
       <c r="C111" s="1">
+        <f t="shared" si="2"/>
         <v>67455.586882036223</v>
       </c>
       <c r="D111" s="1">
+        <f t="shared" si="3"/>
         <v>17634.413117963781</v>
       </c>
       <c r="E111" s="1">
@@ -4395,7 +4810,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M111" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4406,9 +4821,11 @@
         <v>6307.6666666666661</v>
       </c>
       <c r="C112" s="1">
+        <f t="shared" si="2"/>
         <v>74615.052156414866</v>
       </c>
       <c r="D112" s="1">
+        <f t="shared" si="3"/>
         <v>19506.058954696258</v>
       </c>
       <c r="E112" s="1">
@@ -4424,7 +4841,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M112" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -4435,9 +4852,11 @@
         <v>5362.2222222222217</v>
       </c>
       <c r="C113" s="1">
+        <f t="shared" si="2"/>
         <v>80543.984336759662</v>
       </c>
       <c r="D113" s="1">
+        <f t="shared" si="3"/>
         <v>21056.015663240334</v>
       </c>
       <c r="E113" s="1">
@@ -4453,7 +4872,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M113" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -4464,9 +4883,11 @@
         <v>4035.7777777777778</v>
       </c>
       <c r="C114" s="1">
+        <f t="shared" si="2"/>
         <v>77076.118344482529</v>
       </c>
       <c r="D114" s="1">
+        <f t="shared" si="3"/>
         <v>20149.437211073047</v>
       </c>
       <c r="E114" s="1">
@@ -4482,7 +4903,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M114" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -4493,9 +4914,11 @@
         <v>3132.666666666667</v>
       </c>
       <c r="C115" s="1">
+        <f t="shared" si="2"/>
         <v>77299.851634306833</v>
       </c>
       <c r="D115" s="1">
+        <f t="shared" si="3"/>
         <v>20207.92614347093</v>
       </c>
       <c r="E115" s="1">
@@ -4511,7 +4934,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M115" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -4522,9 +4945,11 @@
         <v>2257.7777777777778</v>
       </c>
       <c r="C116" s="1">
+        <f t="shared" si="2"/>
         <v>86025.449937455822</v>
       </c>
       <c r="D116" s="1">
+        <f t="shared" si="3"/>
         <v>22488.994506988638</v>
       </c>
       <c r="E116" s="1">
@@ -4540,7 +4965,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M116" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -4551,9 +4976,11 @@
         <v>1524</v>
       </c>
       <c r="C117" s="1">
+        <f t="shared" si="2"/>
         <v>94415.448305868282</v>
       </c>
       <c r="D117" s="1">
+        <f t="shared" si="3"/>
         <v>24682.329471909507</v>
       </c>
       <c r="E117" s="1">
@@ -4569,7 +4996,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M117" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -4580,9 +5007,11 @@
         <v>1114.7777777777778</v>
       </c>
       <c r="C118" s="1">
+        <f t="shared" si="2"/>
         <v>95645.981399902099</v>
       </c>
       <c r="D118" s="1">
+        <f t="shared" si="3"/>
         <v>25004.018600097897</v>
       </c>
       <c r="E118" s="1">
@@ -4598,7 +5027,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M118" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -4609,9 +5038,11 @@
         <v>987.7777777777776</v>
       </c>
       <c r="C119" s="1">
+        <f t="shared" si="2"/>
         <v>100232.5138413009</v>
       </c>
       <c r="D119" s="1">
+        <f t="shared" si="3"/>
         <v>26203.041714254636</v>
       </c>
       <c r="E119" s="1">
@@ -4627,7 +5058,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M119" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -4638,9 +5069,11 @@
         <v>1114.7777777777778</v>
       </c>
       <c r="C120" s="1">
+        <f t="shared" si="2"/>
         <v>109069.97878936205</v>
       </c>
       <c r="D120" s="1">
+        <f t="shared" si="3"/>
         <v>28513.354543971291</v>
       </c>
       <c r="E120" s="1">
@@ -4656,7 +5089,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M120" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -4667,9 +5100,11 @@
         <v>987.7777777777776</v>
       </c>
       <c r="C121" s="1">
+        <f t="shared" si="2"/>
         <v>113656.51123076085</v>
       </c>
       <c r="D121" s="1">
+        <f t="shared" si="3"/>
         <v>29712.377658128025</v>
       </c>
       <c r="E121" s="1">
@@ -4685,7 +5120,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M121" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -4696,9 +5131,11 @@
         <v>1001.8888888888888</v>
       </c>
       <c r="C122" s="1">
+        <f t="shared" si="2"/>
         <v>108846.24549953772</v>
       </c>
       <c r="D122" s="1">
+        <f t="shared" si="3"/>
         <v>28454.865611573401</v>
       </c>
       <c r="E122" s="1">
@@ -4714,7 +5151,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M122" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -4725,9 +5162,11 @@
         <v>719.66666666666663</v>
       </c>
       <c r="C123" s="1">
+        <f t="shared" si="2"/>
         <v>117459.9771577745</v>
       </c>
       <c r="D123" s="1">
+        <f t="shared" si="3"/>
         <v>30706.689508892156</v>
       </c>
       <c r="E123" s="1">
@@ -4743,7 +5182,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M123" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -4754,9 +5193,11 @@
         <v>437.4444444444444</v>
       </c>
       <c r="C124" s="1">
+        <f t="shared" si="2"/>
         <v>124843.17572197747</v>
       </c>
       <c r="D124" s="1">
+        <f t="shared" si="3"/>
         <v>32636.824278022519</v>
       </c>
       <c r="E124" s="1">
@@ -4772,7 +5213,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M124" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -4783,9 +5224,11 @@
         <v>465.66666666666669</v>
       </c>
       <c r="C125" s="1">
+        <f t="shared" si="2"/>
         <v>114551.4443900582</v>
       </c>
       <c r="D125" s="1">
+        <f t="shared" si="3"/>
         <v>29946.333387719587</v>
       </c>
       <c r="E125" s="1">
@@ -4801,7 +5244,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M125" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -4812,9 +5255,11 @@
         <v>479.77777777777783</v>
       </c>
       <c r="C126" s="1">
+        <f t="shared" si="2"/>
         <v>119809.17670092999</v>
       </c>
       <c r="D126" s="1">
+        <f t="shared" si="3"/>
         <v>31320.823299069998</v>
       </c>
       <c r="E126" s="1">
@@ -4830,13 +5275,13 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M126" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O126" s="1">
         <v>2605</v>
       </c>
       <c r="P126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -4847,9 +5292,11 @@
         <v>324.5555555555556</v>
       </c>
       <c r="C127" s="1">
+        <f t="shared" si="2"/>
         <v>124110.31707184424</v>
       </c>
       <c r="D127" s="1">
+        <f t="shared" si="3"/>
         <v>32445.238483711324</v>
       </c>
       <c r="E127" s="1">
@@ -4865,13 +5312,13 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O127" s="1">
         <v>2692</v>
       </c>
       <c r="P127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -4882,9 +5329,11 @@
         <v>282.22222222222223</v>
       </c>
       <c r="C128" s="1">
+        <f t="shared" si="2"/>
         <v>127638.5328825984</v>
       </c>
       <c r="D128" s="1">
+        <f t="shared" si="3"/>
         <v>34028.133784068261</v>
       </c>
       <c r="E128" s="1">
@@ -4900,13 +5349,13 @@
         <v>0.78951669824287674</v>
       </c>
       <c r="M128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O128" s="1">
         <v>2874</v>
       </c>
       <c r="P128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -4917,9 +5366,11 @@
         <v>225.7777777777778</v>
       </c>
       <c r="C129" s="1">
+        <f t="shared" si="2"/>
         <v>135147.90554684089</v>
       </c>
       <c r="D129" s="1">
+        <f t="shared" si="3"/>
         <v>35629.87223093689</v>
       </c>
       <c r="E129" s="1">
@@ -4935,13 +5386,13 @@
         <v>0.79136704614285491</v>
       </c>
       <c r="M129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O129" s="1">
         <v>3274</v>
       </c>
       <c r="P129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -4952,9 +5403,11 @@
         <v>155.2222222222222</v>
       </c>
       <c r="C130" s="1">
+        <f t="shared" si="2"/>
         <v>129309.45847250981</v>
       </c>
       <c r="D130" s="1">
+        <f t="shared" si="3"/>
         <v>34801.652638601285</v>
       </c>
       <c r="E130" s="1">
@@ -4970,13 +5423,13 @@
         <v>0.78793847410466378</v>
       </c>
       <c r="M130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O130" s="1">
         <v>3304</v>
       </c>
       <c r="P130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -4987,9 +5440,11 @@
         <v>56.44444444444445</v>
       </c>
       <c r="C131" s="1">
+        <f t="shared" si="2"/>
         <v>118108.88873303669</v>
       </c>
       <c r="D131" s="1">
+        <f t="shared" si="3"/>
         <v>35446.666822518848</v>
       </c>
       <c r="E131" s="1">
@@ -5005,13 +5460,13 @@
         <v>0.76916063574336491</v>
       </c>
       <c r="M131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O131" s="1">
         <v>3072</v>
       </c>
       <c r="P131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -5022,9 +5477,11 @@
         <v>42.333333333333336</v>
       </c>
       <c r="C132" s="1">
+        <f t="shared" si="2"/>
         <v>121122.1162072357</v>
       </c>
       <c r="D132" s="1">
+        <f t="shared" si="3"/>
         <v>36766.772681653179</v>
       </c>
       <c r="E132" s="1">
@@ -5040,13 +5497,13 @@
         <v>0.76713514839206287</v>
       </c>
       <c r="M132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O132" s="1">
         <v>3366</v>
       </c>
       <c r="P132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -5057,9 +5514,11 @@
         <v>28.222222222222225</v>
       </c>
       <c r="C133" s="1">
+        <f t="shared" si="2"/>
         <v>118979.10907694658</v>
       </c>
       <c r="D133" s="1">
+        <f t="shared" si="3"/>
         <v>37354.224256386726</v>
       </c>
       <c r="E133" s="1">
@@ -5075,13 +5534,13 @@
         <v>0.76106039921287805</v>
       </c>
       <c r="M133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O133" s="1">
         <v>3468</v>
       </c>
       <c r="P133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -5092,9 +5551,11 @@
         <v>14.111111111111112</v>
       </c>
       <c r="C134" s="1">
+        <f t="shared" ref="C134:C168" si="4">$E134*($L134)</f>
         <v>118342.18676908125</v>
       </c>
       <c r="D134" s="1">
+        <f t="shared" ref="D134:D168" si="5">$E134*(1-$L134)</f>
         <v>38768.924342029874</v>
       </c>
       <c r="E134" s="1">
@@ -5110,13 +5571,13 @@
         <v>0.75323881253304892</v>
       </c>
       <c r="M134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O134" s="1">
         <v>3550</v>
       </c>
       <c r="P134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -5127,9 +5588,11 @@
         <v>4</v>
       </c>
       <c r="C135" s="1">
+        <f t="shared" si="4"/>
         <v>123792.55068896992</v>
       </c>
       <c r="D135" s="1">
+        <f t="shared" si="5"/>
         <v>39020.782644363419</v>
       </c>
       <c r="E135" s="1">
@@ -5145,13 +5608,13 @@
         <v>0.76033423156766389</v>
       </c>
       <c r="M135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O135" s="1">
         <v>3828</v>
       </c>
       <c r="P135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -5162,9 +5625,11 @@
         <v>11</v>
       </c>
       <c r="C136" s="1">
+        <f t="shared" si="4"/>
         <v>121376.73001342786</v>
       </c>
       <c r="D136" s="1">
+        <f t="shared" si="5"/>
         <v>37597.714431016575</v>
       </c>
       <c r="E136" s="1">
@@ -5180,13 +5645,13 @@
         <v>0.76349837508533924</v>
       </c>
       <c r="M136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O136" s="1">
         <v>3704</v>
       </c>
       <c r="P136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -5197,9 +5662,11 @@
         <v>9</v>
       </c>
       <c r="C137" s="1">
+        <f t="shared" si="4"/>
         <v>110285.03474489234</v>
       </c>
       <c r="D137" s="1">
+        <f t="shared" si="5"/>
         <v>37992.743032885439</v>
       </c>
       <c r="E137" s="1">
@@ -5215,13 +5682,13 @@
         <v>0.74377318299290451</v>
       </c>
       <c r="M137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O137" s="1">
         <v>3555</v>
       </c>
       <c r="P137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -5232,9 +5699,11 @@
         <v>1</v>
       </c>
       <c r="C138" s="1">
+        <f t="shared" si="4"/>
         <v>97526.139920868314</v>
       </c>
       <c r="D138" s="1">
+        <f t="shared" si="5"/>
         <v>38249.415634687219</v>
       </c>
       <c r="E138" s="1">
@@ -5250,13 +5719,13 @@
         <v>0.71828938222214356</v>
       </c>
       <c r="M138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O138" s="1">
         <v>3273</v>
       </c>
       <c r="P138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -5267,9 +5736,11 @@
         <v>1</v>
       </c>
       <c r="C139" s="1">
+        <f t="shared" si="4"/>
         <v>90493.172556167352</v>
       </c>
       <c r="D139" s="1">
+        <f t="shared" si="5"/>
         <v>37064.605221610429</v>
       </c>
       <c r="E139" s="1">
@@ -5285,13 +5756,13 @@
         <v>0.70942888887432809</v>
       </c>
       <c r="M139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O139" s="1">
         <v>3231</v>
       </c>
       <c r="P139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -5302,9 +5773,11 @@
         <v>1</v>
       </c>
       <c r="C140" s="1">
+        <f t="shared" si="4"/>
         <v>91490.74377563961</v>
       </c>
       <c r="D140" s="1">
+        <f t="shared" si="5"/>
         <v>39569.256224360397</v>
       </c>
       <c r="E140" s="1">
@@ -5320,13 +5793,13 @@
         <v>0.69808289161940795</v>
       </c>
       <c r="M140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O140" s="1">
         <v>3364</v>
       </c>
       <c r="P140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -5337,9 +5810,11 @@
         <v>0</v>
       </c>
       <c r="C141" s="1">
+        <f t="shared" si="4"/>
         <v>95693.405678297262</v>
       </c>
       <c r="D141" s="1">
+        <f t="shared" si="5"/>
         <v>42811.038766147212</v>
       </c>
       <c r="E141" s="1">
@@ -5355,13 +5830,13 @@
         <v>0.69090494577364159</v>
       </c>
       <c r="M141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O141" s="1">
         <v>3330</v>
       </c>
       <c r="P141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -5372,9 +5847,11 @@
         <v>0</v>
       </c>
       <c r="C142" s="1">
+        <f t="shared" si="4"/>
         <v>102060.01303317322</v>
       </c>
       <c r="D142" s="1">
+        <f t="shared" si="5"/>
         <v>42821.702670032719</v>
       </c>
       <c r="E142" s="1">
@@ -5386,17 +5863,20 @@
       <c r="G142" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J142" s="1">
+        <v>144881.71570320593</v>
+      </c>
       <c r="L142" s="2">
         <v>0.70443680583025314</v>
       </c>
       <c r="M142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O142" s="1">
         <v>3385</v>
       </c>
       <c r="P142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -5407,9 +5887,11 @@
         <v>0</v>
       </c>
       <c r="C143" s="1">
+        <f t="shared" si="4"/>
         <v>98747.008470234185</v>
       </c>
       <c r="D143" s="1">
+        <f t="shared" si="5"/>
         <v>50777.279531775406</v>
       </c>
       <c r="E143" s="1">
@@ -5421,17 +5903,20 @@
       <c r="G143" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J143" s="1">
+        <v>149524.28800200959</v>
+      </c>
       <c r="L143" s="2">
         <v>0.66040781594564113</v>
       </c>
       <c r="M143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O143" s="1">
         <v>3505</v>
       </c>
       <c r="P143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -5442,9 +5927,11 @@
         <v>0</v>
       </c>
       <c r="C144" s="1">
+        <f t="shared" si="4"/>
         <v>102715.21620750133</v>
       </c>
       <c r="D144" s="1">
+        <f t="shared" si="5"/>
         <v>57254.85946681651</v>
       </c>
       <c r="E144" s="1">
@@ -5456,17 +5943,20 @@
       <c r="G144" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J144" s="1">
+        <v>159970.07567431784</v>
+      </c>
       <c r="L144" s="2">
         <v>0.64209018952156183</v>
       </c>
       <c r="M144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O144" s="1">
         <v>3735</v>
       </c>
       <c r="P144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -5477,9 +5967,11 @@
         <v>0</v>
       </c>
       <c r="C145" s="1">
+        <f t="shared" si="4"/>
         <v>106816.86042414946</v>
       </c>
       <c r="D145" s="1">
+        <f t="shared" si="5"/>
         <v>64508.696143188114</v>
       </c>
       <c r="E145" s="1">
@@ -5491,17 +5983,20 @@
       <c r="G145" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J145" s="1">
+        <v>171325.55656733757</v>
+      </c>
       <c r="L145" s="2">
         <v>0.62347300989018706</v>
       </c>
       <c r="M145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O145" s="1">
         <v>3940</v>
       </c>
       <c r="P145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -5512,9 +6007,11 @@
         <v>0</v>
       </c>
       <c r="C146" s="1">
+        <f t="shared" si="4"/>
         <v>111413.05876254434</v>
       </c>
       <c r="D146" s="1">
+        <f t="shared" si="5"/>
         <v>67608.293327134437</v>
       </c>
       <c r="E146" s="1">
@@ -5526,17 +6023,20 @@
       <c r="G146" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J146" s="1">
+        <v>179021.35208967878</v>
+      </c>
       <c r="L146" s="2">
         <v>0.62234508600255234</v>
       </c>
       <c r="M146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O146" s="1">
         <v>4008</v>
       </c>
       <c r="P146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -5547,9 +6047,11 @@
         <v>0</v>
       </c>
       <c r="C147" s="1">
+        <f t="shared" si="4"/>
         <v>115347.23664617109</v>
       </c>
       <c r="D147" s="1">
+        <f t="shared" si="5"/>
         <v>71537.210868508453</v>
       </c>
       <c r="E147" s="1">
@@ -5561,17 +6063,20 @@
       <c r="G147" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J147" s="1">
+        <v>186884.44751467954</v>
+      </c>
       <c r="L147" s="2">
         <v>0.61721153461478229</v>
       </c>
       <c r="M147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O147" s="1">
         <v>4120</v>
       </c>
       <c r="P147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -5582,9 +6087,11 @@
         <v>0</v>
       </c>
       <c r="C148" s="1">
+        <f t="shared" si="4"/>
         <v>126677.73909256482</v>
       </c>
       <c r="D148" s="1">
+        <f t="shared" si="5"/>
         <v>63918.675012374413</v>
       </c>
       <c r="E148" s="1">
@@ -5596,17 +6103,20 @@
       <c r="G148" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J148" s="1">
+        <v>190596.41410493923</v>
+      </c>
       <c r="L148" s="2">
         <v>0.66463862758098979</v>
       </c>
       <c r="M148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O148" s="1">
         <v>4220</v>
       </c>
       <c r="P148" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -5617,9 +6127,11 @@
         <v>0</v>
       </c>
       <c r="C149" s="1">
+        <f t="shared" si="4"/>
         <v>125344.28814290521</v>
       </c>
       <c r="D149" s="1">
+        <f t="shared" si="5"/>
         <v>73261.608801861978</v>
       </c>
       <c r="E149" s="1">
@@ -5631,17 +6143,20 @@
       <c r="G149" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J149" s="1">
+        <v>198605.89694476718</v>
+      </c>
       <c r="L149" s="2">
         <v>0.63112067703490082</v>
       </c>
       <c r="M149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O149" s="1">
         <v>4330</v>
       </c>
       <c r="P149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -5652,9 +6167,11 @@
         <v>0</v>
       </c>
       <c r="C150" s="1">
+        <f t="shared" si="4"/>
         <v>127661.51424817363</v>
       </c>
       <c r="D150" s="1">
+        <f t="shared" si="5"/>
         <v>77280.866509825573</v>
       </c>
       <c r="E150" s="1">
@@ -5666,17 +6183,20 @@
       <c r="G150" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J150" s="1">
+        <v>204942.3807579992</v>
+      </c>
       <c r="L150" s="2">
         <v>0.62291417605282606</v>
       </c>
       <c r="M150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O150" s="1">
         <v>4485</v>
       </c>
       <c r="P150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -5687,9 +6207,11 @@
         <v>0</v>
       </c>
       <c r="C151" s="1">
+        <f t="shared" si="4"/>
         <v>128834.12214262012</v>
       </c>
       <c r="D151" s="1">
+        <f t="shared" si="5"/>
         <v>82256.530038119061</v>
       </c>
       <c r="E151" s="1">
@@ -5701,17 +6223,20 @@
       <c r="G151" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J151" s="1">
+        <v>211090.65218073918</v>
+      </c>
       <c r="L151" s="2">
         <v>0.61032604149761349</v>
       </c>
       <c r="M151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O151" s="1">
         <v>4651</v>
       </c>
       <c r="P151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -5722,9 +6247,11 @@
         <v>0</v>
       </c>
       <c r="C152" s="1">
+        <f t="shared" si="4"/>
         <v>129281.99947537547</v>
       </c>
       <c r="D152" s="1">
+        <f t="shared" si="5"/>
         <v>86932.212224313684</v>
       </c>
       <c r="E152" s="1">
@@ -5736,17 +6263,20 @@
       <c r="G152" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J152" s="1">
+        <v>216214.21169968916</v>
+      </c>
       <c r="L152" s="2">
         <v>0.5979347909606505</v>
       </c>
       <c r="M152" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O152" s="1">
         <v>4758</v>
       </c>
       <c r="P152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -5757,9 +6287,11 @@
         <v>0</v>
       </c>
       <c r="C153" s="1">
+        <f t="shared" si="4"/>
         <v>140256.29564279946</v>
       </c>
       <c r="D153" s="1">
+        <f t="shared" si="5"/>
         <v>87951.227828799136</v>
       </c>
       <c r="E153" s="1">
@@ -5771,17 +6303,20 @@
       <c r="G153" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J153" s="1">
+        <v>228207.5234715986</v>
+      </c>
       <c r="L153" s="2">
         <v>0.61459978842570873</v>
       </c>
       <c r="M153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O153" s="1">
         <v>4953</v>
       </c>
       <c r="P153" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -5792,9 +6327,11 @@
         <v>0</v>
       </c>
       <c r="C154" s="1">
+        <f t="shared" si="4"/>
         <v>136312.43244842952</v>
       </c>
       <c r="D154" s="1">
+        <f t="shared" si="5"/>
         <v>89416.961215023854</v>
       </c>
       <c r="E154" s="1">
@@ -5806,17 +6343,20 @@
       <c r="G154" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J154" s="1">
+        <v>225729.39366345337</v>
+      </c>
       <c r="L154" s="2">
         <v>0.60387542019300222</v>
       </c>
       <c r="M154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O154" s="1">
         <v>5631</v>
       </c>
       <c r="P154" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -5827,9 +6367,11 @@
         <v>0</v>
       </c>
       <c r="C155" s="1">
+        <f t="shared" si="4"/>
         <v>139471.5963928487</v>
       </c>
       <c r="D155" s="1">
+        <f t="shared" si="5"/>
         <v>90555.313520172946</v>
       </c>
       <c r="E155" s="1">
@@ -5841,17 +6383,20 @@
       <c r="G155" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J155" s="1">
+        <v>230026.90991302163</v>
+      </c>
       <c r="L155" s="2">
         <v>0.60632730512089239</v>
       </c>
       <c r="M155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O155" s="1">
         <v>5683</v>
       </c>
       <c r="P155" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -5862,9 +6407,11 @@
         <v>0</v>
       </c>
       <c r="C156" s="1">
+        <f t="shared" si="4"/>
         <v>157881.46616490994</v>
       </c>
       <c r="D156" s="1">
+        <f t="shared" si="5"/>
         <v>89858.320942195918</v>
       </c>
       <c r="E156" s="1">
@@ -5876,17 +6423,20 @@
       <c r="G156" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J156" s="1">
+        <v>247739.78710710586</v>
+      </c>
       <c r="L156" s="2">
         <v>0.63728748623107812</v>
       </c>
       <c r="M156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O156" s="1">
         <v>5984</v>
       </c>
       <c r="P156" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -5897,9 +6447,11 @@
         <v>0</v>
       </c>
       <c r="C157" s="1">
+        <f t="shared" si="4"/>
         <v>165806.02285185352</v>
       </c>
       <c r="D157" s="1">
+        <f t="shared" si="5"/>
         <v>84004.100550664763</v>
       </c>
       <c r="E157" s="1">
@@ -5911,17 +6463,20 @@
       <c r="G157" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J157" s="1">
+        <v>249810.12340251828</v>
+      </c>
       <c r="L157" s="2">
         <v>0.66372819721437304</v>
       </c>
       <c r="M157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O157" s="1">
         <v>6020</v>
       </c>
       <c r="P157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -5932,9 +6487,11 @@
         <v>0</v>
       </c>
       <c r="C158" s="1">
+        <f t="shared" si="4"/>
         <v>160031.64792196627</v>
       </c>
       <c r="D158" s="1">
+        <f t="shared" si="5"/>
         <v>92716.680021011096</v>
       </c>
       <c r="E158" s="1">
@@ -5946,17 +6503,23 @@
       <c r="G158" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J158" s="1">
+        <v>252748.32794297737</v>
+      </c>
+      <c r="K158" t="s">
+        <v>28</v>
+      </c>
       <c r="L158" s="2">
         <v>0.63316600044163718</v>
       </c>
       <c r="M158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O158" s="1">
         <v>6127</v>
       </c>
       <c r="P158" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -5967,9 +6530,11 @@
         <v>0</v>
       </c>
       <c r="C159" s="1">
+        <f t="shared" si="4"/>
         <v>158829.10777446159</v>
       </c>
       <c r="D159" s="1">
+        <f t="shared" si="5"/>
         <v>111402.059996443</v>
       </c>
       <c r="E159" s="1">
@@ -5981,17 +6546,23 @@
       <c r="G159" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J159" s="1">
+        <v>270231.16777090461</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
       <c r="L159" s="2">
         <v>0.58775273438892528</v>
       </c>
       <c r="M159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O159" s="1">
         <v>6480</v>
       </c>
       <c r="P159" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -6002,9 +6573,11 @@
         <v>0</v>
       </c>
       <c r="C160" s="1">
+        <f t="shared" si="4"/>
         <v>170498.32544699695</v>
       </c>
       <c r="D160" s="1">
+        <f t="shared" si="5"/>
         <v>118459.97517786566</v>
       </c>
       <c r="E160" s="1">
@@ -6016,17 +6589,23 @@
       <c r="G160" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J160" s="1">
+        <v>288958.3006248626</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
       <c r="L160" s="2">
         <v>0.5900447402905542</v>
       </c>
       <c r="M160" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O160" s="1">
         <v>6758</v>
       </c>
       <c r="P160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -6037,9 +6616,11 @@
         <v>0</v>
       </c>
       <c r="C161" s="1">
+        <f t="shared" si="4"/>
         <v>189903.46068584552</v>
       </c>
       <c r="D161" s="1">
+        <f t="shared" si="5"/>
         <v>114310.49981278856</v>
       </c>
       <c r="E161" s="1">
@@ -6051,17 +6632,23 @@
       <c r="G161" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J161" s="1">
+        <v>304213.96049863409</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
       <c r="L161" s="2">
         <v>0.6242430833041871</v>
       </c>
       <c r="M161" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O161" s="1">
         <v>7109</v>
       </c>
       <c r="P161" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -6072,13 +6659,16 @@
         <v>0</v>
       </c>
       <c r="C162" s="1">
-        <v>195606.11350732695</v>
+        <f t="shared" si="4"/>
+        <v>201186.46809687535</v>
       </c>
       <c r="D162" s="1">
-        <v>125254.18730593644</v>
+        <f t="shared" si="5"/>
+        <v>128827.50496181152</v>
       </c>
       <c r="E162" s="1">
-        <v>320860.3008132634</v>
+        <f>J162*K162</f>
+        <v>330013.97305868688</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>6</v>
@@ -6087,19 +6677,26 @@
         <v>11</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J162" s="1">
+        <v>320860.3008132634</v>
+      </c>
+      <c r="K162">
+        <f>1+(K163-1)/2</f>
+        <v>1.0285285285285286</v>
       </c>
       <c r="L162" s="2">
         <v>0.60963015060304149</v>
       </c>
       <c r="M162" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O162" s="1">
         <v>7700.3348957699</v>
       </c>
       <c r="P162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -6110,34 +6707,44 @@
         <v>0</v>
       </c>
       <c r="C163" s="1">
-        <v>199172.25987019532</v>
+        <f t="shared" si="4"/>
+        <v>210536.44286579205</v>
       </c>
       <c r="D163" s="1">
-        <v>133827.74012980468</v>
+        <f t="shared" si="5"/>
+        <v>141463.55713420795</v>
       </c>
       <c r="E163" s="1">
-        <v>333000</v>
+        <f>I163</f>
+        <v>352000</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I163" s="1">
         <v>352000</v>
       </c>
+      <c r="J163" s="1">
+        <v>333000</v>
+      </c>
+      <c r="K163">
+        <f>I163/J163</f>
+        <v>1.057057057057057</v>
+      </c>
       <c r="L163" s="2">
         <v>0.59811489450509103</v>
       </c>
       <c r="M163" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O163" s="1">
         <v>8034.0740245856996</v>
       </c>
       <c r="P163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -6148,13 +6755,16 @@
         <v>0</v>
       </c>
       <c r="C164" s="1">
-        <v>205919.36055308135</v>
+        <f t="shared" si="4"/>
+        <v>217668.51325731122</v>
       </c>
       <c r="D164" s="1">
-        <v>137486.88944691865</v>
+        <f t="shared" si="5"/>
+        <v>145331.48674268878</v>
       </c>
       <c r="E164" s="1">
-        <v>343406.25</v>
+        <f>I164</f>
+        <v>363000</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>6</v>
@@ -6169,13 +6779,13 @@
         <v>0.59963777756835046</v>
       </c>
       <c r="M164" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O164" s="1">
         <v>8229.4987638914008</v>
       </c>
       <c r="P164" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -6186,13 +6796,16 @@
         <v>0</v>
       </c>
       <c r="C165" s="1">
-        <v>176694.84690932513</v>
+        <f t="shared" si="4"/>
+        <v>186776.53487111846</v>
       </c>
       <c r="D165" s="1">
-        <v>119410.2667270385</v>
+        <f t="shared" si="5"/>
+        <v>126223.46512888154</v>
       </c>
       <c r="E165" s="1">
-        <v>296105.11363636365</v>
+        <f t="shared" ref="E165:E168" si="6">I165</f>
+        <v>313000</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>6</v>
@@ -6207,13 +6820,13 @@
         <v>0.59673014335820596</v>
       </c>
       <c r="M165" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O165" s="1">
         <v>7857.999159895</v>
       </c>
       <c r="P165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -6224,13 +6837,16 @@
         <v>0</v>
       </c>
       <c r="C166" s="1">
-        <v>159141.42984236317</v>
+        <f t="shared" si="4"/>
+        <v>168221.57148502051</v>
       </c>
       <c r="D166" s="1">
-        <v>118043.22924854595</v>
+        <f t="shared" si="5"/>
+        <v>124778.42851497949</v>
       </c>
       <c r="E166" s="1">
-        <v>277184.65909090912</v>
+        <f t="shared" si="6"/>
+        <v>293000</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>6</v>
@@ -6245,13 +6861,13 @@
         <v>0.57413505626286865</v>
       </c>
       <c r="M166" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O166" s="1">
         <v>8408.9027169411002</v>
       </c>
       <c r="P166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -6262,13 +6878,16 @@
         <v>0</v>
       </c>
       <c r="C167" s="1">
-        <v>177608.35344181827</v>
+        <f t="shared" si="4"/>
+        <v>187742.16339795804</v>
       </c>
       <c r="D167" s="1">
-        <v>131741.07837636356</v>
+        <f t="shared" si="5"/>
+        <v>139257.83660204196</v>
       </c>
       <c r="E167" s="1">
-        <v>309349.43181818182</v>
+        <f t="shared" si="6"/>
+        <v>327000</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>6</v>
@@ -6283,13 +6902,13 @@
         <v>0.57413505626286865</v>
       </c>
       <c r="M167" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O167" s="1">
         <v>8784.2649371619009</v>
       </c>
       <c r="P167" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -6300,13 +6919,16 @@
         <v>0</v>
       </c>
       <c r="C168" s="1">
-        <v>162943.44352460391</v>
+        <f t="shared" si="4"/>
+        <v>172240.5168788606</v>
       </c>
       <c r="D168" s="1">
-        <v>120863.37465721427</v>
+        <f t="shared" si="5"/>
+        <v>127759.4831211394</v>
       </c>
       <c r="E168" s="1">
-        <v>283806.81818181818</v>
+        <f t="shared" si="6"/>
+        <v>300000</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>6</v>
@@ -6321,13 +6943,13 @@
         <v>0.57413505626286865</v>
       </c>
       <c r="M168" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O168" s="1">
         <v>9196.7031038762998</v>
       </c>
       <c r="P168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -54989,6 +55611,53 @@
     </row>
     <row r="16388" spans="7:7">
       <c r="G16388" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/energy/Shipping_Fuel_Consumption.xlsx
+++ b/input/energy/Shipping_Fuel_Consumption.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="22620" windowHeight="18960" tabRatio="500"/>
+    <workbookView xWindow="1820" yWindow="2860" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="References" sheetId="2" r:id="rId2"/>
+    <sheet name="Crude_Oil_Loaded" sheetId="3" r:id="rId2"/>
+    <sheet name="References" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="121">
   <si>
     <t>Year</t>
   </si>
@@ -181,12 +182,273 @@
   <si>
     <t>Smith, SJ, J van Aardenne, Z Klimont, R Andres, AC Volke, and S Delgado Arias (2011) Anthropogenic Sulfur Dioxide Emissions: 1850-2005 Atmos. Chem. Phys., 11, 1101–1116.</t>
   </si>
+  <si>
+    <t>Crude Oil loaded</t>
+  </si>
+  <si>
+    <t>World seaborne trade by types of cargo and country groups, annual, 1970-2014</t>
+  </si>
+  <si>
+    <t>UNCTAD, UNCTADstat</t>
+  </si>
+  <si>
+    <t>Downloaded:</t>
+  </si>
+  <si>
+    <t>MEASURE</t>
+  </si>
+  <si>
+    <t>Metric tons in millions</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>CDIAC_Petr_CO2</t>
+  </si>
+  <si>
+    <t>Extrapolated</t>
+  </si>
+  <si>
+    <t>(IMO GHG study 2014)</t>
+  </si>
+  <si>
+    <t>Crude Oil Tanker VOC Losses</t>
+  </si>
+  <si>
+    <t>Tanker Loss:</t>
+  </si>
+  <si>
+    <t>CEDS Input Format</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>2L_Other-process-emissions</t>
+  </si>
+  <si>
+    <t>X1960</t>
+  </si>
+  <si>
+    <t>X1961</t>
+  </si>
+  <si>
+    <t>X1962</t>
+  </si>
+  <si>
+    <t>X1963</t>
+  </si>
+  <si>
+    <t>X1964</t>
+  </si>
+  <si>
+    <t>X1965</t>
+  </si>
+  <si>
+    <t>X1966</t>
+  </si>
+  <si>
+    <t>X1967</t>
+  </si>
+  <si>
+    <t>X1968</t>
+  </si>
+  <si>
+    <t>X1969</t>
+  </si>
+  <si>
+    <t>X1970</t>
+  </si>
+  <si>
+    <t>X1971</t>
+  </si>
+  <si>
+    <t>X1972</t>
+  </si>
+  <si>
+    <t>X1973</t>
+  </si>
+  <si>
+    <t>X1974</t>
+  </si>
+  <si>
+    <t>X1975</t>
+  </si>
+  <si>
+    <t>X1976</t>
+  </si>
+  <si>
+    <t>X1977</t>
+  </si>
+  <si>
+    <t>X1978</t>
+  </si>
+  <si>
+    <t>X1979</t>
+  </si>
+  <si>
+    <t>X1980</t>
+  </si>
+  <si>
+    <t>X1981</t>
+  </si>
+  <si>
+    <t>X1982</t>
+  </si>
+  <si>
+    <t>X1983</t>
+  </si>
+  <si>
+    <t>X1984</t>
+  </si>
+  <si>
+    <t>X1985</t>
+  </si>
+  <si>
+    <t>X1986</t>
+  </si>
+  <si>
+    <t>X1987</t>
+  </si>
+  <si>
+    <t>X1988</t>
+  </si>
+  <si>
+    <t>X1989</t>
+  </si>
+  <si>
+    <t>X1990</t>
+  </si>
+  <si>
+    <t>X1991</t>
+  </si>
+  <si>
+    <t>X1992</t>
+  </si>
+  <si>
+    <t>X1993</t>
+  </si>
+  <si>
+    <t>X1994</t>
+  </si>
+  <si>
+    <t>X1995</t>
+  </si>
+  <si>
+    <t>X1996</t>
+  </si>
+  <si>
+    <t>X1997</t>
+  </si>
+  <si>
+    <t>X1998</t>
+  </si>
+  <si>
+    <t>X1999</t>
+  </si>
+  <si>
+    <t>X2000</t>
+  </si>
+  <si>
+    <t>X2001</t>
+  </si>
+  <si>
+    <t>X2002</t>
+  </si>
+  <si>
+    <t>X2003</t>
+  </si>
+  <si>
+    <t>X2004</t>
+  </si>
+  <si>
+    <t>X2005</t>
+  </si>
+  <si>
+    <t>X2006</t>
+  </si>
+  <si>
+    <t>X2007</t>
+  </si>
+  <si>
+    <t>X2008</t>
+  </si>
+  <si>
+    <t>X2009</t>
+  </si>
+  <si>
+    <t>X2010</t>
+  </si>
+  <si>
+    <t>X2011</t>
+  </si>
+  <si>
+    <t>X2012</t>
+  </si>
+  <si>
+    <t>X2013</t>
+  </si>
+  <si>
+    <t>X2014</t>
+  </si>
+  <si>
+    <t>CEDS Metadata</t>
+  </si>
+  <si>
+    <t>Data.Type</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Start.Year</t>
+  </si>
+  <si>
+    <t>End.Year</t>
+  </si>
+  <si>
+    <t>Source.Comment</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>NMVOC</t>
+  </si>
+  <si>
+    <t>crude oil loading</t>
+  </si>
+  <si>
+    <t>IMO GHG study (2014) scaled by crude oil transport from UNCTAD until 1970, then by CDIAC CO2 from petroleum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +487,19 @@
       <name val="Times"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +518,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,8 +572,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,8 +639,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -338,6 +676,33 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -364,6 +729,33 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,11 +1087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FH16388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5:G9"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -55626,6 +56018,1501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5:BS6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="46" width="6.6640625" customWidth="1"/>
+    <col min="47" max="73" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:71">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" ht="12" customHeight="1">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" ht="12" customHeight="1">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42014</v>
+      </c>
+      <c r="D3">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2410</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3">
+        <v>1960</v>
+      </c>
+      <c r="R3">
+        <v>2014</v>
+      </c>
+      <c r="S3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" ht="12" customHeight="1">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71">
+      <c r="A6" s="8">
+        <v>1960</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" ref="B6:B14" si="0">C6*AVERAGE($F$16:$F$20)/1000</f>
+        <v>536.99612620371681</v>
+      </c>
+      <c r="C6" s="1">
+        <v>774504.00000000012</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <f>$F$3*B6/LOOKUP($D$3,$A$6:$A$60,$B$6:$B$60)</f>
+        <v>724.73811885833118</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <f>LOOKUP(RIGHT(Q5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>724.73811885833118</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R10" si="1">LOOKUP(RIGHT(R5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>765.89872698200952</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S10" si="2">LOOKUP(RIGHT(S5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>827.15164823528573</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T10" si="3">LOOKUP(RIGHT(T5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>890.08984593912112</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U10" si="4">LOOKUP(RIGHT(U5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>957.53739801011068</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V10" si="5">LOOKUP(RIGHT(V5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1034.173028630817</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W10" si="6">LOOKUP(RIGHT(W5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1114.2596862085818</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X10" si="7">LOOKUP(RIGHT(X5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1188.3266972530616</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y10" si="8">LOOKUP(RIGHT(Y5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1299.5914370385883</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z10" si="9">LOOKUP(RIGHT(Z5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1409.7052106752051</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA10" si="10">LOOKUP(RIGHT(AA5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1628.985511769137</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB10" si="11">LOOKUP(RIGHT(AB5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1633.034357283062</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC10" si="12">LOOKUP(RIGHT(AC5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1782.8416412982851</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD10" si="13">LOOKUP(RIGHT(AD5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2043.3173693607901</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE10" si="14">LOOKUP(RIGHT(AE5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2020.3739114485486</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AF10" si="15">LOOKUP(RIGHT(AF5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1840.8750936645426</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ref="AG6:AG10" si="16">LOOKUP(RIGHT(AG5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2098.651591384431</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH10" si="17">LOOKUP(RIGHT(AH5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2158.0346589219967</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI10" si="18">LOOKUP(RIGHT(AI5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2164.7827347785383</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ10" si="19">LOOKUP(RIGHT(AJ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2328.0861705068446</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ref="AK6:AK10" si="20">LOOKUP(RIGHT(AK5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2060.8623665877981</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AL10" si="21">LOOKUP(RIGHT(AL5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1840.8750936645426</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ref="AM6:AM10" si="22">LOOKUP(RIGHT(AM5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1569.6024442315711</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN10" si="23">LOOKUP(RIGHT(AN5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1442.7386181285895</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO10" si="24">LOOKUP(RIGHT(AO5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1456.2347698416727</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ref="AP6:AP10" si="25">LOOKUP(RIGHT(AP5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1415.7463147024232</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" ref="AQ6:AQ10" si="26">LOOKUP(RIGHT(AQ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1519.6666828931634</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" ref="AR6:AR10" si="27">LOOKUP(RIGHT(AR5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1494.0239946383056</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" ref="AS6:AS10" si="28">LOOKUP(RIGHT(AS5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1565.5535987176463</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ref="AT6:AT10" si="29">LOOKUP(RIGHT(AT5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1700.5151158484778</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ref="AU6:AU10" si="30">LOOKUP(RIGHT(AU5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1736.9547254738022</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" ref="AV6:AV10" si="31">LOOKUP(RIGHT(AV5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1799.0370233539848</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" ref="AW6:AW10" si="32">LOOKUP(RIGHT(AW5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1881.3635488037921</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ref="AX6:AX10" si="33">LOOKUP(RIGHT(AX5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>1947.4946921978994</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:AY10" si="34">LOOKUP(RIGHT(AY5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2021.723526619857</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ref="AZ6:AZ10" si="35">LOOKUP(RIGHT(AZ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2067.6104424443397</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA10" si="36">LOOKUP(RIGHT(BA5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2145.8881223802218</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" ref="BB6:BB10" si="37">LOOKUP(RIGHT(BB5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2194.4742685473211</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ref="BC6:BC10" si="38">LOOKUP(RIGHT(BC5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2089.2042851852725</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6:BD10" si="39">LOOKUP(RIGHT(BD5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2095.9523610418141</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ref="BE6:BE10" si="40">LOOKUP(RIGHT(BE5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2166.1323499498467</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6:BF10" si="41">LOOKUP(RIGHT(BF5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2264.6542574553537</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" ref="BG6:BG10" si="42">LOOKUP(RIGHT(BG5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2209.3200354317128</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" ref="BH6:BH10" si="43">LOOKUP(RIGHT(BH5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2280.8496395110537</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" ref="BI6:BI10" si="44">LOOKUP(RIGHT(BI5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2388.8188532157187</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" ref="BJ6:BJ10" si="45">LOOKUP(RIGHT(BJ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2506.2353731195421</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" ref="BK6:BK10" si="46">LOOKUP(RIGHT(BK5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2406.923919684823</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" ref="BL6:BL10" si="47">LOOKUP(RIGHT(BL5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2447.4279659869253</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" ref="BM6:BM10" si="48">LOOKUP(RIGHT(BM5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2409.3794735451474</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" ref="BN6:BN10" si="49">LOOKUP(RIGHT(BN5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2308.5608088774939</v>
+      </c>
+      <c r="BO6">
+        <f t="shared" ref="BO6:BO10" si="50">LOOKUP(RIGHT(BO5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2412.681523391569</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" ref="BP6:BP10" si="51">LOOKUP(RIGHT(BP5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2374.6213862927543</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" ref="BQ6:BQ10" si="52">LOOKUP(RIGHT(BQ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2410.0000000000005</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" ref="BR6:BR10" si="53">LOOKUP(RIGHT(BR5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2345.5529253112636</v>
+      </c>
+      <c r="BS6">
+        <f t="shared" ref="BS6:BS10" si="54">LOOKUP(RIGHT(BS5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <v>2308.2246062421691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
+      <c r="A7" s="8">
+        <v>1961</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>567.49415927174857</v>
+      </c>
+      <c r="C7" s="1">
+        <v>818491.00000000012</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H60" si="55">$F$3*B7/LOOKUP($D$3,$A$6:$A$60,$B$6:$B$60)</f>
+        <v>765.89872698200952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71">
+      <c r="A8" s="8">
+        <v>1962</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>612.87963103841344</v>
+      </c>
+      <c r="C8" s="1">
+        <v>883949.99999999988</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="55"/>
+        <v>827.15164823528573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71">
+      <c r="A9" s="8">
+        <v>1963</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>659.51381168623709</v>
+      </c>
+      <c r="C9" s="1">
+        <v>951210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="55"/>
+        <v>890.08984593912112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71">
+      <c r="A10" s="8">
+        <v>1964</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="0"/>
+        <v>709.48920726926531</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1023289</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="55"/>
+        <v>957.53739801011068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71">
+      <c r="A11" s="8">
+        <v>1965</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="0"/>
+        <v>766.27252761858824</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1105187</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="55"/>
+        <v>1034.173028630817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71">
+      <c r="A12" s="8">
+        <v>1966</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>825.61289313932321</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1190773</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="55"/>
+        <v>1114.2596862085818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71">
+      <c r="A13" s="8">
+        <v>1967</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>880.49298979137779</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1269926.0000000002</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="55"/>
+        <v>1188.3266972530616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71">
+      <c r="A14" s="8">
+        <v>1968</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>962.93481628453071</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1388831</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="55"/>
+        <v>1299.5914370385883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71">
+      <c r="A15" s="8">
+        <v>1969</v>
+      </c>
+      <c r="B15" s="11">
+        <f>C15*AVERAGE($F$16:$F$20)/1000</f>
+        <v>1044.5238321592356</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1506506</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="55"/>
+        <v>1409.7052106752051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
+      <c r="A16" s="8">
+        <v>1970</v>
+      </c>
+      <c r="B16">
+        <v>1207</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1724547</v>
+      </c>
+      <c r="F16" s="9">
+        <f>B16/C16*1000</f>
+        <v>0.6998939431630451</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="55"/>
+        <v>1628.985511769137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8">
+        <v>1971</v>
+      </c>
+      <c r="B17">
+        <v>1210</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1826256</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" ref="F17:F38" si="56">B17/C17*1000</f>
+        <v>0.66255771370497896</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="55"/>
+        <v>1633.034357283062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
+        <v>1972</v>
+      </c>
+      <c r="B18">
+        <v>1321</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1969761.0000000002</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="56"/>
+        <v>0.67063973751130201</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="55"/>
+        <v>1782.8416412982851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
+        <v>1973</v>
+      </c>
+      <c r="B19">
+        <v>1514</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2110972</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="56"/>
+        <v>0.71720515478177826</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="55"/>
+        <v>2043.3173693607901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8">
+        <v>1974</v>
+      </c>
+      <c r="B20">
+        <v>1497</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2089576.0000000002</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="56"/>
+        <v>0.71641328192896536</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="55"/>
+        <v>2020.3739114485486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8">
+        <v>1975</v>
+      </c>
+      <c r="B21">
+        <v>1364</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2073282.9999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="56"/>
+        <v>0.65789378488127292</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="55"/>
+        <v>1840.8750936645426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8">
+        <v>1976</v>
+      </c>
+      <c r="B22">
+        <v>1555</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2186329.0000000009</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="56"/>
+        <v>0.71123787865412724</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="55"/>
+        <v>2098.651591384431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>1977</v>
+      </c>
+      <c r="B23">
+        <v>1599</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2272333</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="56"/>
+        <v>0.70368207476633049</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="55"/>
+        <v>2158.0346589219967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8">
+        <v>1978</v>
+      </c>
+      <c r="B24">
+        <v>1604</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2360786.9999999995</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="56"/>
+        <v>0.67943444283622378</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="55"/>
+        <v>2164.7827347785383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>1979</v>
+      </c>
+      <c r="B25">
+        <v>1725</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2399062</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="56"/>
+        <v>0.71903102129082119</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="55"/>
+        <v>2328.0861705068446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8">
+        <v>1980</v>
+      </c>
+      <c r="B26">
+        <v>1527</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2312198</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="56"/>
+        <v>0.66041057037502837</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="55"/>
+        <v>2060.8623665877981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8">
+        <v>1981</v>
+      </c>
+      <c r="B27">
+        <v>1364</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2203629.7500000005</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="56"/>
+        <v>0.61897875539209779</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="55"/>
+        <v>1840.8750936645426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8">
+        <v>1982</v>
+      </c>
+      <c r="B28">
+        <v>1163</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2158605.5000000005</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="56"/>
+        <v>0.53877375926263493</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="55"/>
+        <v>1569.6024442315711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8">
+        <v>1983</v>
+      </c>
+      <c r="B29">
+        <v>1069</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2144851.2500000005</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="56"/>
+        <v>0.4984028612706824</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="55"/>
+        <v>1442.7386181285895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8">
+        <v>1984</v>
+      </c>
+      <c r="B30">
+        <v>1079</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2152354.0000000005</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="56"/>
+        <v>0.50131158722031777</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="55"/>
+        <v>1456.2347698416727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8">
+        <v>1985</v>
+      </c>
+      <c r="B31">
+        <v>1049</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2153120.9999999991</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="56"/>
+        <v>0.48719974399952465</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="55"/>
+        <v>1415.7463147024232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8">
+        <v>1986</v>
+      </c>
+      <c r="B32">
+        <v>1126</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2218414.9999999995</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="56"/>
+        <v>0.50756959360624598</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="55"/>
+        <v>1519.6666828931634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8">
+        <v>1987</v>
+      </c>
+      <c r="B33">
+        <v>1107</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2257766.0000000009</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="56"/>
+        <v>0.49030767581760004</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="55"/>
+        <v>1494.0239946383056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8">
+        <v>1988</v>
+      </c>
+      <c r="B34">
+        <v>1160</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2337023.0000000009</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="56"/>
+        <v>0.4963579733703945</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="55"/>
+        <v>1565.5535987176463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8">
+        <v>1989</v>
+      </c>
+      <c r="B35">
+        <v>1260</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2377288</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="56"/>
+        <v>0.53001571538660852</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="55"/>
+        <v>1700.5151158484778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B36">
+        <v>1287</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2313094.9999999995</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="56"/>
+        <v>0.55639738099818647</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="55"/>
+        <v>1736.9547254738022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8">
+        <v>1991</v>
+      </c>
+      <c r="B37">
+        <v>1333</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2453063.9999999995</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="56"/>
+        <v>0.54340204739868192</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="55"/>
+        <v>1799.0370233539848</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8">
+        <v>1992</v>
+      </c>
+      <c r="B38">
+        <v>1394</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2308001</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="56"/>
+        <v>0.60398587348965616</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="55"/>
+        <v>1881.3635488037921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8">
+        <v>1993</v>
+      </c>
+      <c r="B39">
+        <v>1443</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2321381</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="55"/>
+        <v>1947.4946921978994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8">
+        <v>1994</v>
+      </c>
+      <c r="B40">
+        <v>1498</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2305699</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="55"/>
+        <v>2021.723526619857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8">
+        <v>1995</v>
+      </c>
+      <c r="B41">
+        <v>1532</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2324179</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="55"/>
+        <v>2067.6104424443397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8">
+        <v>1996</v>
+      </c>
+      <c r="B42">
+        <v>1590</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2388214</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="55"/>
+        <v>2145.8881223802218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8">
+        <v>1997</v>
+      </c>
+      <c r="B43">
+        <v>1626</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2412099</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="55"/>
+        <v>2194.4742685473211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8">
+        <v>1998</v>
+      </c>
+      <c r="B44">
+        <v>1548</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2422764</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="55"/>
+        <v>2089.2042851852725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B45">
+        <v>1553</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2463389</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="55"/>
+        <v>2095.9523610418141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B46">
+        <v>1605</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2525407</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="55"/>
+        <v>2166.1323499498467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B47">
+        <v>1678</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2541861</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="55"/>
+        <v>2264.6542574553537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B48">
+        <v>1637</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2529705</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="55"/>
+        <v>2209.3200354317128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B49">
+        <v>1690</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2601535</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="55"/>
+        <v>2280.8496395110537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B50">
+        <v>1770</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2680863</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="55"/>
+        <v>2388.8188532157187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B51">
+        <v>1857</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2685411</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="55"/>
+        <v>2506.2353731195421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B52" s="10">
+        <v>1783.4149844000001</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2697375</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="55"/>
+        <v>2406.923919684823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1813.4265367026001</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2694450</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="55"/>
+        <v>2447.4279659869253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1785.2344318339999</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2705495</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="55"/>
+        <v>2409.3794735451474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B55" s="10">
+        <v>1710.5326451240001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2687981</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="55"/>
+        <v>2308.5608088774939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1787.6810921240001</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2736090.5</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="55"/>
+        <v>2412.681523391569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="10">
+        <v>1759.480359124</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2711806</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="55"/>
+        <v>2374.6213862927543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B58" s="10">
+        <v>1785.6942121239999</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="55"/>
+        <v>2410.0000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1737.942026124</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="55"/>
+        <v>2345.5529253112636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1710.2835351240001</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="55"/>
+        <v>2308.2246062421691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/input/energy/Shipping_Fuel_Consumption.xlsx
+++ b/input/energy/Shipping_Fuel_Consumption.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="2860" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Crude_Oil_Loaded" sheetId="3" r:id="rId2"/>
-    <sheet name="References" sheetId="2" r:id="rId3"/>
+    <sheet name="Pre-1855_Extrap" sheetId="4" r:id="rId2"/>
+    <sheet name="Crude_Oil_Loaded" sheetId="3" r:id="rId3"/>
+    <sheet name="References" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="127">
   <si>
     <t>Year</t>
   </si>
@@ -103,9 +104,6 @@
   </si>
   <si>
     <t>Data Source</t>
-  </si>
-  <si>
-    <t>Fletcher (extrapolated from 1850 using ship tonnage)</t>
   </si>
   <si>
     <t>Fletcher</t>
@@ -443,12 +441,33 @@
   <si>
     <t>IMO GHG study (2014) scaled by crude oil transport from UNCTAD until 1970, then by CDIAC CO2 from petroleum</t>
   </si>
+  <si>
+    <t>British_Shipping_Coal</t>
+  </si>
+  <si>
+    <t>Data_Source2</t>
+  </si>
+  <si>
+    <t>Fouquet &amp; Pearson (1998)</t>
+  </si>
+  <si>
+    <t>Fletcher (extrapolated from 1870 using ship tonnage)</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Fouquet, R. and P.J.G. Pearson (1998) A thousand years of energy use in the United Kingdom´. The Energy Journal 19(4) 1-41.</t>
+  </si>
+  <si>
+    <t>Total_Ship_Extrap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -500,6 +519,12 @@
       <color theme="1"/>
       <name val="Times"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -518,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -626,8 +651,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -648,8 +715,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -703,6 +771,27 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -756,6 +845,27 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1085,13 +1195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FH16388"/>
+  <dimension ref="A1:FI16388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5:S5"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1099,37 +1209,37 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="11" width="9.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="164" width="9.33203125" customWidth="1"/>
+    <col min="13" max="165" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164">
+    <row r="1" spans="1:165">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:165">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:164">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:165">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:164">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:164">
+    </row>
+    <row r="4" spans="1:165">
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:164">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:165">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1152,30 +1262,31 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:164">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:165">
       <c r="A6">
         <v>1850</v>
       </c>
       <c r="B6" s="1">
-        <v>3257.7644104169722</v>
+        <f>'Pre-1855_Extrap'!B4+('Pre-1855_Extrap'!B5-'Pre-1855_Extrap'!B4)/('Pre-1855_Extrap'!A5-'Pre-1855_Extrap'!A4)*(A6-'Pre-1855_Extrap'!A4)</f>
+        <v>3825.1766719635889</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C69" si="0">$E6*($L6)</f>
@@ -1192,18 +1303,14 @@
         <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="L6" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+        <v>23</v>
+      </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1330,13 +1437,15 @@
       <c r="EN6" s="1"/>
       <c r="EO6" s="1"/>
       <c r="EP6" s="1"/>
-    </row>
-    <row r="7" spans="1:164">
+      <c r="EQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:165">
       <c r="A7">
         <v>1851</v>
       </c>
-      <c r="B7" s="1">
-        <v>3572.5719507243793</v>
+      <c r="B7" s="14">
+        <f>B6+($B$11-$B$6)/5</f>
+        <v>4026.5017599616726</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -1357,12 +1466,8 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+        <v>23</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1507,13 +1612,15 @@
       <c r="FF7" s="1"/>
       <c r="FG7" s="1"/>
       <c r="FH7" s="1"/>
-    </row>
-    <row r="8" spans="1:164">
+      <c r="FI7" s="1"/>
+    </row>
+    <row r="8" spans="1:165">
       <c r="A8">
         <v>1852</v>
       </c>
-      <c r="B8" s="1">
-        <v>3887.3794910317861</v>
+      <c r="B8" s="14">
+        <f t="shared" ref="B8:B10" si="2">B7+($B$11-$B$6)/5</f>
+        <v>4227.8268479597564</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1534,12 +1641,8 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+        <v>23</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1684,13 +1787,15 @@
       <c r="FF8" s="1"/>
       <c r="FG8" s="1"/>
       <c r="FH8" s="1"/>
-    </row>
-    <row r="9" spans="1:164">
+      <c r="FI8" s="1"/>
+    </row>
+    <row r="9" spans="1:165">
       <c r="A9">
         <v>1853</v>
       </c>
-      <c r="B9" s="1">
-        <v>4202.1870313391937</v>
+      <c r="B9" s="14">
+        <f t="shared" si="2"/>
+        <v>4429.1519359578397</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -1711,12 +1816,8 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+        <v>23</v>
+      </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1861,13 +1962,15 @@
       <c r="FF9" s="1"/>
       <c r="FG9" s="1"/>
       <c r="FH9" s="1"/>
-    </row>
-    <row r="10" spans="1:164">
+      <c r="FI9" s="1"/>
+    </row>
+    <row r="10" spans="1:165">
       <c r="A10">
         <v>1854</v>
       </c>
-      <c r="B10" s="1">
-        <v>4516.9945716466</v>
+      <c r="B10" s="14">
+        <f t="shared" si="2"/>
+        <v>4630.477023955923</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -1888,12 +1991,8 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+        <v>23</v>
+      </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -2038,8 +2137,9 @@
       <c r="FF10" s="1"/>
       <c r="FG10" s="1"/>
       <c r="FH10" s="1"/>
-    </row>
-    <row r="11" spans="1:164" s="3" customFormat="1">
+      <c r="FI10" s="1"/>
+    </row>
+    <row r="11" spans="1:165" s="3" customFormat="1">
       <c r="A11">
         <v>1855</v>
       </c>
@@ -2068,13 +2168,12 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:164">
+    </row>
+    <row r="12" spans="1:165">
       <c r="A12">
         <v>1856</v>
       </c>
@@ -2100,10 +2199,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:165">
       <c r="A13">
         <v>1857</v>
       </c>
@@ -2129,16 +2228,16 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
-      </c>
-      <c r="FC13" s="1"/>
+        <v>23</v>
+      </c>
       <c r="FD13" s="1"/>
       <c r="FE13" s="1"/>
       <c r="FF13" s="1"/>
       <c r="FG13" s="1"/>
       <c r="FH13" s="1"/>
-    </row>
-    <row r="14" spans="1:164">
+      <c r="FI13" s="1"/>
+    </row>
+    <row r="14" spans="1:165">
       <c r="A14">
         <v>1858</v>
       </c>
@@ -2164,10 +2263,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:165">
       <c r="A15">
         <v>1859</v>
       </c>
@@ -2193,10 +2292,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:165">
       <c r="A16">
         <v>1860</v>
       </c>
@@ -2218,15 +2317,14 @@
         <v>6</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="L16" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>23</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -2374,8 +2472,9 @@
       <c r="FF16" s="2"/>
       <c r="FG16" s="2"/>
       <c r="FH16" s="2"/>
-    </row>
-    <row r="17" spans="1:164">
+      <c r="FI16" s="2"/>
+    </row>
+    <row r="17" spans="1:165">
       <c r="A17">
         <v>1861</v>
       </c>
@@ -2401,10 +2500,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:165">
       <c r="A18">
         <v>1862</v>
       </c>
@@ -2430,10 +2529,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:165">
       <c r="A19">
         <v>1863</v>
       </c>
@@ -2459,9 +2558,8 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="DR19" s="1"/>
+        <v>23</v>
+      </c>
       <c r="DS19" s="1"/>
       <c r="DT19" s="1"/>
       <c r="DU19" s="1"/>
@@ -2504,8 +2602,9 @@
       <c r="FF19" s="1"/>
       <c r="FG19" s="1"/>
       <c r="FH19" s="1"/>
-    </row>
-    <row r="20" spans="1:164">
+      <c r="FI19" s="1"/>
+    </row>
+    <row r="20" spans="1:165">
       <c r="A20">
         <v>1864</v>
       </c>
@@ -2531,10 +2630,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:165">
       <c r="A21">
         <v>1865</v>
       </c>
@@ -2560,10 +2659,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:165">
       <c r="A22">
         <v>1866</v>
       </c>
@@ -2589,10 +2688,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:165">
       <c r="A23">
         <v>1867</v>
       </c>
@@ -2618,10 +2717,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:165">
       <c r="A24">
         <v>1868</v>
       </c>
@@ -2647,10 +2746,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:165">
       <c r="A25">
         <v>1869</v>
       </c>
@@ -2676,10 +2775,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:165">
       <c r="A26">
         <v>1870</v>
       </c>
@@ -2701,16 +2800,16 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L26" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:165">
       <c r="A27">
         <v>1871</v>
       </c>
@@ -2736,10 +2835,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:165">
       <c r="A28">
         <v>1872</v>
       </c>
@@ -2765,10 +2864,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:165">
       <c r="A29">
         <v>1873</v>
       </c>
@@ -2794,10 +2893,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:165">
       <c r="A30">
         <v>1874</v>
       </c>
@@ -2823,10 +2922,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:165">
       <c r="A31">
         <v>1875</v>
       </c>
@@ -2852,10 +2951,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:165">
       <c r="A32">
         <v>1876</v>
       </c>
@@ -2881,7 +2980,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2910,7 +3009,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2939,7 +3038,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2968,7 +3067,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2993,13 +3092,13 @@
         <v>6</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L36" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3028,7 +3127,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3057,7 +3156,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3086,7 +3185,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3115,7 +3214,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3144,7 +3243,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3173,7 +3272,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3202,7 +3301,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3231,7 +3330,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3260,7 +3359,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3285,13 +3384,13 @@
         <v>6</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3320,7 +3419,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3349,10 +3448,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>1893</v>
       </c>
@@ -3378,10 +3477,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>1894</v>
       </c>
@@ -3407,10 +3506,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>1895</v>
       </c>
@@ -3436,10 +3535,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>1896</v>
       </c>
@@ -3465,10 +3564,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>1897</v>
       </c>
@@ -3494,10 +3593,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>1898</v>
       </c>
@@ -3523,10 +3622,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>1899</v>
       </c>
@@ -3552,10 +3651,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>1900</v>
       </c>
@@ -3577,16 +3676,16 @@
         <v>6</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L56" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>1901</v>
       </c>
@@ -3612,10 +3711,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>1902</v>
       </c>
@@ -3641,10 +3740,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>1903</v>
       </c>
@@ -3670,10 +3769,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>1904</v>
       </c>
@@ -3699,10 +3798,20 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>23</v>
+      </c>
+      <c r="R60">
+        <f>A60</f>
+        <v>1904</v>
+      </c>
+      <c r="S60" s="1">
+        <v>13000</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>1905</v>
       </c>
@@ -3728,10 +3837,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>1906</v>
       </c>
@@ -3757,10 +3866,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>1907</v>
       </c>
@@ -3786,10 +3895,10 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>1908</v>
       </c>
@@ -3815,7 +3924,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3844,7 +3953,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3873,7 +3982,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3902,7 +4011,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3931,7 +4040,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3956,13 +4065,13 @@
         <v>6</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L69" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3973,11 +4082,11 @@
         <v>78225.185185185182</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ref="C70:C133" si="2">$E70*($L70)</f>
+        <f t="shared" ref="C70:C133" si="3">$E70*($L70)</f>
         <v>3668.2406162604084</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" ref="D70:D133" si="3">$E70*(1-$L70)</f>
+        <f t="shared" ref="D70:D133" si="4">$E70*(1-$L70)</f>
         <v>958.96090202806693</v>
       </c>
       <c r="E70" s="1">
@@ -3991,7 +4100,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4002,11 +4111,11 @@
         <v>76450.370370370365</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5104.2911252109998</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1334.3769217179167</v>
       </c>
       <c r="E71" s="1">
@@ -4020,7 +4129,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4031,11 +4140,11 @@
         <v>74675.555555555562</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6540.3416341615921</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1709.7929414077664</v>
       </c>
       <c r="E72" s="1">
@@ -4049,7 +4158,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4060,11 +4169,11 @@
         <v>72900.740740740745</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7976.3921431121835</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2085.2089610976163</v>
       </c>
       <c r="E73" s="1">
@@ -4078,7 +4187,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4089,11 +4198,11 @@
         <v>71125.925925925927</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9412.4426520627749</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2460.624980787466</v>
       </c>
       <c r="E74" s="1">
@@ -4107,7 +4216,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4118,11 +4227,11 @@
         <v>69351.111111111109</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10848.493161013368</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2836.0410004773157</v>
       </c>
       <c r="E75" s="1">
@@ -4136,7 +4245,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4147,11 +4256,11 @@
         <v>67576.296296296292</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12284.543669963959</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3211.4570201671654</v>
       </c>
       <c r="E76" s="1">
@@ -4165,7 +4274,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4176,11 +4285,11 @@
         <v>65801.481481481474</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13720.594178914551</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3586.8730398570151</v>
       </c>
       <c r="E77" s="1">
@@ -4194,7 +4303,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4205,11 +4314,11 @@
         <v>64026.666666666664</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15156.644687865142</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3962.2890595468648</v>
       </c>
       <c r="E78" s="1">
@@ -4223,7 +4332,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4234,11 +4343,11 @@
         <v>62251.851851851854</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16592.695196815734</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4337.7050792367145</v>
       </c>
       <c r="E79" s="1">
@@ -4252,7 +4361,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4263,11 +4372,11 @@
         <v>60477.037037037036</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18028.745705766327</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4713.1210989265646</v>
       </c>
       <c r="E80" s="1">
@@ -4281,7 +4390,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4292,11 +4401,11 @@
         <v>58702.222222222219</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19464.796214716916</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5088.5371186164139</v>
       </c>
       <c r="E81" s="1">
@@ -4306,13 +4415,13 @@
         <v>6</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L81" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4323,11 +4432,11 @@
         <v>58490.555555555555</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20723.295969978786</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5417.5373633545441</v>
       </c>
       <c r="E82" s="1">
@@ -4341,7 +4450,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4352,11 +4461,11 @@
         <v>58278.888888888891</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21981.795725240656</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5746.5376080926744</v>
       </c>
       <c r="E83" s="1">
@@ -4370,7 +4479,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4381,11 +4490,11 @@
         <v>58067.222222222219</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23240.295480502526</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6075.5378528308047</v>
       </c>
       <c r="E84" s="1">
@@ -4399,7 +4508,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4410,11 +4519,11 @@
         <v>57855.555555555555</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24498.795235764395</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6404.538097568935</v>
       </c>
       <c r="E85" s="1">
@@ -4424,13 +4533,13 @@
         <v>6</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L85" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4441,11 +4550,11 @@
         <v>53198.888888888891</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23715.728721379233</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6199.8268341763205</v>
       </c>
       <c r="E86" s="1">
@@ -4459,7 +4568,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4470,11 +4579,11 @@
         <v>48542.222222222226</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22932.662206994071</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5995.115570783707</v>
       </c>
       <c r="E87" s="1">
@@ -4488,7 +4597,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4499,11 +4608,11 @@
         <v>43885.555555555562</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22149.595692608909</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5790.4043073910925</v>
       </c>
       <c r="E88" s="1">
@@ -4517,7 +4626,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4528,11 +4637,11 @@
         <v>39228.888888888898</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21366.529178223744</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5585.6930439984781</v>
       </c>
       <c r="E89" s="1">
@@ -4542,13 +4651,13 @@
         <v>6</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L89" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4559,11 +4668,11 @@
         <v>40251.944444444453</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22625.028933485613</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5914.6932887366083</v>
       </c>
       <c r="E90" s="1">
@@ -4577,7 +4686,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4588,11 +4697,11 @@
         <v>41275</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23883.528688747479</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6243.6935334747377</v>
       </c>
       <c r="E91" s="1">
@@ -4606,7 +4715,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4617,11 +4726,11 @@
         <v>42298.055555555555</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25142.028444009353</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6572.693778212868</v>
       </c>
       <c r="E92" s="1">
@@ -4635,7 +4744,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4646,11 +4755,11 @@
         <v>43321.111111111109</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26400.528199271223</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6901.6940229509983</v>
       </c>
       <c r="E93" s="1">
@@ -4660,13 +4769,13 @@
         <v>6</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L93" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4677,11 +4786,11 @@
         <v>39511.111111111109</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23939.462011203563</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6258.3157665742101</v>
       </c>
       <c r="E94" s="1">
@@ -4691,13 +4800,13 @@
         <v>6</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L94" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4708,11 +4817,11 @@
         <v>37653.148148148146</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26465.783742136646</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6918.7532949003817</v>
       </c>
       <c r="E95" s="1">
@@ -4726,7 +4835,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4737,11 +4846,11 @@
         <v>35795.185185185182</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28992.105473069736</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7579.190823226555</v>
       </c>
       <c r="E96" s="1">
@@ -4755,7 +4864,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4766,11 +4875,11 @@
         <v>33937.222222222219</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31518.427204002819</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8239.6283515527266</v>
       </c>
       <c r="E97" s="1">
@@ -4784,7 +4893,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4795,11 +4904,11 @@
         <v>32079.259259259259</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34044.748934935909</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8900.0658798789009</v>
       </c>
       <c r="E98" s="1">
@@ -4813,7 +4922,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4824,11 +4933,11 @@
         <v>30221.296296296296</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36571.070665868996</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9560.5034082050715</v>
       </c>
       <c r="E99" s="1">
@@ -4842,7 +4951,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4853,11 +4962,11 @@
         <v>28363.333333333332</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39097.392396802083</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10220.940936531246</v>
       </c>
       <c r="E100" s="1">
@@ -4871,7 +4980,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4882,11 +4991,11 @@
         <v>26505.370370370372</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41623.714127735169</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10881.378464857416</v>
       </c>
       <c r="E101" s="1">
@@ -4900,7 +5009,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4911,11 +5020,11 @@
         <v>24647.407407407409</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44150.035858668249</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11541.815993183589</v>
       </c>
       <c r="E102" s="1">
@@ -4929,7 +5038,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4940,11 +5049,11 @@
         <v>22789.444444444445</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46676.357589601343</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12202.253521509761</v>
       </c>
       <c r="E103" s="1">
@@ -4958,7 +5067,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4969,11 +5078,11 @@
         <v>20931.481481481482</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49202.679320534429</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12862.691049835936</v>
       </c>
       <c r="E104" s="1">
@@ -4987,7 +5096,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4998,11 +5107,11 @@
         <v>19073.518518518518</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51729.001051467516</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13523.128578162106</v>
       </c>
       <c r="E105" s="1">
@@ -5016,7 +5125,7 @@
         <v>0.79275575134605969</v>
       </c>
       <c r="M105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5027,11 +5136,11 @@
         <v>17215.555555555555</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54255.322782400595</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14183.566106488279</v>
       </c>
       <c r="E106" s="1">
@@ -5041,13 +5150,13 @@
         <v>6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L106" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5058,11 +5167,11 @@
         <v>12925.777777777777</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53584.122912927611</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14008.099309294612</v>
       </c>
       <c r="E107" s="1">
@@ -5072,13 +5181,13 @@
         <v>6</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L107" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5089,11 +5198,11 @@
         <v>10950.222222222221</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56716.388970468273</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14826.944362865072</v>
       </c>
       <c r="E108" s="1">
@@ -5103,13 +5212,13 @@
         <v>6</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L108" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5120,11 +5229,11 @@
         <v>8692.4444444444434</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59177.455158535908</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15470.322619241855</v>
       </c>
       <c r="E109" s="1">
@@ -5134,13 +5243,13 @@
         <v>6</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L109" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5151,11 +5260,11 @@
         <v>8043.3333333333348</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60296.12160765758</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15762.767281231307</v>
       </c>
       <c r="E110" s="1">
@@ -5165,13 +5274,13 @@
         <v>6</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L110" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5182,11 +5291,11 @@
         <v>7549.4444444444434</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67455.586882036223</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17634.413117963781</v>
       </c>
       <c r="E111" s="1">
@@ -5196,13 +5305,13 @@
         <v>6</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L111" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5213,11 +5322,11 @@
         <v>6307.6666666666661</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74615.052156414866</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19506.058954696258</v>
       </c>
       <c r="E112" s="1">
@@ -5227,13 +5336,13 @@
         <v>6</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L112" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -5244,11 +5353,11 @@
         <v>5362.2222222222217</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80543.984336759662</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21056.015663240334</v>
       </c>
       <c r="E113" s="1">
@@ -5258,13 +5367,13 @@
         <v>6</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L113" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -5275,11 +5384,11 @@
         <v>4035.7777777777778</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77076.118344482529</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20149.437211073047</v>
       </c>
       <c r="E114" s="1">
@@ -5289,13 +5398,13 @@
         <v>6</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L114" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5306,11 +5415,11 @@
         <v>3132.666666666667</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77299.851634306833</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20207.92614347093</v>
       </c>
       <c r="E115" s="1">
@@ -5320,13 +5429,13 @@
         <v>6</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L115" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5337,11 +5446,11 @@
         <v>2257.7777777777778</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86025.449937455822</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22488.994506988638</v>
       </c>
       <c r="E116" s="1">
@@ -5351,13 +5460,13 @@
         <v>6</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L116" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5368,11 +5477,11 @@
         <v>1524</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94415.448305868282</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24682.329471909507</v>
       </c>
       <c r="E117" s="1">
@@ -5382,13 +5491,13 @@
         <v>6</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L117" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5399,11 +5508,11 @@
         <v>1114.7777777777778</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95645.981399902099</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25004.018600097897</v>
       </c>
       <c r="E118" s="1">
@@ -5413,13 +5522,13 @@
         <v>6</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L118" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -5430,11 +5539,11 @@
         <v>987.7777777777776</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100232.5138413009</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26203.041714254636</v>
       </c>
       <c r="E119" s="1">
@@ -5444,13 +5553,13 @@
         <v>6</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L119" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -5461,11 +5570,11 @@
         <v>1114.7777777777778</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109069.97878936205</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28513.354543971291</v>
       </c>
       <c r="E120" s="1">
@@ -5475,13 +5584,13 @@
         <v>6</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L120" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5492,11 +5601,11 @@
         <v>987.7777777777776</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113656.51123076085</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29712.377658128025</v>
       </c>
       <c r="E121" s="1">
@@ -5506,13 +5615,13 @@
         <v>6</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L121" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -5523,11 +5632,11 @@
         <v>1001.8888888888888</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108846.24549953772</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28454.865611573401</v>
       </c>
       <c r="E122" s="1">
@@ -5537,13 +5646,13 @@
         <v>6</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L122" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5554,11 +5663,11 @@
         <v>719.66666666666663</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>117459.9771577745</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30706.689508892156</v>
       </c>
       <c r="E123" s="1">
@@ -5568,13 +5677,13 @@
         <v>6</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L123" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -5585,11 +5694,11 @@
         <v>437.4444444444444</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124843.17572197747</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32636.824278022519</v>
       </c>
       <c r="E124" s="1">
@@ -5599,13 +5708,13 @@
         <v>6</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L124" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -5616,11 +5725,11 @@
         <v>465.66666666666669</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114551.4443900582</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29946.333387719587</v>
       </c>
       <c r="E125" s="1">
@@ -5630,13 +5739,13 @@
         <v>6</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L125" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5647,11 +5756,11 @@
         <v>479.77777777777783</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119809.17670092999</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31320.823299069998</v>
       </c>
       <c r="E126" s="1">
@@ -5661,19 +5770,19 @@
         <v>6</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L126" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O126" s="1">
         <v>2605</v>
       </c>
       <c r="P126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -5684,11 +5793,11 @@
         <v>324.5555555555556</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124110.31707184424</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32445.238483711324</v>
       </c>
       <c r="E127" s="1">
@@ -5698,19 +5807,19 @@
         <v>6</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L127" s="2">
         <v>0.79275575134605969</v>
       </c>
       <c r="M127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O127" s="1">
         <v>2692</v>
       </c>
       <c r="P127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -5721,11 +5830,11 @@
         <v>282.22222222222223</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127638.5328825984</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34028.133784068261</v>
       </c>
       <c r="E128" s="1">
@@ -5735,19 +5844,19 @@
         <v>6</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L128" s="2">
         <v>0.78951669824287674</v>
       </c>
       <c r="M128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O128" s="1">
         <v>2874</v>
       </c>
       <c r="P128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -5758,11 +5867,11 @@
         <v>225.7777777777778</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135147.90554684089</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35629.87223093689</v>
       </c>
       <c r="E129" s="1">
@@ -5772,19 +5881,19 @@
         <v>6</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L129" s="2">
         <v>0.79136704614285491</v>
       </c>
       <c r="M129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O129" s="1">
         <v>3274</v>
       </c>
       <c r="P129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -5795,11 +5904,11 @@
         <v>155.2222222222222</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129309.45847250981</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34801.652638601285</v>
       </c>
       <c r="E130" s="1">
@@ -5809,19 +5918,19 @@
         <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L130" s="2">
         <v>0.78793847410466378</v>
       </c>
       <c r="M130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O130" s="1">
         <v>3304</v>
       </c>
       <c r="P130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -5832,11 +5941,11 @@
         <v>56.44444444444445</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>118108.88873303669</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35446.666822518848</v>
       </c>
       <c r="E131" s="1">
@@ -5846,19 +5955,19 @@
         <v>6</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L131" s="2">
         <v>0.76916063574336491</v>
       </c>
       <c r="M131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O131" s="1">
         <v>3072</v>
       </c>
       <c r="P131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -5869,11 +5978,11 @@
         <v>42.333333333333336</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121122.1162072357</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36766.772681653179</v>
       </c>
       <c r="E132" s="1">
@@ -5883,19 +5992,19 @@
         <v>6</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L132" s="2">
         <v>0.76713514839206287</v>
       </c>
       <c r="M132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O132" s="1">
         <v>3366</v>
       </c>
       <c r="P132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -5906,11 +6015,11 @@
         <v>28.222222222222225</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>118979.10907694658</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37354.224256386726</v>
       </c>
       <c r="E133" s="1">
@@ -5920,19 +6029,19 @@
         <v>6</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L133" s="2">
         <v>0.76106039921287805</v>
       </c>
       <c r="M133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O133" s="1">
         <v>3468</v>
       </c>
       <c r="P133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -5943,11 +6052,11 @@
         <v>14.111111111111112</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" ref="C134:C168" si="4">$E134*($L134)</f>
+        <f t="shared" ref="C134:C168" si="5">$E134*($L134)</f>
         <v>118342.18676908125</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" ref="D134:D168" si="5">$E134*(1-$L134)</f>
+        <f t="shared" ref="D134:D168" si="6">$E134*(1-$L134)</f>
         <v>38768.924342029874</v>
       </c>
       <c r="E134" s="1">
@@ -5957,19 +6066,19 @@
         <v>6</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L134" s="2">
         <v>0.75323881253304892</v>
       </c>
       <c r="M134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O134" s="1">
         <v>3550</v>
       </c>
       <c r="P134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -5980,11 +6089,11 @@
         <v>4</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123792.55068896992</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39020.782644363419</v>
       </c>
       <c r="E135" s="1">
@@ -5994,19 +6103,19 @@
         <v>6</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L135" s="2">
         <v>0.76033423156766389</v>
       </c>
       <c r="M135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O135" s="1">
         <v>3828</v>
       </c>
       <c r="P135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -6017,11 +6126,11 @@
         <v>11</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121376.73001342786</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37597.714431016575</v>
       </c>
       <c r="E136" s="1">
@@ -6031,19 +6140,19 @@
         <v>6</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L136" s="2">
         <v>0.76349837508533924</v>
       </c>
       <c r="M136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O136" s="1">
         <v>3704</v>
       </c>
       <c r="P136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -6054,11 +6163,11 @@
         <v>9</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110285.03474489234</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37992.743032885439</v>
       </c>
       <c r="E137" s="1">
@@ -6068,19 +6177,19 @@
         <v>6</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L137" s="2">
         <v>0.74377318299290451</v>
       </c>
       <c r="M137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O137" s="1">
         <v>3555</v>
       </c>
       <c r="P137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -6091,11 +6200,11 @@
         <v>1</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97526.139920868314</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38249.415634687219</v>
       </c>
       <c r="E138" s="1">
@@ -6105,19 +6214,19 @@
         <v>6</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L138" s="2">
         <v>0.71828938222214356</v>
       </c>
       <c r="M138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O138" s="1">
         <v>3273</v>
       </c>
       <c r="P138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -6128,11 +6237,11 @@
         <v>1</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90493.172556167352</v>
       </c>
       <c r="D139" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37064.605221610429</v>
       </c>
       <c r="E139" s="1">
@@ -6142,19 +6251,19 @@
         <v>6</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L139" s="2">
         <v>0.70942888887432809</v>
       </c>
       <c r="M139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O139" s="1">
         <v>3231</v>
       </c>
       <c r="P139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -6165,11 +6274,11 @@
         <v>1</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91490.74377563961</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39569.256224360397</v>
       </c>
       <c r="E140" s="1">
@@ -6179,19 +6288,19 @@
         <v>6</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L140" s="2">
         <v>0.69808289161940795</v>
       </c>
       <c r="M140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O140" s="1">
         <v>3364</v>
       </c>
       <c r="P140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -6202,11 +6311,11 @@
         <v>0</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95693.405678297262</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42811.038766147212</v>
       </c>
       <c r="E141" s="1">
@@ -6216,19 +6325,19 @@
         <v>6</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L141" s="2">
         <v>0.69090494577364159</v>
       </c>
       <c r="M141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O141" s="1">
         <v>3330</v>
       </c>
       <c r="P141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -6239,11 +6348,11 @@
         <v>0</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102060.01303317322</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42821.702670032719</v>
       </c>
       <c r="E142" s="1">
@@ -6253,7 +6362,7 @@
         <v>6</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J142" s="1">
         <v>144881.71570320593</v>
@@ -6262,13 +6371,13 @@
         <v>0.70443680583025314</v>
       </c>
       <c r="M142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O142" s="1">
         <v>3385</v>
       </c>
       <c r="P142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -6279,11 +6388,11 @@
         <v>0</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98747.008470234185</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50777.279531775406</v>
       </c>
       <c r="E143" s="1">
@@ -6293,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J143" s="1">
         <v>149524.28800200959</v>
@@ -6302,13 +6411,13 @@
         <v>0.66040781594564113</v>
       </c>
       <c r="M143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O143" s="1">
         <v>3505</v>
       </c>
       <c r="P143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -6319,11 +6428,11 @@
         <v>0</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102715.21620750133</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57254.85946681651</v>
       </c>
       <c r="E144" s="1">
@@ -6333,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1">
         <v>159970.07567431784</v>
@@ -6342,13 +6451,13 @@
         <v>0.64209018952156183</v>
       </c>
       <c r="M144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O144" s="1">
         <v>3735</v>
       </c>
       <c r="P144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -6359,11 +6468,11 @@
         <v>0</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106816.86042414946</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64508.696143188114</v>
       </c>
       <c r="E145" s="1">
@@ -6373,7 +6482,7 @@
         <v>6</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1">
         <v>171325.55656733757</v>
@@ -6382,13 +6491,13 @@
         <v>0.62347300989018706</v>
       </c>
       <c r="M145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O145" s="1">
         <v>3940</v>
       </c>
       <c r="P145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -6399,11 +6508,11 @@
         <v>0</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111413.05876254434</v>
       </c>
       <c r="D146" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67608.293327134437</v>
       </c>
       <c r="E146" s="1">
@@ -6413,7 +6522,7 @@
         <v>6</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J146" s="1">
         <v>179021.35208967878</v>
@@ -6422,13 +6531,13 @@
         <v>0.62234508600255234</v>
       </c>
       <c r="M146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O146" s="1">
         <v>4008</v>
       </c>
       <c r="P146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -6439,11 +6548,11 @@
         <v>0</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115347.23664617109</v>
       </c>
       <c r="D147" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71537.210868508453</v>
       </c>
       <c r="E147" s="1">
@@ -6453,7 +6562,7 @@
         <v>6</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J147" s="1">
         <v>186884.44751467954</v>
@@ -6462,13 +6571,13 @@
         <v>0.61721153461478229</v>
       </c>
       <c r="M147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O147" s="1">
         <v>4120</v>
       </c>
       <c r="P147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -6479,11 +6588,11 @@
         <v>0</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126677.73909256482</v>
       </c>
       <c r="D148" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63918.675012374413</v>
       </c>
       <c r="E148" s="1">
@@ -6493,7 +6602,7 @@
         <v>6</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J148" s="1">
         <v>190596.41410493923</v>
@@ -6502,13 +6611,13 @@
         <v>0.66463862758098979</v>
       </c>
       <c r="M148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O148" s="1">
         <v>4220</v>
       </c>
       <c r="P148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -6519,11 +6628,11 @@
         <v>0</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125344.28814290521</v>
       </c>
       <c r="D149" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73261.608801861978</v>
       </c>
       <c r="E149" s="1">
@@ -6533,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J149" s="1">
         <v>198605.89694476718</v>
@@ -6542,13 +6651,13 @@
         <v>0.63112067703490082</v>
       </c>
       <c r="M149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O149" s="1">
         <v>4330</v>
       </c>
       <c r="P149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -6559,11 +6668,11 @@
         <v>0</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127661.51424817363</v>
       </c>
       <c r="D150" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77280.866509825573</v>
       </c>
       <c r="E150" s="1">
@@ -6573,7 +6682,7 @@
         <v>6</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J150" s="1">
         <v>204942.3807579992</v>
@@ -6582,13 +6691,13 @@
         <v>0.62291417605282606</v>
       </c>
       <c r="M150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O150" s="1">
         <v>4485</v>
       </c>
       <c r="P150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -6599,11 +6708,11 @@
         <v>0</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128834.12214262012</v>
       </c>
       <c r="D151" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82256.530038119061</v>
       </c>
       <c r="E151" s="1">
@@ -6613,7 +6722,7 @@
         <v>6</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J151" s="1">
         <v>211090.65218073918</v>
@@ -6622,13 +6731,13 @@
         <v>0.61032604149761349</v>
       </c>
       <c r="M151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O151" s="1">
         <v>4651</v>
       </c>
       <c r="P151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -6639,11 +6748,11 @@
         <v>0</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>129281.99947537547</v>
       </c>
       <c r="D152" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86932.212224313684</v>
       </c>
       <c r="E152" s="1">
@@ -6653,7 +6762,7 @@
         <v>6</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J152" s="1">
         <v>216214.21169968916</v>
@@ -6662,13 +6771,13 @@
         <v>0.5979347909606505</v>
       </c>
       <c r="M152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O152" s="1">
         <v>4758</v>
       </c>
       <c r="P152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -6679,11 +6788,11 @@
         <v>0</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140256.29564279946</v>
       </c>
       <c r="D153" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87951.227828799136</v>
       </c>
       <c r="E153" s="1">
@@ -6693,7 +6802,7 @@
         <v>6</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J153" s="1">
         <v>228207.5234715986</v>
@@ -6702,13 +6811,13 @@
         <v>0.61459978842570873</v>
       </c>
       <c r="M153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O153" s="1">
         <v>4953</v>
       </c>
       <c r="P153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6719,11 +6828,11 @@
         <v>0</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136312.43244842952</v>
       </c>
       <c r="D154" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89416.961215023854</v>
       </c>
       <c r="E154" s="1">
@@ -6733,7 +6842,7 @@
         <v>6</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J154" s="1">
         <v>225729.39366345337</v>
@@ -6742,13 +6851,13 @@
         <v>0.60387542019300222</v>
       </c>
       <c r="M154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O154" s="1">
         <v>5631</v>
       </c>
       <c r="P154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -6759,11 +6868,11 @@
         <v>0</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>139471.5963928487</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90555.313520172946</v>
       </c>
       <c r="E155" s="1">
@@ -6773,7 +6882,7 @@
         <v>6</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J155" s="1">
         <v>230026.90991302163</v>
@@ -6782,13 +6891,13 @@
         <v>0.60632730512089239</v>
       </c>
       <c r="M155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O155" s="1">
         <v>5683</v>
       </c>
       <c r="P155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -6799,11 +6908,11 @@
         <v>0</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157881.46616490994</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89858.320942195918</v>
       </c>
       <c r="E156" s="1">
@@ -6813,7 +6922,7 @@
         <v>6</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J156" s="1">
         <v>247739.78710710586</v>
@@ -6822,13 +6931,13 @@
         <v>0.63728748623107812</v>
       </c>
       <c r="M156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O156" s="1">
         <v>5984</v>
       </c>
       <c r="P156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -6839,11 +6948,11 @@
         <v>0</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165806.02285185352</v>
       </c>
       <c r="D157" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84004.100550664763</v>
       </c>
       <c r="E157" s="1">
@@ -6853,7 +6962,7 @@
         <v>6</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J157" s="1">
         <v>249810.12340251828</v>
@@ -6862,13 +6971,13 @@
         <v>0.66372819721437304</v>
       </c>
       <c r="M157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O157" s="1">
         <v>6020</v>
       </c>
       <c r="P157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -6879,11 +6988,11 @@
         <v>0</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160031.64792196627</v>
       </c>
       <c r="D158" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92716.680021011096</v>
       </c>
       <c r="E158" s="1">
@@ -6893,25 +7002,25 @@
         <v>6</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J158" s="1">
         <v>252748.32794297737</v>
       </c>
       <c r="K158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L158" s="2">
         <v>0.63316600044163718</v>
       </c>
       <c r="M158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O158" s="1">
         <v>6127</v>
       </c>
       <c r="P158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -6922,11 +7031,11 @@
         <v>0</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>158829.10777446159</v>
       </c>
       <c r="D159" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>111402.059996443</v>
       </c>
       <c r="E159" s="1">
@@ -6936,7 +7045,7 @@
         <v>6</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J159" s="1">
         <v>270231.16777090461</v>
@@ -6948,13 +7057,13 @@
         <v>0.58775273438892528</v>
       </c>
       <c r="M159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O159" s="1">
         <v>6480</v>
       </c>
       <c r="P159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -6965,11 +7074,11 @@
         <v>0</v>
       </c>
       <c r="C160" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170498.32544699695</v>
       </c>
       <c r="D160" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>118459.97517786566</v>
       </c>
       <c r="E160" s="1">
@@ -6979,7 +7088,7 @@
         <v>6</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J160" s="1">
         <v>288958.3006248626</v>
@@ -6991,13 +7100,13 @@
         <v>0.5900447402905542</v>
       </c>
       <c r="M160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O160" s="1">
         <v>6758</v>
       </c>
       <c r="P160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -7008,11 +7117,11 @@
         <v>0</v>
       </c>
       <c r="C161" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>189903.46068584552</v>
       </c>
       <c r="D161" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114310.49981278856</v>
       </c>
       <c r="E161" s="1">
@@ -7022,7 +7131,7 @@
         <v>6</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J161" s="1">
         <v>304213.96049863409</v>
@@ -7034,13 +7143,13 @@
         <v>0.6242430833041871</v>
       </c>
       <c r="M161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O161" s="1">
         <v>7109</v>
       </c>
       <c r="P161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -7051,11 +7160,11 @@
         <v>0</v>
       </c>
       <c r="C162" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>201186.46809687535</v>
       </c>
       <c r="D162" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128827.50496181152</v>
       </c>
       <c r="E162" s="1">
@@ -7066,10 +7175,10 @@
         <v>6</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162" s="1">
         <v>320860.3008132634</v>
@@ -7082,13 +7191,13 @@
         <v>0.60963015060304149</v>
       </c>
       <c r="M162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O162" s="1">
         <v>7700.3348957699</v>
       </c>
       <c r="P162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -7099,11 +7208,11 @@
         <v>0</v>
       </c>
       <c r="C163" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210536.44286579205</v>
       </c>
       <c r="D163" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>141463.55713420795</v>
       </c>
       <c r="E163" s="1">
@@ -7114,7 +7223,7 @@
         <v>6</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I163" s="1">
         <v>352000</v>
@@ -7130,13 +7239,13 @@
         <v>0.59811489450509103</v>
       </c>
       <c r="M163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O163" s="1">
         <v>8034.0740245856996</v>
       </c>
       <c r="P163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -7147,11 +7256,11 @@
         <v>0</v>
       </c>
       <c r="C164" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>217668.51325731122</v>
       </c>
       <c r="D164" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>145331.48674268878</v>
       </c>
       <c r="E164" s="1">
@@ -7162,7 +7271,7 @@
         <v>6</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I164" s="1">
         <v>363000</v>
@@ -7171,13 +7280,13 @@
         <v>0.59963777756835046</v>
       </c>
       <c r="M164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O164" s="1">
         <v>8229.4987638914008</v>
       </c>
       <c r="P164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -7188,22 +7297,22 @@
         <v>0</v>
       </c>
       <c r="C165" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186776.53487111846</v>
       </c>
       <c r="D165" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>126223.46512888154</v>
       </c>
       <c r="E165" s="1">
-        <f t="shared" ref="E165:E168" si="6">I165</f>
+        <f t="shared" ref="E165:E168" si="7">I165</f>
         <v>313000</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I165" s="1">
         <v>313000</v>
@@ -7212,13 +7321,13 @@
         <v>0.59673014335820596</v>
       </c>
       <c r="M165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O165" s="1">
         <v>7857.999159895</v>
       </c>
       <c r="P165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -7229,22 +7338,22 @@
         <v>0</v>
       </c>
       <c r="C166" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168221.57148502051</v>
       </c>
       <c r="D166" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>124778.42851497949</v>
       </c>
       <c r="E166" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>293000</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I166" s="1">
         <v>293000</v>
@@ -7253,13 +7362,13 @@
         <v>0.57413505626286865</v>
       </c>
       <c r="M166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O166" s="1">
         <v>8408.9027169411002</v>
       </c>
       <c r="P166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -7270,22 +7379,22 @@
         <v>0</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187742.16339795804</v>
       </c>
       <c r="D167" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>139257.83660204196</v>
       </c>
       <c r="E167" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>327000</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I167" s="1">
         <v>327000</v>
@@ -7294,13 +7403,13 @@
         <v>0.57413505626286865</v>
       </c>
       <c r="M167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O167" s="1">
         <v>8784.2649371619009</v>
       </c>
       <c r="P167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -7311,22 +7420,22 @@
         <v>0</v>
       </c>
       <c r="C168" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>172240.5168788606</v>
       </c>
       <c r="D168" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>127759.4831211394</v>
       </c>
       <c r="E168" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I168" s="1">
         <v>300000</v>
@@ -7335,13 +7444,13 @@
         <v>0.57413505626286865</v>
       </c>
       <c r="M168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O168" s="1">
         <v>9196.7031038762998</v>
       </c>
       <c r="P168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -56018,9 +56127,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1820</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1830</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B4*(C3/$C$5)</f>
+        <v>226.4907239978441</v>
+      </c>
+      <c r="C3" s="1">
+        <v>200</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1840</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B5*(C4/$C$5)</f>
+        <v>1811.9257919827528</v>
+      </c>
+      <c r="C4" s="1">
+        <v>600</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>Data!A11</f>
+        <v>1855</v>
+      </c>
+      <c r="B5" s="1">
+        <f>Data!B11</f>
+        <v>4831.8021119540072</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -56039,41 +56247,41 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="12" customHeight="1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
         <v>110</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>111</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>112</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>114</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>115</v>
-      </c>
-      <c r="S2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:71" ht="12" customHeight="1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7">
         <v>42014</v>
@@ -56082,7 +56290,7 @@
         <v>2012</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>2410</v>
@@ -56091,19 +56299,19 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
         <v>117</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
         <v>118</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>119</v>
       </c>
       <c r="Q3">
         <v>1960</v>
@@ -56112,212 +56320,212 @@
         <v>2014</v>
       </c>
       <c r="S3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:71" ht="12" customHeight="1">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="M4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:71">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
       <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
         <v>54</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>55</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>56</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>57</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>58</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>59</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>60</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>62</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>63</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>67</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>68</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>69</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>71</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>72</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>73</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>74</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>75</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>76</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>77</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>78</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>79</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>80</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>81</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>82</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>83</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>84</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>85</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>86</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>87</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>88</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>89</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>90</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>91</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>92</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>93</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>94</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>95</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>96</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>97</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>98</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>99</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>100</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>101</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>102</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>103</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>104</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>105</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>106</v>
       </c>
-      <c r="BR5" t="s">
+      <c r="BS5" t="s">
         <v>107</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -56332,20 +56540,20 @@
         <v>774504.00000000012</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <f>$F$3*B6/LOOKUP($D$3,$A$6:$A$60,$B$6:$B$60)</f>
         <v>724.73811885833118</v>
       </c>
       <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
@@ -56355,219 +56563,219 @@
         <v>724.73811885833118</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R10" si="1">LOOKUP(RIGHT(R5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="R6" si="1">LOOKUP(RIGHT(R5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>765.89872698200952</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S10" si="2">LOOKUP(RIGHT(S5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="S6" si="2">LOOKUP(RIGHT(S5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>827.15164823528573</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:T10" si="3">LOOKUP(RIGHT(T5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="T6" si="3">LOOKUP(RIGHT(T5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>890.08984593912112</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U10" si="4">LOOKUP(RIGHT(U5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="U6" si="4">LOOKUP(RIGHT(U5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>957.53739801011068</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V10" si="5">LOOKUP(RIGHT(V5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="V6" si="5">LOOKUP(RIGHT(V5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1034.173028630817</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W10" si="6">LOOKUP(RIGHT(W5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="W6" si="6">LOOKUP(RIGHT(W5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1114.2596862085818</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X10" si="7">LOOKUP(RIGHT(X5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="X6" si="7">LOOKUP(RIGHT(X5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1188.3266972530616</v>
       </c>
       <c r="Y6">
-        <f t="shared" ref="Y6:Y10" si="8">LOOKUP(RIGHT(Y5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="Y6" si="8">LOOKUP(RIGHT(Y5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1299.5914370385883</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z10" si="9">LOOKUP(RIGHT(Z5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="Z6" si="9">LOOKUP(RIGHT(Z5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1409.7052106752051</v>
       </c>
       <c r="AA6">
-        <f t="shared" ref="AA6:AA10" si="10">LOOKUP(RIGHT(AA5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AA6" si="10">LOOKUP(RIGHT(AA5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1628.985511769137</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB10" si="11">LOOKUP(RIGHT(AB5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AB6" si="11">LOOKUP(RIGHT(AB5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1633.034357283062</v>
       </c>
       <c r="AC6">
-        <f t="shared" ref="AC6:AC10" si="12">LOOKUP(RIGHT(AC5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AC6" si="12">LOOKUP(RIGHT(AC5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1782.8416412982851</v>
       </c>
       <c r="AD6">
-        <f t="shared" ref="AD6:AD10" si="13">LOOKUP(RIGHT(AD5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AD6" si="13">LOOKUP(RIGHT(AD5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2043.3173693607901</v>
       </c>
       <c r="AE6">
-        <f t="shared" ref="AE6:AE10" si="14">LOOKUP(RIGHT(AE5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AE6" si="14">LOOKUP(RIGHT(AE5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2020.3739114485486</v>
       </c>
       <c r="AF6">
-        <f t="shared" ref="AF6:AF10" si="15">LOOKUP(RIGHT(AF5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AF6" si="15">LOOKUP(RIGHT(AF5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1840.8750936645426</v>
       </c>
       <c r="AG6">
-        <f t="shared" ref="AG6:AG10" si="16">LOOKUP(RIGHT(AG5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AG6" si="16">LOOKUP(RIGHT(AG5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2098.651591384431</v>
       </c>
       <c r="AH6">
-        <f t="shared" ref="AH6:AH10" si="17">LOOKUP(RIGHT(AH5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AH6" si="17">LOOKUP(RIGHT(AH5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2158.0346589219967</v>
       </c>
       <c r="AI6">
-        <f t="shared" ref="AI6:AI10" si="18">LOOKUP(RIGHT(AI5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AI6" si="18">LOOKUP(RIGHT(AI5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2164.7827347785383</v>
       </c>
       <c r="AJ6">
-        <f t="shared" ref="AJ6:AJ10" si="19">LOOKUP(RIGHT(AJ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AJ6" si="19">LOOKUP(RIGHT(AJ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2328.0861705068446</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6:AK10" si="20">LOOKUP(RIGHT(AK5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AK6" si="20">LOOKUP(RIGHT(AK5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2060.8623665877981</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6:AL10" si="21">LOOKUP(RIGHT(AL5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AL6" si="21">LOOKUP(RIGHT(AL5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1840.8750936645426</v>
       </c>
       <c r="AM6">
-        <f t="shared" ref="AM6:AM10" si="22">LOOKUP(RIGHT(AM5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AM6" si="22">LOOKUP(RIGHT(AM5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1569.6024442315711</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN10" si="23">LOOKUP(RIGHT(AN5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AN6" si="23">LOOKUP(RIGHT(AN5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1442.7386181285895</v>
       </c>
       <c r="AO6">
-        <f t="shared" ref="AO6:AO10" si="24">LOOKUP(RIGHT(AO5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AO6" si="24">LOOKUP(RIGHT(AO5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1456.2347698416727</v>
       </c>
       <c r="AP6">
-        <f t="shared" ref="AP6:AP10" si="25">LOOKUP(RIGHT(AP5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AP6" si="25">LOOKUP(RIGHT(AP5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1415.7463147024232</v>
       </c>
       <c r="AQ6">
-        <f t="shared" ref="AQ6:AQ10" si="26">LOOKUP(RIGHT(AQ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AQ6" si="26">LOOKUP(RIGHT(AQ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1519.6666828931634</v>
       </c>
       <c r="AR6">
-        <f t="shared" ref="AR6:AR10" si="27">LOOKUP(RIGHT(AR5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AR6" si="27">LOOKUP(RIGHT(AR5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1494.0239946383056</v>
       </c>
       <c r="AS6">
-        <f t="shared" ref="AS6:AS10" si="28">LOOKUP(RIGHT(AS5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AS6" si="28">LOOKUP(RIGHT(AS5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1565.5535987176463</v>
       </c>
       <c r="AT6">
-        <f t="shared" ref="AT6:AT10" si="29">LOOKUP(RIGHT(AT5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AT6" si="29">LOOKUP(RIGHT(AT5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1700.5151158484778</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU10" si="30">LOOKUP(RIGHT(AU5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AU6" si="30">LOOKUP(RIGHT(AU5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1736.9547254738022</v>
       </c>
       <c r="AV6">
-        <f t="shared" ref="AV6:AV10" si="31">LOOKUP(RIGHT(AV5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AV6" si="31">LOOKUP(RIGHT(AV5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1799.0370233539848</v>
       </c>
       <c r="AW6">
-        <f t="shared" ref="AW6:AW10" si="32">LOOKUP(RIGHT(AW5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AW6" si="32">LOOKUP(RIGHT(AW5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1881.3635488037921</v>
       </c>
       <c r="AX6">
-        <f t="shared" ref="AX6:AX10" si="33">LOOKUP(RIGHT(AX5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AX6" si="33">LOOKUP(RIGHT(AX5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>1947.4946921978994</v>
       </c>
       <c r="AY6">
-        <f t="shared" ref="AY6:AY10" si="34">LOOKUP(RIGHT(AY5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AY6" si="34">LOOKUP(RIGHT(AY5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2021.723526619857</v>
       </c>
       <c r="AZ6">
-        <f t="shared" ref="AZ6:AZ10" si="35">LOOKUP(RIGHT(AZ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="AZ6" si="35">LOOKUP(RIGHT(AZ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2067.6104424443397</v>
       </c>
       <c r="BA6">
-        <f t="shared" ref="BA6:BA10" si="36">LOOKUP(RIGHT(BA5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BA6" si="36">LOOKUP(RIGHT(BA5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2145.8881223802218</v>
       </c>
       <c r="BB6">
-        <f t="shared" ref="BB6:BB10" si="37">LOOKUP(RIGHT(BB5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BB6" si="37">LOOKUP(RIGHT(BB5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2194.4742685473211</v>
       </c>
       <c r="BC6">
-        <f t="shared" ref="BC6:BC10" si="38">LOOKUP(RIGHT(BC5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BC6" si="38">LOOKUP(RIGHT(BC5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2089.2042851852725</v>
       </c>
       <c r="BD6">
-        <f t="shared" ref="BD6:BD10" si="39">LOOKUP(RIGHT(BD5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BD6" si="39">LOOKUP(RIGHT(BD5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2095.9523610418141</v>
       </c>
       <c r="BE6">
-        <f t="shared" ref="BE6:BE10" si="40">LOOKUP(RIGHT(BE5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BE6" si="40">LOOKUP(RIGHT(BE5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2166.1323499498467</v>
       </c>
       <c r="BF6">
-        <f t="shared" ref="BF6:BF10" si="41">LOOKUP(RIGHT(BF5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BF6" si="41">LOOKUP(RIGHT(BF5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2264.6542574553537</v>
       </c>
       <c r="BG6">
-        <f t="shared" ref="BG6:BG10" si="42">LOOKUP(RIGHT(BG5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BG6" si="42">LOOKUP(RIGHT(BG5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2209.3200354317128</v>
       </c>
       <c r="BH6">
-        <f t="shared" ref="BH6:BH10" si="43">LOOKUP(RIGHT(BH5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BH6" si="43">LOOKUP(RIGHT(BH5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2280.8496395110537</v>
       </c>
       <c r="BI6">
-        <f t="shared" ref="BI6:BI10" si="44">LOOKUP(RIGHT(BI5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BI6" si="44">LOOKUP(RIGHT(BI5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2388.8188532157187</v>
       </c>
       <c r="BJ6">
-        <f t="shared" ref="BJ6:BJ10" si="45">LOOKUP(RIGHT(BJ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BJ6" si="45">LOOKUP(RIGHT(BJ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2506.2353731195421</v>
       </c>
       <c r="BK6">
-        <f t="shared" ref="BK6:BK10" si="46">LOOKUP(RIGHT(BK5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BK6" si="46">LOOKUP(RIGHT(BK5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2406.923919684823</v>
       </c>
       <c r="BL6">
-        <f t="shared" ref="BL6:BL10" si="47">LOOKUP(RIGHT(BL5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BL6" si="47">LOOKUP(RIGHT(BL5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2447.4279659869253</v>
       </c>
       <c r="BM6">
-        <f t="shared" ref="BM6:BM10" si="48">LOOKUP(RIGHT(BM5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BM6" si="48">LOOKUP(RIGHT(BM5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2409.3794735451474</v>
       </c>
       <c r="BN6">
-        <f t="shared" ref="BN6:BN10" si="49">LOOKUP(RIGHT(BN5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BN6" si="49">LOOKUP(RIGHT(BN5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2308.5608088774939</v>
       </c>
       <c r="BO6">
-        <f t="shared" ref="BO6:BO10" si="50">LOOKUP(RIGHT(BO5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BO6" si="50">LOOKUP(RIGHT(BO5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2412.681523391569</v>
       </c>
       <c r="BP6">
-        <f t="shared" ref="BP6:BP10" si="51">LOOKUP(RIGHT(BP5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BP6" si="51">LOOKUP(RIGHT(BP5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2374.6213862927543</v>
       </c>
       <c r="BQ6">
-        <f t="shared" ref="BQ6:BQ10" si="52">LOOKUP(RIGHT(BQ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BQ6" si="52">LOOKUP(RIGHT(BQ5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2410.0000000000005</v>
       </c>
       <c r="BR6">
-        <f t="shared" ref="BR6:BR10" si="53">LOOKUP(RIGHT(BR5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BR6" si="53">LOOKUP(RIGHT(BR5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2345.5529253112636</v>
       </c>
       <c r="BS6">
-        <f t="shared" ref="BS6:BS10" si="54">LOOKUP(RIGHT(BS5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
+        <f t="shared" ref="BS6" si="54">LOOKUP(RIGHT(BS5,4)*1,$A$6:$A$60,$H$6:$H$60)</f>
         <v>2308.2246062421691</v>
       </c>
     </row>
@@ -56583,7 +56791,7 @@
         <v>818491.00000000012</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H60" si="55">$F$3*B7/LOOKUP($D$3,$A$6:$A$60,$B$6:$B$60)</f>
@@ -56602,7 +56810,7 @@
         <v>883949.99999999988</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <f t="shared" si="55"/>
@@ -56621,7 +56829,7 @@
         <v>951210</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <f t="shared" si="55"/>
@@ -56640,7 +56848,7 @@
         <v>1023289</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <f t="shared" si="55"/>
@@ -56659,7 +56867,7 @@
         <v>1105187</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <f t="shared" si="55"/>
@@ -56678,7 +56886,7 @@
         <v>1190773</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="55"/>
@@ -56697,7 +56905,7 @@
         <v>1269926.0000000002</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <f t="shared" si="55"/>
@@ -56716,7 +56924,7 @@
         <v>1388831</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14">
         <f t="shared" si="55"/>
@@ -56735,7 +56943,7 @@
         <v>1506506</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15">
         <f t="shared" si="55"/>
@@ -57511,39 +57719,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/input/energy/Shipping_Fuel_Consumption.xlsx
+++ b/input/energy/Shipping_Fuel_Consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d3k117/Downloads/git-repos/CEDS-master/input/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d3k117/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15205088-8B3A-B749-96F9-DDE1C7490BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AED15AA-8ACF-B74E-8DAC-A0FAB19D7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14760" yWindow="1200" windowWidth="39720" windowHeight="20700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Steve Smith</author>
+    <author>Smith, Steven J (PNNL-JGCRI)</author>
     <author>tc={97EA6A8F-D9CF-AF4F-B3C2-8B47849BD98B}</author>
     <author>tc={59169BA0-19C0-6042-BBF8-9FBC812E4D85}</author>
   </authors>
@@ -76,7 +77,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="1" shapeId="0" xr:uid="{97EA6A8F-D9CF-AF4F-B3C2-8B47849BD98B}">
+    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{D1045298-7281-C949-B727-1B606F273EC4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times"/>
+          </rPr>
+          <t>Global Goods Loaded ( Mt)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="2" shapeId="0" xr:uid="{97EA6A8F-D9CF-AF4F-B3C2-8B47849BD98B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D167" authorId="2" shapeId="0" xr:uid="{59169BA0-19C0-6042-BBF8-9FBC812E4D85}">
+    <comment ref="D167" authorId="3" shapeId="0" xr:uid="{59169BA0-19C0-6042-BBF8-9FBC812E4D85}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="134">
   <si>
     <t>Year</t>
   </si>
@@ -519,13 +540,7 @@
     <t>IMO 4th GHG Report</t>
   </si>
   <si>
-    <t>IEA Energy Stats (2023)</t>
-  </si>
-  <si>
     <t>IEA</t>
-  </si>
-  <si>
-    <t>IEA Stats (2023)</t>
   </si>
   <si>
     <t>Ratio to IMO</t>
@@ -536,15 +551,18 @@
   <si>
     <t>Apparent Fuel/Mt</t>
   </si>
+  <si>
+    <t>IEA Energy Stats (2024)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +627,11 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
   </fonts>
@@ -801,8 +824,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1122,39 +1145,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$Y$168:$Y$177</c:f>
+              <c:f>Data!$Y$168:$Y$178</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>27.577415788255376</c:v>
+                  <c:v>27.016930145657771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.947106112964388</c:v>
+                  <c:v>26.383682681954774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.630725610080965</c:v>
+                  <c:v>26.058216810304916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.849257664389722</c:v>
+                  <c:v>26.216787844275604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.787971128804113</c:v>
+                  <c:v>26.231982584686026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.783175858628379</c:v>
+                  <c:v>26.246862717463031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.214363176833061</c:v>
+                  <c:v>25.689640308009238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.763167861926792</c:v>
+                  <c:v>25.169971490984221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.397901273582583</c:v>
+                  <c:v>23.951338656646314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.641600471026635</c:v>
+                  <c:v>24.210468821119708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.395844856791722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,25 +1384,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.83779569508536678</c:v>
+                  <c:v>0.82076826720267848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84674915847425225</c:v>
+                  <c:v>0.82904490800401187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86296159220524304</c:v>
+                  <c:v>0.84440959656531844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86656177934831813</c:v>
+                  <c:v>0.84614876906874104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85365848749351847</c:v>
+                  <c:v>0.83594067163678787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86158614027458247</c:v>
+                  <c:v>0.84433351975959126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87411831127533102</c:v>
+                  <c:v>0.85662141978535677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,6 +1611,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="721477039"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2606,10 +2633,10 @@
   <dimension ref="A1:FI16388"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="H167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="K158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M178" sqref="M178:M180"/>
+      <selection pane="bottomRight" activeCell="O176" sqref="O176:O180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2621,7 +2648,8 @@
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
     <col min="15" max="18" width="9.33203125" customWidth="1"/>
     <col min="19" max="19" width="13.83203125" customWidth="1"/>
-    <col min="20" max="23" width="9.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="23" width="9.33203125" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" customWidth="1"/>
     <col min="25" max="165" width="9.33203125" customWidth="1"/>
   </cols>
@@ -2659,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="AA4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:165">
@@ -2712,7 +2740,7 @@
         <v>127</v>
       </c>
       <c r="W5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:165">
@@ -2742,7 +2770,7 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" ref="L6:L69" si="2">L7</f>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -2900,7 +2928,7 @@
       <c r="G7" s="3"/>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -3076,7 +3104,7 @@
       <c r="G8" s="3"/>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -3252,7 +3280,7 @@
       <c r="G9" s="3"/>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -3428,7 +3456,7 @@
       <c r="G10" s="3"/>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
@@ -3606,7 +3634,7 @@
       <c r="K11"/>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
@@ -3638,7 +3666,7 @@
       <c r="G12" s="3"/>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
@@ -3668,7 +3696,7 @@
       <c r="G13" s="3"/>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M13" t="s">
         <v>22</v>
@@ -3704,7 +3732,7 @@
       <c r="G14" s="3"/>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
@@ -3734,7 +3762,7 @@
       <c r="G15" s="3"/>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M15" t="s">
         <v>22</v>
@@ -3766,7 +3794,7 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M16" t="s">
         <v>22</v>
@@ -3944,7 +3972,7 @@
       <c r="G17" s="3"/>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M17" t="s">
         <v>22</v>
@@ -3974,7 +4002,7 @@
       <c r="G18" s="3"/>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M18" t="s">
         <v>22</v>
@@ -4004,7 +4032,7 @@
       <c r="G19" s="3"/>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M19" t="s">
         <v>22</v>
@@ -4077,7 +4105,7 @@
       <c r="G20" s="3"/>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
@@ -4107,7 +4135,7 @@
       <c r="G21" s="3"/>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M21" t="s">
         <v>22</v>
@@ -4137,7 +4165,7 @@
       <c r="G22" s="3"/>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M22" t="s">
         <v>22</v>
@@ -4167,7 +4195,7 @@
       <c r="G23" s="3"/>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M23" t="s">
         <v>22</v>
@@ -4197,7 +4225,7 @@
       <c r="G24" s="3"/>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M24" t="s">
         <v>22</v>
@@ -4227,7 +4255,7 @@
       <c r="G25" s="3"/>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
@@ -4259,7 +4287,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M26" t="s">
         <v>22</v>
@@ -4289,7 +4317,7 @@
       <c r="G27" s="3"/>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
@@ -4319,7 +4347,7 @@
       <c r="G28" s="3"/>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M28" t="s">
         <v>22</v>
@@ -4349,7 +4377,7 @@
       <c r="G29" s="3"/>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M29" t="s">
         <v>22</v>
@@ -4379,7 +4407,7 @@
       <c r="G30" s="3"/>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M30" t="s">
         <v>22</v>
@@ -4409,7 +4437,7 @@
       <c r="G31" s="3"/>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M31" t="s">
         <v>22</v>
@@ -4439,7 +4467,7 @@
       <c r="G32" s="3"/>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M32" t="s">
         <v>22</v>
@@ -4469,7 +4497,7 @@
       <c r="G33" s="3"/>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
@@ -4499,7 +4527,7 @@
       <c r="G34" s="3"/>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M34" t="s">
         <v>22</v>
@@ -4529,7 +4557,7 @@
       <c r="G35" s="3"/>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M35" t="s">
         <v>22</v>
@@ -4561,7 +4589,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M36" t="s">
         <v>22</v>
@@ -4591,7 +4619,7 @@
       <c r="G37" s="3"/>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M37" t="s">
         <v>22</v>
@@ -4621,7 +4649,7 @@
       <c r="G38" s="3"/>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M38" t="s">
         <v>22</v>
@@ -4651,7 +4679,7 @@
       <c r="G39" s="3"/>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M39" t="s">
         <v>22</v>
@@ -4681,7 +4709,7 @@
       <c r="G40" s="3"/>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M40" t="s">
         <v>22</v>
@@ -4711,7 +4739,7 @@
       <c r="G41" s="3"/>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M41" t="s">
         <v>22</v>
@@ -4741,7 +4769,7 @@
       <c r="G42" s="3"/>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M42" t="s">
         <v>22</v>
@@ -4771,7 +4799,7 @@
       <c r="G43" s="3"/>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M43" t="s">
         <v>22</v>
@@ -4801,7 +4829,7 @@
       <c r="G44" s="3"/>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M44" t="s">
         <v>22</v>
@@ -4831,7 +4859,7 @@
       <c r="G45" s="3"/>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M45" t="s">
         <v>22</v>
@@ -4863,7 +4891,7 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M46" t="s">
         <v>22</v>
@@ -4893,7 +4921,7 @@
       <c r="G47" s="3"/>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M47" t="s">
         <v>22</v>
@@ -4923,7 +4951,7 @@
       <c r="G48" s="3"/>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M48" t="s">
         <v>22</v>
@@ -4953,7 +4981,7 @@
       <c r="G49" s="3"/>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M49" t="s">
         <v>22</v>
@@ -4983,7 +5011,7 @@
       <c r="G50" s="3"/>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M50" t="s">
         <v>22</v>
@@ -5013,7 +5041,7 @@
       <c r="G51" s="3"/>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M51" t="s">
         <v>22</v>
@@ -5043,7 +5071,7 @@
       <c r="G52" s="3"/>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M52" t="s">
         <v>22</v>
@@ -5073,7 +5101,7 @@
       <c r="G53" s="3"/>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M53" t="s">
         <v>22</v>
@@ -5103,7 +5131,7 @@
       <c r="G54" s="3"/>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M54" t="s">
         <v>22</v>
@@ -5133,7 +5161,7 @@
       <c r="G55" s="3"/>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M55" t="s">
         <v>22</v>
@@ -5165,7 +5193,7 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
@@ -5180,11 +5208,11 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>170.45751610351999</v>
+        <v>171.30504044349081</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>46.13748310017489</v>
+        <v>45.289958760204073</v>
       </c>
       <c r="E57" s="1">
         <v>216.59499920369487</v>
@@ -5195,7 +5223,7 @@
       <c r="G57" s="3"/>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M57" t="s">
         <v>22</v>
@@ -5210,11 +5238,11 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>340.91503220703999</v>
+        <v>342.61008088698162</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>92.27496620034978</v>
+        <v>90.579917520408145</v>
       </c>
       <c r="E58" s="1">
         <v>433.18999840738974</v>
@@ -5225,7 +5253,7 @@
       <c r="G58" s="3"/>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M58" t="s">
         <v>22</v>
@@ -5240,11 +5268,11 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>511.37254831055992</v>
+        <v>513.9151213304724</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>138.41244930052466</v>
+        <v>135.8698762806122</v>
       </c>
       <c r="E59" s="1">
         <v>649.78499761108458</v>
@@ -5255,7 +5283,7 @@
       <c r="G59" s="3"/>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M59" t="s">
         <v>22</v>
@@ -5270,11 +5298,11 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>681.83006441407997</v>
+        <v>685.22016177396324</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>184.54993240069956</v>
+        <v>181.15983504081629</v>
       </c>
       <c r="E60" s="1">
         <v>866.37999681477947</v>
@@ -5285,7 +5313,7 @@
       <c r="G60" s="3"/>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M60" t="s">
         <v>22</v>
@@ -5310,11 +5338,11 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>852.28758051759985</v>
+        <v>856.52520221745397</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>230.68741550087444</v>
+        <v>226.44979380102032</v>
       </c>
       <c r="E61" s="1">
         <v>1082.9749960184743</v>
@@ -5325,7 +5353,7 @@
       <c r="G61" s="3"/>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M61" t="s">
         <v>22</v>
@@ -5340,11 +5368,11 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="0"/>
-        <v>1022.7450966211198</v>
+        <v>1027.8302426609448</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>276.82489860104931</v>
+        <v>271.73975256122441</v>
       </c>
       <c r="E62" s="1">
         <v>1299.5699952221692</v>
@@ -5355,7 +5383,7 @@
       <c r="G62" s="3"/>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M62" t="s">
         <v>22</v>
@@ -5370,11 +5398,11 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="0"/>
-        <v>1193.2026127246399</v>
+        <v>1199.1352831044355</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>322.96238170122422</v>
+        <v>317.02971132142846</v>
       </c>
       <c r="E63" s="1">
         <v>1516.1649944258641</v>
@@ -5385,7 +5413,7 @@
       <c r="G63" s="3"/>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M63" t="s">
         <v>22</v>
@@ -5400,11 +5428,11 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="0"/>
-        <v>1363.6601288281599</v>
+        <v>1370.4403235479265</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>369.09986480139912</v>
+        <v>362.31967008163258</v>
       </c>
       <c r="E64" s="1">
         <v>1732.7599936295589</v>
@@ -5415,7 +5443,7 @@
       <c r="G64" s="3"/>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M64" t="s">
         <v>22</v>
@@ -5430,11 +5458,11 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="0"/>
-        <v>1534.1176449316799</v>
+        <v>1541.7453639914172</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="1"/>
-        <v>415.23734790157403</v>
+        <v>407.60962884183664</v>
       </c>
       <c r="E65" s="1">
         <v>1949.3549928332538</v>
@@ -5445,7 +5473,7 @@
       <c r="G65" s="3"/>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M65" t="s">
         <v>22</v>
@@ -5460,11 +5488,11 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="0"/>
-        <v>1704.5751610351997</v>
+        <v>1713.0504044349079</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="1"/>
-        <v>461.37483100174887</v>
+        <v>452.89958760204064</v>
       </c>
       <c r="E66" s="1">
         <v>2165.9499920369485</v>
@@ -5475,7 +5503,7 @@
       <c r="G66" s="3"/>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M66" t="s">
         <v>22</v>
@@ -5490,11 +5518,11 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="0"/>
-        <v>1875.0326771387197</v>
+        <v>1884.3554448783987</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="1"/>
-        <v>507.51231410192372</v>
+        <v>498.18954636224476</v>
       </c>
       <c r="E67" s="1">
         <v>2382.5449912406434</v>
@@ -5505,7 +5533,7 @@
       <c r="G67" s="3"/>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M67" t="s">
         <v>22</v>
@@ -5520,11 +5548,11 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="0"/>
-        <v>2045.4901932422397</v>
+        <v>2055.6604853218896</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="1"/>
-        <v>553.64979720209863</v>
+        <v>543.47950512244881</v>
       </c>
       <c r="E68" s="1">
         <v>2599.1399904443383</v>
@@ -5535,7 +5563,7 @@
       <c r="G68" s="3"/>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M68" t="s">
         <v>22</v>
@@ -5550,11 +5578,11 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="0"/>
-        <v>2215.9477093457594</v>
+        <v>2226.9655257653803</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
-        <v>599.78728030227353</v>
+        <v>588.76946388265287</v>
       </c>
       <c r="E69" s="1">
         <v>2815.7349896480332</v>
@@ -5567,7 +5595,7 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" si="2"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M69" t="s">
         <v>22</v>
@@ -5582,11 +5610,11 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ref="C70:C133" si="4">$E70*($L70)</f>
-        <v>3641.5488825581106</v>
+        <v>3659.6548680476985</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" ref="D70:D133" si="5">$E70*(1-$L70)</f>
-        <v>985.65263573036475</v>
+        <v>967.54665024077678</v>
       </c>
       <c r="E70" s="1">
         <v>4627.2015182884752</v>
@@ -5597,7 +5625,7 @@
       <c r="G70" s="3"/>
       <c r="L70" s="2">
         <f t="shared" ref="L70:L125" si="6">L71</f>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M70" t="s">
         <v>22</v>
@@ -5612,11 +5640,11 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" si="4"/>
-        <v>5067.1500557704612</v>
+        <v>5092.3442103300158</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="5"/>
-        <v>1371.517991158456</v>
+        <v>1346.3238365989007</v>
       </c>
       <c r="E71" s="1">
         <v>6438.6680469289167</v>
@@ -5627,7 +5655,7 @@
       <c r="G71" s="3"/>
       <c r="L71" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M71" t="s">
         <v>22</v>
@@ -5642,11 +5670,11 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="4"/>
-        <v>6492.751228982811</v>
+        <v>6525.0335526123336</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="5"/>
-        <v>1757.3833465865471</v>
+        <v>1725.1010229570245</v>
       </c>
       <c r="E72" s="1">
         <v>8250.1345755693583</v>
@@ -5657,7 +5685,7 @@
       <c r="G72" s="3"/>
       <c r="L72" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M72" t="s">
         <v>22</v>
@@ -5672,11 +5700,11 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="4"/>
-        <v>7918.3524021951616</v>
+        <v>7957.7228948946513</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="5"/>
-        <v>2143.2487020146382</v>
+        <v>2103.8782093151485</v>
       </c>
       <c r="E73" s="1">
         <v>10061.6011042098</v>
@@ -5687,7 +5715,7 @@
       <c r="G73" s="3"/>
       <c r="L73" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M73" t="s">
         <v>22</v>
@@ -5702,11 +5730,11 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="4"/>
-        <v>9343.9535754075114</v>
+        <v>9390.4122371769699</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="5"/>
-        <v>2529.1140574427295</v>
+        <v>2482.6553956732723</v>
       </c>
       <c r="E74" s="1">
         <v>11873.067632850241</v>
@@ -5717,7 +5745,7 @@
       <c r="G74" s="3"/>
       <c r="L74" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M74" t="s">
         <v>22</v>
@@ -5732,11 +5760,11 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="4"/>
-        <v>10769.554748619863</v>
+        <v>10823.101579459286</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="5"/>
-        <v>2914.9794128708204</v>
+        <v>2861.4325820313961</v>
       </c>
       <c r="E75" s="1">
         <v>13684.534161490683</v>
@@ -5747,7 +5775,7 @@
       <c r="G75" s="3"/>
       <c r="L75" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M75" t="s">
         <v>22</v>
@@ -5762,11 +5790,11 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="4"/>
-        <v>12195.155921832213</v>
+        <v>12255.790921741604</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="5"/>
-        <v>3300.8447682989117</v>
+        <v>3240.2097683895199</v>
       </c>
       <c r="E76" s="1">
         <v>15496.000690131124</v>
@@ -5777,7 +5805,7 @@
       <c r="G76" s="3"/>
       <c r="L76" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M76" t="s">
         <v>22</v>
@@ -5792,11 +5820,11 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="4"/>
-        <v>13620.757095044562</v>
+        <v>13688.480264023921</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="5"/>
-        <v>3686.7101237270031</v>
+        <v>3618.9869547476437</v>
       </c>
       <c r="E77" s="1">
         <v>17307.467218771566</v>
@@ -5807,7 +5835,7 @@
       <c r="G77" s="3"/>
       <c r="L77" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M77" t="s">
         <v>22</v>
@@ -5822,11 +5850,11 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="4"/>
-        <v>15046.358268256914</v>
+        <v>15121.169606306239</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="5"/>
-        <v>4072.5754791550939</v>
+        <v>3997.7641411057675</v>
       </c>
       <c r="E78" s="1">
         <v>19118.933747412008</v>
@@ -5837,7 +5865,7 @@
       <c r="G78" s="3"/>
       <c r="L78" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M78" t="s">
         <v>22</v>
@@ -5852,11 +5880,11 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="4"/>
-        <v>16471.959441469266</v>
+        <v>16553.858948588557</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="5"/>
-        <v>4458.4408345831853</v>
+        <v>4376.5413274638913</v>
       </c>
       <c r="E79" s="1">
         <v>20930.400276052449</v>
@@ -5867,7 +5895,7 @@
       <c r="G79" s="3"/>
       <c r="L79" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M79" t="s">
         <v>22</v>
@@ -5882,11 +5910,11 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="4"/>
-        <v>17897.560614681614</v>
+        <v>17986.548290870876</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="5"/>
-        <v>4844.3061900112762</v>
+        <v>4755.3185138220151</v>
       </c>
       <c r="E80" s="1">
         <v>22741.866804692891</v>
@@ -5897,7 +5925,7 @@
       <c r="G80" s="3"/>
       <c r="L80" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M80" t="s">
         <v>22</v>
@@ -5912,11 +5940,11 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="4"/>
-        <v>19323.161787893965</v>
+        <v>19419.237633153192</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="5"/>
-        <v>5230.1715454393679</v>
+        <v>5134.0957001801389</v>
       </c>
       <c r="E81" s="1">
         <v>24553.333333333332</v>
@@ -5929,7 +5957,7 @@
       </c>
       <c r="L81" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M81" t="s">
         <v>22</v>
@@ -5944,11 +5972,11 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="4"/>
-        <v>20572.504144869868</v>
+        <v>20674.791790469131</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="5"/>
-        <v>5568.3291884634646</v>
+        <v>5466.0415428642</v>
       </c>
       <c r="E82" s="1">
         <v>26140.833333333332</v>
@@ -5959,7 +5987,7 @@
       <c r="G82" s="3"/>
       <c r="L82" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M82" t="s">
         <v>22</v>
@@ -5974,11 +6002,11 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="4"/>
-        <v>21821.846501845772</v>
+        <v>21930.34594778507</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="5"/>
-        <v>5906.4868314875621</v>
+        <v>5797.987385548261</v>
       </c>
       <c r="E83" s="1">
         <v>27728.333333333332</v>
@@ -5989,7 +6017,7 @@
       <c r="G83" s="3"/>
       <c r="L83" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M83" t="s">
         <v>22</v>
@@ -6004,11 +6032,11 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="4"/>
-        <v>23071.188858821672</v>
+        <v>23185.900105101009</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="5"/>
-        <v>6244.6444745116587</v>
+        <v>6129.9332282323212</v>
       </c>
       <c r="E84" s="1">
         <v>29315.833333333332</v>
@@ -6019,7 +6047,7 @@
       <c r="G84" s="3"/>
       <c r="L84" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M84" t="s">
         <v>22</v>
@@ -6034,11 +6062,11 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="4"/>
-        <v>24320.531215797575</v>
+        <v>24441.454262416948</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="5"/>
-        <v>6582.8021175357553</v>
+        <v>6461.8790709163823</v>
       </c>
       <c r="E85" s="1">
         <v>30903.333333333332</v>
@@ -6051,7 +6079,7 @@
       </c>
       <c r="L85" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M85" t="s">
         <v>22</v>
@@ -6066,11 +6094,11 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="4"/>
-        <v>23543.162638123682</v>
+        <v>23660.220564531475</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="5"/>
-        <v>6372.3929174318737</v>
+        <v>6255.3349910240777</v>
       </c>
       <c r="E86" s="1">
         <v>29915.555555555555</v>
@@ -6081,7 +6109,7 @@
       <c r="G86" s="3"/>
       <c r="L86" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M86" t="s">
         <v>22</v>
@@ -6096,11 +6124,11 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="4"/>
-        <v>22765.794060449785</v>
+        <v>22878.986866646002</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="5"/>
-        <v>6161.9837173279911</v>
+        <v>6048.790911131774</v>
       </c>
       <c r="E87" s="1">
         <v>28927.777777777777</v>
@@ -6111,7 +6139,7 @@
       <c r="G87" s="3"/>
       <c r="L87" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M87" t="s">
         <v>22</v>
@@ -6126,11 +6154,11 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="4"/>
-        <v>21988.425482775892</v>
+        <v>22097.75316876053</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="5"/>
-        <v>5951.5745172241086</v>
+        <v>5842.2468312394694</v>
       </c>
       <c r="E88" s="1">
         <v>27940</v>
@@ -6141,7 +6169,7 @@
       <c r="G88" s="3"/>
       <c r="L88" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M88" t="s">
         <v>22</v>
@@ -6156,11 +6184,11 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="4"/>
-        <v>21211.056905101996</v>
+        <v>21316.519470875057</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="5"/>
-        <v>5741.1653171202261</v>
+        <v>5635.7027513471648</v>
       </c>
       <c r="E89" s="1">
         <v>26952.222222222223</v>
@@ -6173,7 +6201,7 @@
       </c>
       <c r="L89" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M89" t="s">
         <v>22</v>
@@ -6188,11 +6216,11 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="4"/>
-        <v>22460.399262077899</v>
+        <v>22572.073628190996</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="5"/>
-        <v>6079.3229601443227</v>
+        <v>5967.6485940312259</v>
       </c>
       <c r="E90" s="1">
         <v>28539.722222222223</v>
@@ -6203,7 +6231,7 @@
       <c r="G90" s="3"/>
       <c r="L90" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M90" t="s">
         <v>22</v>
@@ -6218,11 +6246,11 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="4"/>
-        <v>23709.741619053799</v>
+        <v>23827.627785506935</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="5"/>
-        <v>6417.4806031684193</v>
+        <v>6299.5944367152852</v>
       </c>
       <c r="E91" s="1">
         <v>30127.222222222219</v>
@@ -6233,7 +6261,7 @@
       <c r="G91" s="3"/>
       <c r="L91" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M91" t="s">
         <v>22</v>
@@ -6248,11 +6276,11 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="4"/>
-        <v>24959.083976029702</v>
+        <v>25083.181942822874</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="5"/>
-        <v>6755.6382461925159</v>
+        <v>6631.5402793993462</v>
       </c>
       <c r="E92" s="1">
         <v>31714.722222222219</v>
@@ -6263,7 +6291,7 @@
       <c r="G92" s="3"/>
       <c r="L92" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M92" t="s">
         <v>22</v>
@@ -6278,11 +6306,11 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="4"/>
-        <v>26208.426333005606</v>
+        <v>26338.736100138813</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="5"/>
-        <v>7093.7958892166134</v>
+        <v>6963.4861220834073</v>
       </c>
       <c r="E93" s="1">
         <v>33302.222222222219</v>
@@ -6295,7 +6323,7 @@
       </c>
       <c r="L93" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M93" t="s">
         <v>22</v>
@@ -6310,11 +6338,11 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="4"/>
-        <v>23765.267946030504</v>
+        <v>23883.430192498752</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="5"/>
-        <v>6432.5098317472675</v>
+        <v>6314.3475852790216</v>
       </c>
       <c r="E94" s="1">
         <v>30197.777777777774</v>
@@ -6327,7 +6355,7 @@
       </c>
       <c r="L94" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M94" t="s">
         <v>22</v>
@@ -6342,11 +6370,11 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="4"/>
-        <v>26273.20704781176</v>
+        <v>26403.838908295929</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="5"/>
-        <v>7111.3299892252689</v>
+        <v>6980.6981287410981</v>
       </c>
       <c r="E95" s="1">
         <v>33384.537037037029</v>
@@ -6357,7 +6385,7 @@
       <c r="G95" s="3"/>
       <c r="L95" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M95" t="s">
         <v>22</v>
@@ -6372,11 +6400,11 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="4"/>
-        <v>28781.14614959302</v>
+        <v>28924.247624093117</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="5"/>
-        <v>7790.1501467032722</v>
+        <v>7647.0486722031765</v>
       </c>
       <c r="E96" s="1">
         <v>36571.296296296292</v>
@@ -6387,7 +6415,7 @@
       <c r="G96" s="3"/>
       <c r="L96" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M96" t="s">
         <v>22</v>
@@ -6402,11 +6430,11 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="4"/>
-        <v>31289.085251374276</v>
+        <v>31444.656339890294</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="5"/>
-        <v>8468.9703041812736</v>
+        <v>8313.399215665253</v>
       </c>
       <c r="E97" s="1">
         <v>39758.055555555547</v>
@@ -6417,7 +6445,7 @@
       <c r="G97" s="3"/>
       <c r="L97" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M97" t="s">
         <v>22</v>
@@ -6432,11 +6460,11 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="4"/>
-        <v>33797.024353155532</v>
+        <v>33965.065055687483</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="5"/>
-        <v>9147.7904616592768</v>
+        <v>8979.7497591273313</v>
       </c>
       <c r="E98" s="1">
         <v>42944.81481481481</v>
@@ -6447,7 +6475,7 @@
       <c r="G98" s="3"/>
       <c r="L98" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M98" t="s">
         <v>22</v>
@@ -6462,11 +6490,11 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="4"/>
-        <v>36304.963454936791</v>
+        <v>36485.473771484656</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="5"/>
-        <v>9826.6106191372783</v>
+        <v>9646.1003025894079</v>
       </c>
       <c r="E99" s="1">
         <v>46131.574074074066</v>
@@ -6477,7 +6505,7 @@
       <c r="G99" s="3"/>
       <c r="L99" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M99" t="s">
         <v>22</v>
@@ -6492,11 +6520,11 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="4"/>
-        <v>38812.902556718051</v>
+        <v>39005.882487281844</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="5"/>
-        <v>10505.430776615282</v>
+        <v>10312.450846051486</v>
       </c>
       <c r="E100" s="1">
         <v>49318.333333333328</v>
@@ -6507,7 +6535,7 @@
       <c r="G100" s="3"/>
       <c r="L100" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M100" t="s">
         <v>22</v>
@@ -6522,11 +6550,11 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="4"/>
-        <v>41320.841658499303</v>
+        <v>41526.291203079018</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="5"/>
-        <v>11184.250934093283</v>
+        <v>10978.801389513563</v>
       </c>
       <c r="E101" s="1">
         <v>52505.092592592584</v>
@@ -6537,7 +6565,7 @@
       <c r="G101" s="3"/>
       <c r="L101" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M101" t="s">
         <v>22</v>
@@ -6552,11 +6580,11 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="4"/>
-        <v>43828.780760280555</v>
+        <v>44046.699918876198</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="5"/>
-        <v>11863.071091571284</v>
+        <v>11645.151932975639</v>
       </c>
       <c r="E102" s="1">
         <v>55691.851851851839</v>
@@ -6567,7 +6595,7 @@
       <c r="G102" s="3"/>
       <c r="L102" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M102" t="s">
         <v>22</v>
@@ -6582,11 +6610,11 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="4"/>
-        <v>46336.719862061815</v>
+        <v>46567.108634673386</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="5"/>
-        <v>12541.891249049288</v>
+        <v>12311.502476437718</v>
       </c>
       <c r="E103" s="1">
         <v>58878.611111111102</v>
@@ -6597,7 +6625,7 @@
       <c r="G103" s="3"/>
       <c r="L103" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M103" t="s">
         <v>22</v>
@@ -6612,11 +6640,11 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="4"/>
-        <v>48844.658963843074</v>
+        <v>49087.517350470567</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="5"/>
-        <v>13220.711406527289</v>
+        <v>12977.853019899796</v>
       </c>
       <c r="E104" s="1">
         <v>62065.370370370365</v>
@@ -6627,7 +6655,7 @@
       <c r="G104" s="3"/>
       <c r="L104" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M104" t="s">
         <v>22</v>
@@ -6642,11 +6670,11 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="4"/>
-        <v>51352.598065624326</v>
+        <v>51607.926066267748</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="5"/>
-        <v>13899.53156400529</v>
+        <v>13644.203563361873</v>
       </c>
       <c r="E105" s="1">
         <v>65252.12962962962</v>
@@ -6657,7 +6685,7 @@
       <c r="G105" s="3"/>
       <c r="L105" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M105" t="s">
         <v>22</v>
@@ -6672,11 +6700,11 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="4"/>
-        <v>53860.537167405586</v>
+        <v>54128.334782064929</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="5"/>
-        <v>14578.351721483292</v>
+        <v>14310.554106823949</v>
       </c>
       <c r="E106" s="1">
         <v>68438.888888888876</v>
@@ -6689,7 +6717,7 @@
       </c>
       <c r="L106" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M106" t="s">
         <v>22</v>
@@ -6704,11 +6732,11 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="4"/>
-        <v>53194.221243685111</v>
+        <v>53458.705898163098</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="5"/>
-        <v>14398.000978537109</v>
+        <v>14133.516324059119</v>
       </c>
       <c r="E107" s="1">
         <v>67592.222222222219</v>
@@ -6721,7 +6749,7 @@
       </c>
       <c r="L107" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M107" t="s">
         <v>22</v>
@@ -6736,11 +6764,11 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="4"/>
-        <v>56303.695554380698</v>
+        <v>56583.640689705004</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="5"/>
-        <v>15239.637778952643</v>
+        <v>14959.692643628339</v>
       </c>
       <c r="E108" s="1">
         <v>71543.333333333343</v>
@@ -6753,7 +6781,7 @@
       </c>
       <c r="L108" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M108" t="s">
         <v>22</v>
@@ -6768,11 +6796,11 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="4"/>
-        <v>58746.853941355781</v>
+        <v>59038.946597345042</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="5"/>
-        <v>15900.923836421984</v>
+        <v>15608.83118043272</v>
       </c>
       <c r="E109" s="1">
         <v>74647.777777777766</v>
@@ -6785,7 +6813,7 @@
       </c>
       <c r="L109" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M109" t="s">
         <v>22</v>
@@ -6800,11 +6828,11 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="4"/>
-        <v>59857.380480889929</v>
+        <v>60154.994737181449</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="5"/>
-        <v>16201.508407998961</v>
+        <v>15903.894151707444</v>
       </c>
       <c r="E110" s="1">
         <v>76058.888888888891</v>
@@ -6817,7 +6845,7 @@
       </c>
       <c r="L110" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M110" t="s">
         <v>22</v>
@@ -6832,11 +6860,11 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="4"/>
-        <v>66964.750333908392</v>
+        <v>67297.702832134339</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="5"/>
-        <v>18125.2496660916</v>
+        <v>17792.297167865658</v>
       </c>
       <c r="E111" s="1">
         <v>85090</v>
@@ -6849,7 +6877,7 @@
       </c>
       <c r="L111" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M111" t="s">
         <v>22</v>
@@ -6864,11 +6892,11 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="4"/>
-        <v>74072.120186926884</v>
+        <v>74440.410927087258</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="5"/>
-        <v>20048.990924184247</v>
+        <v>19680.70018402387</v>
       </c>
       <c r="E112" s="1">
         <v>94121.111111111124</v>
@@ -6881,7 +6909,7 @@
       </c>
       <c r="L112" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M112" t="s">
         <v>22</v>
@@ -6896,11 +6924,11 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="4"/>
-        <v>79957.910846457788</v>
+        <v>80355.466068220107</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="5"/>
-        <v>21642.089153542212</v>
+        <v>21244.533931779886</v>
       </c>
       <c r="E113" s="1">
         <v>101600</v>
@@ -6913,7 +6941,7 @@
       </c>
       <c r="L113" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M113" t="s">
         <v>22</v>
@@ -6928,11 +6956,11 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="4"/>
-        <v>76515.278573901989</v>
+        <v>76895.716834727325</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="5"/>
-        <v>20710.276981653595</v>
+        <v>20329.838720828258</v>
       </c>
       <c r="E114" s="1">
         <v>97225.555555555577</v>
@@ -6945,7 +6973,7 @@
       </c>
       <c r="L114" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M114" t="s">
         <v>22</v>
@@ -6960,11 +6988,11 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="4"/>
-        <v>76737.383881808782</v>
+        <v>77118.926462694566</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="5"/>
-        <v>20770.39389596898</v>
+        <v>20388.851315083197</v>
       </c>
       <c r="E115" s="1">
         <v>97507.777777777766</v>
@@ -6977,7 +7005,7 @@
       </c>
       <c r="L115" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M115" t="s">
         <v>22</v>
@@ -6992,11 +7020,11 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="4"/>
-        <v>85399.49089017506</v>
+        <v>85824.101953418431</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="5"/>
-        <v>23114.953554269392</v>
+        <v>22690.342491026022</v>
       </c>
       <c r="E116" s="1">
         <v>108514.44444444445</v>
@@ -7009,7 +7037,7 @@
       </c>
       <c r="L116" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M116" t="s">
         <v>22</v>
@@ -7024,11 +7052,11 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="4"/>
-        <v>93728.439936681083</v>
+        <v>94194.463002191362</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="5"/>
-        <v>25369.337841096705</v>
+        <v>24903.314775586427</v>
       </c>
       <c r="E117" s="1">
         <v>119097.77777777778</v>
@@ -7041,7 +7069,7 @@
       </c>
       <c r="L117" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M117" t="s">
         <v>22</v>
@@ -7056,11 +7084,11 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="4"/>
-        <v>94950.019130168628</v>
+        <v>95422.115956011388</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="5"/>
-        <v>25699.980869831375</v>
+        <v>25227.884043988615</v>
       </c>
       <c r="E118" s="1">
         <v>120650</v>
@@ -7073,7 +7101,7 @@
       </c>
       <c r="L118" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M118" t="s">
         <v>22</v>
@@ -7088,11 +7116,11 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="4"/>
-        <v>99503.177942258568</v>
+        <v>99997.913329340561</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="5"/>
-        <v>26932.377613296969</v>
+        <v>26437.642226214968</v>
       </c>
       <c r="E119" s="1">
         <v>126435.55555555553</v>
@@ -7105,7 +7133,7 @@
       </c>
       <c r="L119" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M119" t="s">
         <v>22</v>
@@ -7120,11 +7148,11 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="4"/>
-        <v>108276.33760457826</v>
+        <v>108814.69363404808</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="5"/>
-        <v>29306.995728755079</v>
+        <v>28768.639699285268</v>
       </c>
       <c r="E120" s="1">
         <v>137583.33333333334</v>
@@ -7137,7 +7165,7 @@
       </c>
       <c r="L120" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M120" t="s">
         <v>22</v>
@@ -7152,11 +7180,11 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="4"/>
-        <v>112829.4964166682</v>
+        <v>113390.49100737726</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="5"/>
-        <v>30539.392472220672</v>
+        <v>29978.397881511617</v>
       </c>
       <c r="E121" s="1">
         <v>143368.88888888888</v>
@@ -7169,7 +7197,7 @@
       </c>
       <c r="L121" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M121" t="s">
         <v>22</v>
@@ -7184,11 +7212,11 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="4"/>
-        <v>108054.23229667144</v>
+        <v>108591.48400608081</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="5"/>
-        <v>29246.878814439686</v>
+        <v>28709.627105030322</v>
       </c>
       <c r="E122" s="1">
         <v>137301.11111111112</v>
@@ -7201,7 +7229,7 @@
       </c>
       <c r="L122" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M122" t="s">
         <v>22</v>
@@ -7216,11 +7244,11 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="4"/>
-        <v>116605.28665108427</v>
+        <v>117185.05468282099</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="5"/>
-        <v>31561.380015582388</v>
+        <v>30981.611983845669</v>
       </c>
       <c r="E123" s="1">
         <v>148166.66666666666</v>
@@ -7233,7 +7261,7 @@
       </c>
       <c r="L123" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M123" t="s">
         <v>22</v>
@@ -7248,11 +7276,11 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" si="4"/>
-        <v>123934.76181200957</v>
+        <v>124550.97240574118</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="5"/>
-        <v>33545.238187990428</v>
+        <v>32929.027594258827</v>
       </c>
       <c r="E124" s="1">
         <v>157480</v>
@@ -7265,7 +7293,7 @@
       </c>
       <c r="L124" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M124" t="s">
         <v>22</v>
@@ -7280,11 +7308,11 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" si="4"/>
-        <v>113717.91764829552</v>
+        <v>114283.32951924638</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="5"/>
-        <v>30779.860129482258</v>
+        <v>30214.448258531396</v>
       </c>
       <c r="E125" s="1">
         <v>144497.77777777778</v>
@@ -7297,7 +7325,7 @@
       </c>
       <c r="L125" s="2">
         <f t="shared" si="6"/>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M125" t="s">
         <v>22</v>
@@ -7312,11 +7340,11 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" si="4"/>
-        <v>118937.39238410596</v>
+        <v>119528.75577647741</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="5"/>
-        <v>32192.607615894041</v>
+        <v>31601.244223522583</v>
       </c>
       <c r="E126" s="1">
         <v>151130</v>
@@ -7329,7 +7357,7 @@
       </c>
       <c r="L126" s="2">
         <f>L127</f>
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M126" t="s">
         <v>22</v>
@@ -7350,11 +7378,11 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" si="4"/>
-        <v>123207.2357640628</v>
+        <v>123819.82905743891</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="5"/>
-        <v>33348.319791492759</v>
+        <v>32735.726498116648</v>
       </c>
       <c r="E127" s="1">
         <v>156555.55555555556</v>
@@ -7366,10 +7394,10 @@
         <v>9</v>
       </c>
       <c r="L127" s="2">
-        <v>0.78698731148088374</v>
+        <v>0.79090025657696961</v>
       </c>
       <c r="M127" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O127" s="1">
         <v>2692</v>
@@ -7387,11 +7415,11 @@
       </c>
       <c r="C128" s="1">
         <f t="shared" si="4"/>
-        <v>126304.53540419565</v>
+        <v>126937.04649697494</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="5"/>
-        <v>35362.131262471004</v>
+        <v>34729.62016969172</v>
       </c>
       <c r="E128" s="1">
         <v>161666.66666666666</v>
@@ -7403,10 +7431,10 @@
         <v>9</v>
       </c>
       <c r="L128" s="2">
-        <v>0.78126516744863295</v>
+        <v>0.78517760719778318</v>
       </c>
       <c r="M128" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O128" s="1">
         <v>2874</v>
@@ -7424,11 +7452,11 @@
       </c>
       <c r="C129" s="1">
         <f t="shared" si="4"/>
-        <v>133230.85179817121</v>
+        <v>133878.70641275708</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="5"/>
-        <v>37546.925979606567</v>
+        <v>36899.071365020696</v>
       </c>
       <c r="E129" s="1">
         <v>170777.77777777778</v>
@@ -7440,10 +7468,10 @@
         <v>9</v>
       </c>
       <c r="L129" s="2">
-        <v>0.78014161755597977</v>
+        <v>0.78393517092700959</v>
       </c>
       <c r="M129" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O129" s="1">
         <v>3274</v>
@@ -7461,11 +7489,11 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" si="4"/>
-        <v>127268.06896855844</v>
+        <v>127896.28541398454</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="5"/>
-        <v>36843.042142552658</v>
+        <v>36214.825697126544</v>
       </c>
       <c r="E130" s="1">
         <v>164111.11111111109</v>
@@ -7477,10 +7505,10 @@
         <v>9</v>
       </c>
       <c r="L130" s="2">
-        <v>0.77549940468315914</v>
+        <v>0.77932739927275629</v>
       </c>
       <c r="M130" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O130" s="1">
         <v>3304</v>
@@ -7498,11 +7526,11 @@
       </c>
       <c r="C131" s="1">
         <f t="shared" si="4"/>
-        <v>117549.72349329265</v>
+        <v>118228.47058971622</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="5"/>
-        <v>36005.832062262889</v>
+        <v>35327.084965839313</v>
       </c>
       <c r="E131" s="1">
         <v>153555.55555555553</v>
@@ -7514,10 +7542,10 @@
         <v>9</v>
       </c>
       <c r="L131" s="2">
-        <v>0.76551918338613167</v>
+        <v>0.76993938878975843</v>
       </c>
       <c r="M131" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O131" s="1">
         <v>3072</v>
@@ -7535,11 +7563,11 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" si="4"/>
-        <v>120778.16025877917</v>
+        <v>121359.94834706796</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" si="5"/>
-        <v>37110.728630109697</v>
+        <v>36528.940541820913</v>
       </c>
       <c r="E132" s="1">
         <v>157888.88888888888</v>
@@ -7551,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="L132" s="2">
-        <v>0.76495668003449169</v>
+        <v>0.76864147440085273</v>
       </c>
       <c r="M132" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O132" s="1">
         <v>3366</v>
@@ -7572,11 +7600,11 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" si="4"/>
-        <v>118628.69991521986</v>
+        <v>119221.51447372686</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" si="5"/>
-        <v>37704.633418113452</v>
+        <v>37111.818859606457</v>
       </c>
       <c r="E133" s="1">
         <v>156333.33333333331</v>
@@ -7588,10 +7616,10 @@
         <v>9</v>
       </c>
       <c r="L133" s="2">
-        <v>0.75881897600353865</v>
+        <v>0.76261096678290108</v>
       </c>
       <c r="M133" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O133" s="1">
         <v>3468</v>
@@ -7609,11 +7637,11 @@
       </c>
       <c r="C134" s="1">
         <f t="shared" ref="C134:C166" si="7">$E134*($L134)</f>
-        <v>117005.90971038141</v>
+        <v>117641.90660537141</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" ref="D134:D166" si="8">$E134*(1-$L134)</f>
-        <v>40105.201400729711</v>
+        <v>39469.204505739719</v>
       </c>
       <c r="E134" s="1">
         <v>157111.11111111112</v>
@@ -7625,10 +7653,10 @@
         <v>9</v>
       </c>
       <c r="L134" s="2">
-        <v>0.74473351300808532</v>
+        <v>0.74878158376827619</v>
       </c>
       <c r="M134" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O134" s="1">
         <v>3550</v>
@@ -7646,11 +7674,11 @@
       </c>
       <c r="C135" s="1">
         <f t="shared" si="7"/>
-        <v>122941.16570487492</v>
+        <v>123602.2517331553</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="8"/>
-        <v>39872.167628458417</v>
+        <v>39211.081600178055</v>
       </c>
       <c r="E135" s="1">
         <v>162813.33333333334</v>
@@ -7662,10 +7690,10 @@
         <v>9</v>
       </c>
       <c r="L135" s="2">
-        <v>0.75510502234588639</v>
+        <v>0.75916541478884991</v>
       </c>
       <c r="M135" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O135" s="1">
         <v>3828</v>
@@ -7683,11 +7711,11 @@
       </c>
       <c r="C136" s="1">
         <f t="shared" si="7"/>
-        <v>120586.03820811211</v>
+        <v>121391.56943923427</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="8"/>
-        <v>38388.406236332325</v>
+        <v>37582.875005210168</v>
       </c>
       <c r="E136" s="1">
         <v>158974.44444444444</v>
@@ -7699,10 +7727,10 @@
         <v>9</v>
       </c>
       <c r="L136" s="2">
-        <v>0.7585246712420648</v>
+        <v>0.76359171981038776</v>
       </c>
       <c r="M136" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O136" s="1">
         <v>3704</v>
@@ -7720,11 +7748,11 @@
       </c>
       <c r="C137" s="1">
         <f t="shared" si="7"/>
-        <v>110542.95753323101</v>
+        <v>111353.83709141165</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="8"/>
-        <v>37734.820244546776</v>
+        <v>36923.940686366128</v>
       </c>
       <c r="E137" s="1">
         <v>148277.77777777778</v>
@@ -7736,10 +7764,10 @@
         <v>9</v>
       </c>
       <c r="L137" s="2">
-        <v>0.74551263978949345</v>
+        <v>0.75098129173675898</v>
       </c>
       <c r="M137" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O137" s="1">
         <v>3555</v>
@@ -7757,11 +7785,11 @@
       </c>
       <c r="C138" s="1">
         <f t="shared" si="7"/>
-        <v>98271.47255049058</v>
+        <v>99069.450404652904</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="8"/>
-        <v>37504.083005064953</v>
+        <v>36706.105150902629</v>
       </c>
       <c r="E138" s="1">
         <v>135775.55555555553</v>
@@ -7773,10 +7801,10 @@
         <v>9</v>
       </c>
       <c r="L138" s="2">
-        <v>0.72377882858509579</v>
+        <v>0.72965601208029285</v>
       </c>
       <c r="M138" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O138" s="1">
         <v>3273</v>
@@ -7794,11 +7822,11 @@
       </c>
       <c r="C139" s="1">
         <f t="shared" si="7"/>
-        <v>91481.205049414508</v>
+        <v>92220.645424768212</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="8"/>
-        <v>36076.57272836328</v>
+        <v>35337.132353009576</v>
       </c>
       <c r="E139" s="1">
         <v>127557.77777777778</v>
@@ -7810,10 +7838,10 @@
         <v>9</v>
       </c>
       <c r="L139" s="2">
-        <v>0.71717465326800101</v>
+        <v>0.72297155870360608</v>
       </c>
       <c r="M139" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O139" s="1">
         <v>3231</v>
@@ -7831,11 +7859,11 @@
       </c>
       <c r="C140" s="1">
         <f t="shared" si="7"/>
-        <v>91568.493063913353</v>
+        <v>94247.073454984056</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="8"/>
-        <v>39491.506936086647</v>
+        <v>36812.926545015936</v>
       </c>
       <c r="E140" s="1">
         <v>131060</v>
@@ -7847,10 +7875,10 @@
         <v>9</v>
       </c>
       <c r="L140" s="2">
-        <v>0.69867612592639516</v>
+        <v>0.71911394365164094</v>
       </c>
       <c r="M140" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O140" s="1">
         <v>3364</v>
@@ -7868,11 +7896,11 @@
       </c>
       <c r="C141" s="1">
         <f t="shared" si="7"/>
-        <v>97366.240805033973</v>
+        <v>100833.51461789339</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="8"/>
-        <v>41138.203639410502</v>
+        <v>37670.929826551066</v>
       </c>
       <c r="E141" s="1">
         <v>138504.44444444447</v>
@@ -7884,10 +7912,10 @@
         <v>9</v>
       </c>
       <c r="L141" s="2">
-        <v>0.70298279015940568</v>
+        <v>0.72801645479570687</v>
       </c>
       <c r="M141" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O141" s="1">
         <v>3330</v>
@@ -7905,11 +7933,11 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" si="7"/>
-        <v>102864.58262631012</v>
+        <v>105887.00275811295</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="8"/>
-        <v>42017.133076895814</v>
+        <v>38994.712945092979</v>
       </c>
       <c r="E142" s="1">
         <v>144881.71570320593</v>
@@ -7924,10 +7952,10 @@
         <v>144881.71570320593</v>
       </c>
       <c r="L142" s="2">
-        <v>0.70999009175892813</v>
+        <v>0.73085138620959811</v>
       </c>
       <c r="M142" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O142" s="1">
         <v>3385</v>
@@ -7945,11 +7973,11 @@
       </c>
       <c r="C143" s="1">
         <f t="shared" si="7"/>
-        <v>105579.03623824722</v>
+        <v>108789.38773295625</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="8"/>
-        <v>43945.25176376236</v>
+        <v>40734.900269053338</v>
       </c>
       <c r="E143" s="1">
         <v>149524.28800200959</v>
@@ -7964,10 +7992,10 @@
         <v>149524.28800200959</v>
       </c>
       <c r="L143" s="2">
-        <v>0.70609957518626176</v>
+        <v>0.72757001010761635</v>
       </c>
       <c r="M143" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O143" s="1">
         <v>3505</v>
@@ -7985,11 +8013,11 @@
       </c>
       <c r="C144" s="1">
         <f t="shared" si="7"/>
-        <v>114290.21207667218</v>
+        <v>117797.64581945224</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="8"/>
-        <v>45679.863597645657</v>
+        <v>42172.429854865593</v>
       </c>
       <c r="E144" s="1">
         <v>159970.07567431784</v>
@@ -8004,10 +8032,10 @@
         <v>159970.07567431784</v>
       </c>
       <c r="L144" s="2">
-        <v>0.71444744646714409</v>
+        <v>0.73637300803230099</v>
       </c>
       <c r="M144" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O144" s="1">
         <v>3735</v>
@@ -8025,11 +8053,11 @@
       </c>
       <c r="C145" s="1">
         <f t="shared" si="7"/>
-        <v>121803.79810612123</v>
+        <v>125598.9377986508</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="8"/>
-        <v>49521.758461216341</v>
+        <v>45726.618768686763</v>
       </c>
       <c r="E145" s="1">
         <v>171325.55656733757</v>
@@ -8044,10 +8072,10 @@
         <v>171325.55656733757</v>
       </c>
       <c r="L145" s="2">
-        <v>0.71094937933703795</v>
+        <v>0.7331010055658892</v>
       </c>
       <c r="M145" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O145" s="1">
         <v>3940</v>
@@ -8065,11 +8093,11 @@
       </c>
       <c r="C146" s="1">
         <f t="shared" si="7"/>
-        <v>122377.87292185916</v>
+        <v>125957.55692491164</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="8"/>
-        <v>56643.47916781962</v>
+        <v>53063.795164767143</v>
       </c>
       <c r="E146" s="1">
         <v>179021.35208967878</v>
@@ -8084,10 +8112,10 @@
         <v>179021.35208967878</v>
       </c>
       <c r="L146" s="2">
-        <v>0.68359372495720683</v>
+        <v>0.7035895743978885</v>
       </c>
       <c r="M146" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O146" s="1">
         <v>4008</v>
@@ -8105,11 +8133,11 @@
       </c>
       <c r="C147" s="1">
         <f t="shared" si="7"/>
-        <v>131204.91678159114</v>
+        <v>134722.40060564058</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="8"/>
-        <v>55679.530733088402</v>
+        <v>52162.046909038974</v>
       </c>
       <c r="E147" s="1">
         <v>186884.44751467954</v>
@@ -8124,10 +8152,10 @@
         <v>186884.44751467954</v>
       </c>
       <c r="L147" s="2">
-        <v>0.70206439608242499</v>
+        <v>0.72088610046086521</v>
       </c>
       <c r="M147" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O147" s="1">
         <v>4120</v>
@@ -8145,11 +8173,11 @@
       </c>
       <c r="C148" s="1">
         <f t="shared" si="7"/>
-        <v>136018.24930027308</v>
+        <v>139910.55272377626</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="8"/>
-        <v>54578.16480466615</v>
+        <v>50685.861381162969</v>
       </c>
       <c r="E148" s="1">
         <v>190596.41410493923</v>
@@ -8164,10 +8192,10 @@
         <v>190596.41410493923</v>
       </c>
       <c r="L148" s="2">
-        <v>0.71364537438455522</v>
+        <v>0.73406707770873292</v>
       </c>
       <c r="M148" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O148" s="1">
         <v>4220</v>
@@ -8185,11 +8213,11 @@
       </c>
       <c r="C149" s="1">
         <f t="shared" si="7"/>
-        <v>141371.90965135011</v>
+        <v>145527.70877571072</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="8"/>
-        <v>57233.987293417078</v>
+        <v>53078.18816905647</v>
       </c>
       <c r="E149" s="1">
         <v>198605.89694476718</v>
@@ -8204,10 +8232,10 @@
         <v>198605.89694476718</v>
       </c>
       <c r="L149" s="2">
-        <v>0.71182130956900036</v>
+        <v>0.73274616219568922</v>
       </c>
       <c r="M149" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O149" s="1">
         <v>4330</v>
@@ -8225,11 +8253,11 @@
       </c>
       <c r="C150" s="1">
         <f t="shared" si="7"/>
-        <v>146799.60878380993</v>
+        <v>149924.92100086689</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="8"/>
-        <v>58142.771974189272</v>
+        <v>55017.459757132317</v>
       </c>
       <c r="E150" s="1">
         <v>204942.3807579992</v>
@@ -8244,10 +8272,10 @@
         <v>204942.3807579992</v>
       </c>
       <c r="L150" s="2">
-        <v>0.71629698181926738</v>
+        <v>0.73154669349675294</v>
       </c>
       <c r="M150" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O150" s="1">
         <v>4485</v>
@@ -8265,11 +8293,11 @@
       </c>
       <c r="C151" s="1">
         <f t="shared" si="7"/>
-        <v>150914.35001104098</v>
+        <v>154495.67808101533</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="8"/>
-        <v>60176.302169698189</v>
+        <v>56594.974099723848</v>
       </c>
       <c r="E151" s="1">
         <v>211090.65218073918</v>
@@ -8284,10 +8312,10 @@
         <v>211090.65218073918</v>
       </c>
       <c r="L151" s="2">
-        <v>0.71492673148702823</v>
+        <v>0.73189256125246926</v>
       </c>
       <c r="M151" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O151" s="1">
         <v>4651</v>
@@ -8305,11 +8333,11 @@
       </c>
       <c r="C152" s="1">
         <f t="shared" si="7"/>
-        <v>152612.83292064388</v>
+        <v>155850.86476046121</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="8"/>
-        <v>63601.378779045277</v>
+        <v>60363.346939227937</v>
       </c>
       <c r="E152" s="1">
         <v>216214.21169968916</v>
@@ -8324,10 +8352,10 @@
         <v>216214.21169968916</v>
       </c>
       <c r="L152" s="2">
-        <v>0.70584089603053268</v>
+        <v>0.72081693213085529</v>
       </c>
       <c r="M152" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O152" s="1">
         <v>4758</v>
@@ -8345,11 +8373,11 @@
       </c>
       <c r="C153" s="1">
         <f t="shared" si="7"/>
-        <v>163162.77101221582</v>
+        <v>166638.81072132292</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="8"/>
-        <v>65044.752459382769</v>
+        <v>61568.712750275692</v>
       </c>
       <c r="E153" s="1">
         <v>228207.5234715986</v>
@@ -8364,10 +8392,10 @@
         <v>228207.5234715986</v>
       </c>
       <c r="L153" s="2">
-        <v>0.71497542469287667</v>
+        <v>0.73020734893546058</v>
       </c>
       <c r="M153" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O153" s="1">
         <v>4953</v>
@@ -8385,11 +8413,11 @@
       </c>
       <c r="C154" s="1">
         <f t="shared" si="7"/>
-        <v>160796.81324791251</v>
+        <v>163954.83156578508</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="8"/>
-        <v>64932.58041554087</v>
+        <v>61774.562097668313</v>
       </c>
       <c r="E154" s="1">
         <v>225729.39366345337</v>
@@ -8404,10 +8432,10 @@
         <v>225729.39366345337</v>
       </c>
       <c r="L154" s="2">
-        <v>0.71234326481933152</v>
+        <v>0.72633354878997358</v>
       </c>
       <c r="M154" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O154" s="1">
         <v>5631</v>
@@ -8425,11 +8453,11 @@
       </c>
       <c r="C155" s="1">
         <f t="shared" si="7"/>
-        <v>166022.51818131533</v>
+        <v>169440.17069746388</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="8"/>
-        <v>64004.391731706295</v>
+        <v>60586.739215557755</v>
       </c>
       <c r="E155" s="1">
         <v>230026.90991302163</v>
@@ -8444,10 +8472,10 @@
         <v>230026.90991302163</v>
       </c>
       <c r="L155" s="2">
-        <v>0.7217525907907566</v>
+        <v>0.73661021122064818</v>
       </c>
       <c r="M155" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O155" s="1">
         <v>5683</v>
@@ -8465,11 +8493,11 @@
       </c>
       <c r="C156" s="1">
         <f t="shared" si="7"/>
-        <v>178551.35037173907</v>
+        <v>182230.00369752632</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="8"/>
-        <v>69188.436735366791</v>
+        <v>65509.783409579548</v>
       </c>
       <c r="E156" s="1">
         <v>247739.78710710586</v>
@@ -8484,10 +8512,10 @@
         <v>247739.78710710586</v>
       </c>
       <c r="L156" s="2">
-        <v>0.72072133611120603</v>
+        <v>0.73557019575035976</v>
       </c>
       <c r="M156" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O156" s="1">
         <v>5984</v>
@@ -8505,11 +8533,11 @@
       </c>
       <c r="C157" s="1">
         <f t="shared" si="7"/>
-        <v>177397.95986830004</v>
+        <v>180843.63676250761</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="8"/>
-        <v>72412.163534218242</v>
+        <v>68966.486640010669</v>
       </c>
       <c r="E157" s="1">
         <v>249810.12340251828</v>
@@ -8524,10 +8552,10 @@
         <v>249810.12340251828</v>
       </c>
       <c r="L157" s="2">
-        <v>0.7101311886486652</v>
+        <v>0.72392437223656791</v>
       </c>
       <c r="M157" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O157" s="1">
         <v>6020</v>
@@ -8545,11 +8573,11 @@
       </c>
       <c r="C158" s="1">
         <f t="shared" si="7"/>
-        <v>181251.26678645593</v>
+        <v>184895.33913503928</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="8"/>
-        <v>71497.061156521435</v>
+        <v>67852.988807938091</v>
       </c>
       <c r="E158" s="1">
         <v>252748.32794297737</v>
@@ -8567,10 +8595,10 @@
         <v>25</v>
       </c>
       <c r="L158" s="2">
-        <v>0.71712152662528428</v>
+        <v>0.73153931675763084</v>
       </c>
       <c r="M158" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O158" s="1">
         <v>6127</v>
@@ -8588,11 +8616,11 @@
       </c>
       <c r="C159" s="1">
         <f t="shared" si="7"/>
-        <v>193892.5965199843</v>
+        <v>197654.46539980834</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="8"/>
-        <v>76338.5712509203</v>
+        <v>72576.702371096268</v>
       </c>
       <c r="E159" s="1">
         <v>270231.16777090461</v>
@@ -8610,10 +8638,10 @@
         <v>1</v>
       </c>
       <c r="L159" s="2">
-        <v>0.71750641541230997</v>
+        <v>0.73142734433718237</v>
       </c>
       <c r="M159" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O159" s="1">
         <v>6480</v>
@@ -8631,11 +8659,11 @@
       </c>
       <c r="C160" s="1">
         <f t="shared" si="7"/>
-        <v>212174.04229363092</v>
+        <v>215847.81688491086</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="8"/>
-        <v>76784.258331231686</v>
+        <v>73110.483739951742</v>
       </c>
       <c r="E160" s="1">
         <v>288958.3006248626</v>
@@ -8653,10 +8681,10 @@
         <v>1</v>
       </c>
       <c r="L160" s="2">
-        <v>0.73427218333860522</v>
+        <v>0.74698604060913709</v>
       </c>
       <c r="M160" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O160" s="1">
         <v>6758</v>
@@ -8674,11 +8702,11 @@
       </c>
       <c r="C161" s="1">
         <f t="shared" si="7"/>
-        <v>227308.68809045717</v>
+        <v>231816.24120568283</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="8"/>
-        <v>76905.272408176897</v>
+        <v>72397.719292951238</v>
       </c>
       <c r="E161" s="1">
         <v>304213.96049863409</v>
@@ -8696,10 +8724,10 @@
         <v>1</v>
       </c>
       <c r="L161" s="2">
-        <v>0.74720005524361133</v>
+        <v>0.76201710409908585</v>
       </c>
       <c r="M161" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O161" s="1">
         <v>7109</v>
@@ -8717,11 +8745,11 @@
       </c>
       <c r="C162" s="1">
         <f t="shared" si="7"/>
-        <v>249946.87003899197</v>
+        <v>254551.83193078652</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="8"/>
-        <v>80067.103019694914</v>
+        <v>75462.141127900351</v>
       </c>
       <c r="E162" s="1">
         <f>J162*K162</f>
@@ -8744,10 +8772,10 @@
         <v>1.0285285285285286</v>
       </c>
       <c r="L162" s="2">
-        <v>0.75738268814012777</v>
+        <v>0.77133652727340485</v>
       </c>
       <c r="M162" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O162" s="1">
         <v>7702.107</v>
@@ -8765,11 +8793,11 @@
       </c>
       <c r="C163" s="1">
         <f t="shared" si="7"/>
-        <v>270917.39264751313</v>
+        <v>275745.27760527621</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="8"/>
-        <v>81082.60735248687</v>
+        <v>76254.722394723794</v>
       </c>
       <c r="E163" s="1">
         <f>I163</f>
@@ -8792,10 +8820,10 @@
         <v>1.057057057057057</v>
       </c>
       <c r="L163" s="2">
-        <v>0.76965168365770775</v>
+        <v>0.78336726592408013</v>
       </c>
       <c r="M163" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O163" s="1">
         <v>8036.2309999999998</v>
@@ -8813,11 +8841,11 @@
       </c>
       <c r="C164" s="1">
         <f t="shared" si="7"/>
-        <v>282685.84966599446</v>
+        <v>287417.88408861548</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="8"/>
-        <v>80314.15033400555</v>
+        <v>75582.115911384506</v>
       </c>
       <c r="E164" s="1">
         <f>I164</f>
@@ -8833,10 +8861,10 @@
         <v>363000</v>
       </c>
       <c r="L164" s="2">
-        <v>0.77874889715149986</v>
+        <v>0.79178480465183332</v>
       </c>
       <c r="M164" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O164" s="1">
         <v>8227.5290000000005</v>
@@ -8854,11 +8882,11 @@
       </c>
       <c r="C165" s="1">
         <f t="shared" si="7"/>
-        <v>237055.89447449011</v>
+        <v>242137.23434789662</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="8"/>
-        <v>75944.105525509891</v>
+        <v>70862.765652103364</v>
       </c>
       <c r="E165" s="1">
         <f t="shared" ref="E165:E167" si="9">I165</f>
@@ -8874,10 +8902,10 @@
         <v>313000</v>
       </c>
       <c r="L165" s="2">
-        <v>0.75736707499837097</v>
+        <v>0.7736013876929605</v>
       </c>
       <c r="M165" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O165" s="1">
         <v>7818.1090000000004</v>
@@ -8895,11 +8923,11 @@
       </c>
       <c r="C166" s="1">
         <f t="shared" si="7"/>
-        <v>220922.70749889806</v>
+        <v>224735.12061416334</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="8"/>
-        <v>72077.29250110194</v>
+        <v>68264.87938583667</v>
       </c>
       <c r="E166" s="1">
         <f t="shared" si="9"/>
@@ -8915,10 +8943,10 @@
         <v>293000</v>
       </c>
       <c r="L166" s="2">
-        <v>0.75400241467200702</v>
+        <v>0.76701406352956769</v>
       </c>
       <c r="M166" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O166" s="1">
         <v>8400.9240000000009</v>
@@ -8930,10 +8958,10 @@
         <v>284495.90499999997</v>
       </c>
       <c r="W166" s="1">
-        <v>260905</v>
+        <v>256479</v>
       </c>
       <c r="Y166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:26">
@@ -8945,11 +8973,11 @@
       </c>
       <c r="C167" s="1">
         <f>E167-D167</f>
-        <v>240547.77410804521</v>
+        <v>247823.05631006166</v>
       </c>
       <c r="D167" s="1">
         <f>$E167*(1-($L167-($U$168-$L$168)/2))</f>
-        <v>86452.225891954775</v>
+        <v>79176.943689938358</v>
       </c>
       <c r="E167" s="1">
         <f t="shared" si="9"/>
@@ -8965,10 +8993,10 @@
         <v>327000</v>
       </c>
       <c r="L167" s="2">
-        <v>0.7427321638484492</v>
+        <v>0.7572136436967043</v>
       </c>
       <c r="M167" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O167" s="1">
         <v>8738.5529999999999</v>
@@ -8980,13 +9008,13 @@
         <v>281552.51900000003</v>
       </c>
       <c r="W167" s="1">
-        <v>265416</v>
+        <v>260340</v>
       </c>
       <c r="X167" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y167" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z167" t="s">
         <v>24</v>
@@ -9021,10 +9049,10 @@
         <v>300000</v>
       </c>
       <c r="L168" s="2">
-        <v>0.74878962308784103</v>
+        <v>0.76432380224158403</v>
       </c>
       <c r="M168" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O168" s="1">
         <v>9197.3809999999994</v>
@@ -9042,15 +9070,15 @@
         <v>0.76301374217284201</v>
       </c>
       <c r="W168" s="1">
-        <v>253640</v>
+        <v>248485</v>
       </c>
       <c r="X168" s="16">
         <f>W168/T168</f>
-        <v>0.83779569508536678</v>
+        <v>0.82076826720267848</v>
       </c>
       <c r="Y168" s="15">
         <f>W168/$O168</f>
-        <v>27.577415788255376</v>
+        <v>27.016930145657771</v>
       </c>
       <c r="Z168" s="14">
         <f>T168/$O168</f>
@@ -9069,11 +9097,11 @@
         <v>224690.48050264802</v>
       </c>
       <c r="D169" s="1">
-        <f t="shared" ref="D169:D180" si="11">$E169*(1-$U169)</f>
+        <f t="shared" ref="D169:D174" si="11">$E169*(1-$U169)</f>
         <v>76141.232703885675</v>
       </c>
       <c r="E169" s="1">
-        <f t="shared" ref="E169:E175" si="12">T169</f>
+        <f t="shared" ref="E169:E174" si="12">T169</f>
         <v>300831.71320653369</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -9083,10 +9111,10 @@
         <v>128</v>
       </c>
       <c r="L169" s="2">
-        <v>0.7442968802138743</v>
+        <v>0.76019133691254714</v>
       </c>
       <c r="M169" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O169" s="1">
         <v>9452.9259999999995</v>
@@ -9104,15 +9132,15 @@
         <v>0.74689758638707249</v>
       </c>
       <c r="W169" s="1">
-        <v>254729</v>
+        <v>249403</v>
       </c>
       <c r="X169" s="16">
         <f t="shared" ref="X169:X174" si="13">W169/T169</f>
-        <v>0.84674915847425225</v>
+        <v>0.82904490800401187</v>
       </c>
       <c r="Y169" s="15">
-        <f t="shared" ref="Y169:Y177" si="14">W169/$O169</f>
-        <v>26.947106112964388</v>
+        <f t="shared" ref="Y169:Y178" si="14">W169/$O169</f>
+        <v>26.383682681954774</v>
       </c>
       <c r="Z169" s="14">
         <f t="shared" ref="Z169:Z174" si="15">T169/$O169</f>
@@ -9145,10 +9173,10 @@
         <v>128</v>
       </c>
       <c r="L170" s="2">
-        <v>0.71072492818043065</v>
+        <v>0.72633591218104843</v>
       </c>
       <c r="M170" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O170" s="1">
         <v>9816.4429999999993</v>
@@ -9166,15 +9194,15 @@
         <v>0.73471844654413399</v>
       </c>
       <c r="W170" s="1">
-        <v>261419</v>
+        <v>255799</v>
       </c>
       <c r="X170" s="16">
         <f t="shared" si="13"/>
-        <v>0.86296159220524304</v>
+        <v>0.84440959656531844</v>
       </c>
       <c r="Y170" s="15">
         <f t="shared" si="14"/>
-        <v>26.630725610080965</v>
+        <v>26.058216810304916</v>
       </c>
       <c r="Z170" s="14">
         <f t="shared" si="15"/>
@@ -9207,10 +9235,10 @@
         <v>128</v>
       </c>
       <c r="L171" s="2">
-        <v>0.67512507206754824</v>
+        <v>0.68857042725665873</v>
       </c>
       <c r="M171" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O171" s="1">
         <v>10013.126</v>
@@ -9228,15 +9256,15 @@
         <v>0.67198460918360425</v>
       </c>
       <c r="W171" s="1">
-        <v>268845</v>
+        <v>262512</v>
       </c>
       <c r="X171" s="16">
         <f t="shared" si="13"/>
-        <v>0.86656177934831813</v>
+        <v>0.84614876906874104</v>
       </c>
       <c r="Y171" s="15">
         <f t="shared" si="14"/>
-        <v>26.849257664389722</v>
+        <v>26.216787844275604</v>
       </c>
       <c r="Z171" s="14">
         <f t="shared" si="15"/>
@@ -9269,10 +9297,10 @@
         <v>128</v>
       </c>
       <c r="L172" s="2">
-        <v>0.68950328978527142</v>
+        <v>0.70414339872539422</v>
       </c>
       <c r="M172" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O172" s="1">
         <v>10246.614</v>
@@ -9290,15 +9318,15 @@
         <v>0.68025590000749525</v>
       </c>
       <c r="W172" s="1">
-        <v>274486</v>
+        <v>268789</v>
       </c>
       <c r="X172" s="16">
         <f t="shared" si="13"/>
-        <v>0.85365848749351847</v>
+        <v>0.83594067163678787</v>
       </c>
       <c r="Y172" s="15">
         <f t="shared" si="14"/>
-        <v>26.787971128804113</v>
+        <v>26.231982584686026</v>
       </c>
       <c r="Z172" s="14">
         <f t="shared" si="15"/>
@@ -9331,10 +9359,10 @@
         <v>128</v>
       </c>
       <c r="L173" s="2">
-        <v>0.69233878836878637</v>
+        <v>0.70649274908785731</v>
       </c>
       <c r="M173" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O173" s="1">
         <v>10713.89</v>
@@ -9352,15 +9380,15 @@
         <v>0.68079947030710697</v>
       </c>
       <c r="W173" s="1">
-        <v>286952</v>
+        <v>281206</v>
       </c>
       <c r="X173" s="16">
         <f t="shared" si="13"/>
-        <v>0.86158614027458247</v>
+        <v>0.84433351975959126</v>
       </c>
       <c r="Y173" s="15">
         <f t="shared" si="14"/>
-        <v>26.783175858628379</v>
+        <v>26.246862717463031</v>
       </c>
       <c r="Z173" s="14">
         <f t="shared" si="15"/>
@@ -9393,10 +9421,10 @@
         <v>128</v>
       </c>
       <c r="L174" s="2">
-        <v>0.68810496434258805</v>
+        <v>0.70216689393029486</v>
       </c>
       <c r="M174" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O174" s="1">
         <v>11019.15</v>
@@ -9414,15 +9442,15 @@
         <v>0.67497219725488611</v>
       </c>
       <c r="W174" s="1">
-        <v>288860</v>
+        <v>283078</v>
       </c>
       <c r="X174" s="16">
         <f t="shared" si="13"/>
-        <v>0.87411831127533102</v>
+        <v>0.85662141978535677</v>
       </c>
       <c r="Y174" s="15">
         <f t="shared" si="14"/>
-        <v>26.214363176833061</v>
+        <v>25.689640308009238</v>
       </c>
       <c r="Z174" s="14">
         <f t="shared" si="15"/>
@@ -9438,22 +9466,22 @@
       </c>
       <c r="C175" s="1">
         <f t="shared" ref="C175:C180" si="16">E175-D175</f>
-        <v>217318.74314701877</v>
+        <v>217032.42924707395</v>
       </c>
       <c r="D175" s="1">
         <f>$E175*(1-$L175*($U$174/$L$174))</f>
-        <v>113092.67772559154</v>
+        <v>112445.71363927455</v>
       </c>
       <c r="E175" s="1">
         <f>W175*SUM($T$172:$T$174)/SUM($W$172:$W$174)</f>
-        <v>330411.4208726103</v>
+        <v>329478.14288634848</v>
       </c>
       <c r="G175" s="3"/>
       <c r="L175" s="2">
-        <v>0.67051877200117804</v>
+        <v>0.6852554325396113</v>
       </c>
       <c r="M175" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O175" s="1">
         <v>11070.532999999999</v>
@@ -9462,11 +9490,11 @@
         <v>16</v>
       </c>
       <c r="W175" s="1">
-        <v>285212</v>
+        <v>278645</v>
       </c>
       <c r="Y175" s="15">
         <f t="shared" si="14"/>
-        <v>25.763167861926792</v>
+        <v>25.169971490984221</v>
       </c>
     </row>
     <row r="176" spans="1:26">
@@ -9478,35 +9506,35 @@
       </c>
       <c r="C176" s="1">
         <f t="shared" si="16"/>
-        <v>203834.61740877086</v>
+        <v>204283.93505542941</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" ref="D176:D180" si="17">$E176*(1-$L176*($U$174/$L$174))</f>
-        <v>97037.967757733742</v>
+        <v>97190.723619907207</v>
       </c>
       <c r="E176" s="1">
         <f t="shared" ref="E176:E177" si="18">W176*SUM($T$172:$T$174)/SUM($W$172:$W$174)</f>
-        <v>300872.58516650461</v>
+        <v>301474.65867533663</v>
       </c>
       <c r="G176" s="3"/>
       <c r="L176" s="2">
-        <v>0.69065972569826806</v>
+        <v>0.70491681113263938</v>
       </c>
       <c r="M176" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O176" s="1">
-        <v>10644.932000000001</v>
+        <v>10645</v>
       </c>
       <c r="P176" t="s">
         <v>16</v>
       </c>
       <c r="W176" s="1">
-        <v>259714</v>
+        <v>254962</v>
       </c>
       <c r="Y176" s="15">
         <f t="shared" si="14"/>
-        <v>24.397901273582583</v>
+        <v>23.951338656646314</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -9518,35 +9546,35 @@
       </c>
       <c r="C177" s="1">
         <f t="shared" si="16"/>
-        <v>213148.27782935736</v>
+        <v>213995.34147245961</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="17"/>
-        <v>100447.85555897477</v>
+        <v>100474.22036037479</v>
       </c>
       <c r="E177" s="1">
         <f t="shared" si="18"/>
-        <v>313596.13338833215</v>
+        <v>314469.56183283438</v>
       </c>
       <c r="G177" s="3"/>
       <c r="L177" s="2">
-        <v>0.69291495657506363</v>
+        <v>0.70791345806762118</v>
       </c>
       <c r="M177" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O177" s="1">
-        <v>10985.366</v>
+        <v>10985</v>
       </c>
       <c r="P177" t="s">
         <v>16</v>
       </c>
       <c r="W177" s="1">
-        <v>270697</v>
+        <v>265952</v>
       </c>
       <c r="Y177" s="15">
         <f t="shared" si="14"/>
-        <v>24.641600471026635</v>
+        <v>24.210468821119708</v>
       </c>
     </row>
     <row r="178" spans="1:25">
@@ -9558,29 +9586,35 @@
       </c>
       <c r="C178" s="1">
         <f t="shared" si="16"/>
-        <v>212338.31437360583</v>
+        <v>211713.89427179488</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="17"/>
-        <v>100066.15370785067</v>
+        <v>101560.68322607475</v>
       </c>
       <c r="E178" s="1">
         <f>E177*(O178/$O$177)</f>
-        <v>312404.46808145649</v>
+        <v>313274.57749786961</v>
       </c>
       <c r="G178" s="3"/>
-      <c r="L178" s="13">
-        <f>L177</f>
-        <v>0.69291495657506363</v>
+      <c r="L178" s="2">
+        <v>0.70303779450874626</v>
       </c>
       <c r="M178" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="O178" s="1">
-        <v>10943.6216092</v>
+        <v>10943.257</v>
       </c>
       <c r="P178" t="s">
         <v>16</v>
+      </c>
+      <c r="W178" s="1">
+        <v>266970</v>
+      </c>
+      <c r="Y178" s="15">
+        <f t="shared" si="14"/>
+        <v>24.395844856791722</v>
       </c>
     </row>
     <row r="179" spans="1:25">
@@ -9592,26 +9626,26 @@
       </c>
       <c r="C179" s="1">
         <f t="shared" si="16"/>
-        <v>216438.95792665862</v>
+        <v>215802.47912374872</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="17"/>
-        <v>101998.61525767209</v>
+        <v>103522.0068908274</v>
       </c>
       <c r="E179" s="1">
         <f t="shared" ref="E179:E180" si="19">E178*(O179/$O$177)</f>
-        <v>318437.57318433071</v>
+        <v>319324.4860145761</v>
       </c>
       <c r="G179" s="3"/>
       <c r="L179" s="13">
         <f t="shared" ref="L179:L180" si="20">L178</f>
-        <v>0.69291495657506363</v>
+        <v>0.70303779450874626</v>
       </c>
       <c r="M179" t="s">
         <v>22</v>
       </c>
       <c r="O179" s="1">
-        <v>11197.51363053344</v>
+        <v>11197.1405624</v>
       </c>
       <c r="P179" t="s">
         <v>16</v>
@@ -9626,26 +9660,26 @@
       </c>
       <c r="C180" s="1">
         <f t="shared" si="16"/>
-        <v>226950.55179527466</v>
+        <v>219970.02207218989</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="17"/>
-        <v>106952.28916656783</v>
+        <v>105521.20732438196</v>
       </c>
       <c r="E180" s="1">
         <f t="shared" si="19"/>
-        <v>333902.84096184251</v>
+        <v>325491.22939657187</v>
       </c>
       <c r="G180" s="3"/>
       <c r="L180" s="13">
         <f t="shared" si="20"/>
-        <v>0.69291495657506363</v>
+        <v>0.70303779450874626</v>
       </c>
       <c r="M180" t="s">
         <v>22</v>
       </c>
       <c r="O180" s="1">
-        <v>11518.88227172975</v>
+        <v>11197.1405624</v>
       </c>
       <c r="P180" t="s">
         <v>16</v>
